--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F5048E-BC89-4EFF-88DD-C2D48B38F2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285683B-9F93-47FF-8FE4-80CB8D4B1214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="64">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -217,6 +217,9 @@
     <t>IEA Baseline Data</t>
   </si>
   <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
@@ -230,9 +233,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0."/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -462,7 +466,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,9 +487,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -649,25 +657,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>282.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>290.51150000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>335.6395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>403.33150000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>465.38249999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>510.51050000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>544.35649999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,7 +1190,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACDF5A3-0F54-3251-6B60-EC272CFCBC80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC73DE92-6AF1-69FB-863D-6F778211E107}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1245,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC079EE-A5E7-5476-93EE-38BA90030B5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B52BB2-C881-149D-956E-A5D8E5F99144}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1684,7 @@
       </c>
       <c r="Q10" s="3">
         <f>SUMIFS(iea_data!I3:I9999,iea_data!$B$3:$B$9999,Veda!$Q$9)</f>
-        <v>0</v>
+        <v>282.05</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>58</v>
@@ -1696,31 +1704,31 @@
     <row r="12" spans="2:27" x14ac:dyDescent="0.45">
       <c r="R12" s="8">
         <f>Q10</f>
-        <v>0</v>
+        <v>282.05</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="0">$Q$10*H13</f>
-        <v>0</v>
+        <v>290.51150000000001</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>335.6395</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>403.33150000000001</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>465.38249999999999</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>510.51050000000004</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>544.35649999999998</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.45">
@@ -1855,31 +1863,31 @@
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="2">G16*R$12</f>
-        <v>0</v>
+        <v>2.8205</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.9051150000000003</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.356395</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.099945</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.961475</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.420420000000004</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27.217825000000001</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -1923,31 +1931,31 @@
       </c>
       <c r="R17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>98.717500000000001</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92.963680000000011</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100.69185</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>116.96613499999999</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>134.96092499999997</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>153.15315000000001</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>168.75051500000001</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -1990,31 +1998,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>172.0505</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.11713</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>198.02730499999998</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>225.86564000000001</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>251.30655000000002</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>270.57056500000004</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>288.50894499999998</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -2057,31 +2065,31 @@
       </c>
       <c r="R19" s="6">
         <f>G19*R$12</f>
-        <v>0</v>
+        <v>8.4615000000000009</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" ref="S19:X19" si="3">R19</f>
-        <v>0</v>
+        <v>8.4615000000000009</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.4615000000000009</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.4615000000000009</v>
       </c>
       <c r="V19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.4615000000000009</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.4615000000000009</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.4615000000000009</v>
       </c>
       <c r="Y19" t="s">
         <v>18</v>
@@ -2096,31 +2104,31 @@
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20:X20" si="4">R12-SUM(R17:R19)</f>
-        <v>0</v>
+        <v>2.8204999999999814</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.9691899999999691</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28.458844999999997</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52.038225000000011</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>70.653525000000002</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>78.325284999999951</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>78.635539999999992</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -2239,14 +2247,14 @@
     <row r="26" spans="4:27" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O26" s="3">
         <f>SUMIFS(iea_data!G3:G9999,iea_data!$B$3:$B$9999,Veda!$Q$9)</f>
-        <v>0</v>
+        <v>47.39</v>
       </c>
       <c r="Q26" t="s">
         <v>33</v>
       </c>
       <c r="R26" s="3">
         <f>O26</f>
-        <v>0</v>
+        <v>47.39</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -2263,14 +2271,14 @@
     <row r="27" spans="4:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O27" s="3">
         <f>SUMIFS(iea_data!H3:H9999,iea_data!$B$3:$B$9999,Veda!$Q$9)</f>
-        <v>0</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="Q27" t="s">
         <v>36</v>
       </c>
       <c r="R27" s="3">
         <f>-1*O27</f>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -2294,7 +2302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -2314,7 +2322,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2356,6 +2364,209 @@
       </c>
       <c r="I10" s="14" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1995</v>
+      </c>
+      <c r="C11" s="17">
+        <v>154.13</v>
+      </c>
+      <c r="D11" s="17">
+        <v>110.95</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="H11" s="18">
+        <v>-1.24</v>
+      </c>
+      <c r="I11" s="17">
+        <v>237.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="22">
+        <v>179.49</v>
+      </c>
+      <c r="D12" s="22">
+        <v>122.61</v>
+      </c>
+      <c r="E12" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>44.83</v>
+      </c>
+      <c r="H12" s="23">
+        <v>-0.48</v>
+      </c>
+      <c r="I12" s="22">
+        <v>269.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="17">
+        <v>185.44</v>
+      </c>
+      <c r="D13" s="17">
+        <v>146.13</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4.58</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>50.26</v>
+      </c>
+      <c r="H13" s="18">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="I13" s="17">
+        <v>296.83999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="22">
+        <v>166.69</v>
+      </c>
+      <c r="D14" s="22">
+        <v>160.71</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4.58</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G14" s="22">
+        <v>45.99</v>
+      </c>
+      <c r="H14" s="23">
+        <v>-1.83</v>
+      </c>
+      <c r="I14" s="22">
+        <v>298.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="17">
+        <v>149.07</v>
+      </c>
+      <c r="D15" s="17">
+        <v>163.76</v>
+      </c>
+      <c r="E15" s="18">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F15" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>50.85</v>
+      </c>
+      <c r="H15" s="18">
+        <v>-4.47</v>
+      </c>
+      <c r="I15" s="17">
+        <v>281.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="21">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="22">
+        <v>149.59</v>
+      </c>
+      <c r="D16" s="22">
+        <v>147.62</v>
+      </c>
+      <c r="E16" s="23">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="22">
+        <v>39.79</v>
+      </c>
+      <c r="H16" s="23">
+        <v>-7.59</v>
+      </c>
+      <c r="I16" s="22">
+        <v>278.58999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="17">
+        <v>146.43</v>
+      </c>
+      <c r="D17" s="17">
+        <v>165.99</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5.58</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="17">
+        <v>47.39</v>
+      </c>
+      <c r="H17" s="18">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="I17" s="17">
+        <v>282.05</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2402,7 +2613,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -2451,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="16">
         <v>2020</v>
@@ -2488,43 +2699,43 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="B12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="21">
         <v>2025</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="21">
         <v>60</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="22">
         <v>190.52</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="22">
         <v>181.51</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="22">
         <v>136.22999999999999</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="22">
         <v>1.81</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="22">
         <v>626.48</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="22">
         <v>115.48</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="22">
         <v>238.58</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2533,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="16">
         <v>2030</v>
@@ -2570,43 +2781,43 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="B14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="21">
         <v>2035</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="21">
         <v>60</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="22">
         <v>363.27</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="22">
         <v>339.03</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="22">
         <v>173.79</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="22">
         <v>14.37</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="22">
         <v>859.53</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="22">
         <v>227.05</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="22">
         <v>483.38</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2615,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="16">
         <v>2040</v>
@@ -2652,43 +2863,43 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="21">
         <v>2045</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="21">
         <v>60</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="22">
         <v>565.69000000000005</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="22">
         <v>494.2</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="22">
         <v>256.14999999999998</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="22">
         <v>193.42</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="22">
         <v>1269.8800000000001</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="22">
         <v>352.78</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="22">
         <v>748.01</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2697,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="16">
         <v>2050</v>
@@ -2734,43 +2945,43 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="B18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="21">
         <v>2020</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="21">
         <v>86</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="22">
         <v>6.44</v>
       </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
         <v>8.34</v>
       </c>
-      <c r="H18" s="20">
-        <v>0</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
         <v>24.5</v>
       </c>
-      <c r="J18" s="20">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
         <v>12.68</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2779,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="16">
         <v>2025</v>
@@ -2816,43 +3027,43 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="B20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="21">
         <v>2030</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="21">
         <v>86</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="22">
         <v>85.48</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="22">
         <v>63.36</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="22">
         <v>73.459999999999994</v>
       </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20">
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
         <v>409.5</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="22">
         <v>50</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="22">
         <v>111.1</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2861,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="16">
         <v>2035</v>
@@ -2898,43 +3109,43 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="21">
         <v>2040</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="21">
         <v>86</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="22">
         <v>253.33</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="22">
         <v>172.09</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="22">
         <v>359.35</v>
       </c>
-      <c r="H22" s="20">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
         <v>2600</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="22">
         <v>119.07</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="22">
         <v>259.39999999999998</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2943,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="16">
         <v>2045</v>
@@ -2980,43 +3191,43 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21">
         <v>2050</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="21">
         <v>86</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="22">
         <v>309.14999999999998</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="22">
         <v>285.02999999999997</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="22">
         <v>169.93</v>
       </c>
-      <c r="H24" s="20">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20">
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22">
         <v>729.74</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="22">
         <v>195.5</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="22">
         <v>417.87</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3025,7 +3236,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="16">
         <v>2020</v>
@@ -3062,43 +3273,43 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="19">
+      <c r="B26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="21">
         <v>2025</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="21">
         <v>167</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="22">
         <v>60.83</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="22">
         <v>42.81</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="22">
         <v>55.06</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="22">
         <v>0.05</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="22">
         <v>273</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="22">
         <v>23.68</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="22">
         <v>76.23</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3107,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="16">
         <v>2030</v>
@@ -3144,43 +3355,43 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="19">
+      <c r="B28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="21">
         <v>2035</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="21">
         <v>167</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="22">
         <v>130.19999999999999</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="22">
         <v>104.42</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="22">
         <v>98.85</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="22">
         <v>16.87</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="22">
         <v>960.63</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="22">
         <v>72.599999999999994</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="22">
         <v>168.65</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3189,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="16">
         <v>2040</v>
@@ -3226,43 +3437,43 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="B30" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="21">
         <v>2045</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="21">
         <v>167</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="22">
         <v>208.52</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="22">
         <v>178.1</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="22">
         <v>150.1</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="22">
         <v>46.46</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="22">
         <v>1564.8</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="22">
         <v>120.71</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="22">
         <v>263.56</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3271,7 +3482,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="16">
         <v>2050</v>
@@ -3308,43 +3519,43 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="19">
+      <c r="B32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="21">
         <v>2020</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="21">
         <v>74</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="22">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
         <v>7.73</v>
       </c>
-      <c r="H32" s="20">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="H32" s="22">
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
         <v>24.38</v>
       </c>
-      <c r="J32" s="20">
-        <v>0</v>
-      </c>
-      <c r="K32" s="20">
+      <c r="J32" s="22">
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
         <v>7.17</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3353,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="16">
         <v>2025</v>
@@ -3390,43 +3601,43 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="B34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="21">
         <v>2030</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="21">
         <v>74</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="22">
         <v>54.37</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="22">
         <v>43.88</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="22">
         <v>32.69</v>
       </c>
-      <c r="H34" s="20">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="H34" s="22">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
         <v>123.26</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="22">
         <v>28.1</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="22">
         <v>76.42</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3435,7 +3646,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="16">
         <v>2035</v>
@@ -3472,43 +3683,43 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="19">
+      <c r="B36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="21">
         <v>2040</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="21">
         <v>74</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="22">
         <v>86.34</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="22">
         <v>75.8</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="22">
         <v>43.25</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="22">
         <v>31.83</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="22">
         <v>281.89</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="22">
         <v>57.1</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="22">
         <v>108.06</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3517,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="16">
         <v>2045</v>
@@ -3554,43 +3765,43 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="19">
+      <c r="B38" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="21">
         <v>2050</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="21">
         <v>74</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="22">
         <v>132.24</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="22">
         <v>112.38</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="22">
         <v>60.01</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="22">
         <v>54.16</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="22">
         <v>331.7</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="22">
         <v>92.46</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="22">
         <v>161.43</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="L38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="18" t="s">
+      <c r="M38" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3599,7 +3810,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="16">
         <v>2020</v>
@@ -3636,43 +3847,43 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="B40" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="21">
         <v>2025</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="21">
         <v>50</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="22">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F40" s="20">
-        <v>0</v>
-      </c>
-      <c r="G40" s="20">
+      <c r="F40" s="22">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
         <v>7.98</v>
       </c>
-      <c r="H40" s="20">
-        <v>0</v>
-      </c>
-      <c r="I40" s="20">
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+      <c r="I40" s="22">
         <v>28.37</v>
       </c>
-      <c r="J40" s="20">
-        <v>0</v>
-      </c>
-      <c r="K40" s="20">
+      <c r="J40" s="22">
+        <v>0</v>
+      </c>
+      <c r="K40" s="22">
         <v>9.64</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3681,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="16">
         <v>2030</v>
@@ -3718,43 +3929,43 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="19">
+      <c r="B42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="21">
         <v>2035</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="21">
         <v>50</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="22">
         <v>4.74</v>
       </c>
-      <c r="F42" s="20">
-        <v>0</v>
-      </c>
-      <c r="G42" s="20">
+      <c r="F42" s="22">
+        <v>0</v>
+      </c>
+      <c r="G42" s="22">
         <v>7.39</v>
       </c>
-      <c r="H42" s="20">
-        <v>0</v>
-      </c>
-      <c r="I42" s="20">
+      <c r="H42" s="22">
+        <v>0</v>
+      </c>
+      <c r="I42" s="22">
         <v>25.15</v>
       </c>
-      <c r="J42" s="20">
-        <v>0</v>
-      </c>
-      <c r="K42" s="20">
+      <c r="J42" s="22">
+        <v>0</v>
+      </c>
+      <c r="K42" s="22">
         <v>9.1</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="L42" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M42" s="18" t="s">
+      <c r="M42" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3763,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="16">
         <v>2040</v>
@@ -3800,43 +4011,43 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="19">
+      <c r="B44" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="21">
         <v>2045</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="21">
         <v>50</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="22">
         <v>4.62</v>
       </c>
-      <c r="F44" s="20">
-        <v>0</v>
-      </c>
-      <c r="G44" s="20">
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
         <v>6.86</v>
       </c>
-      <c r="H44" s="20">
-        <v>0</v>
-      </c>
-      <c r="I44" s="20">
+      <c r="H44" s="22">
+        <v>0</v>
+      </c>
+      <c r="I44" s="22">
         <v>22.16</v>
       </c>
-      <c r="J44" s="20">
-        <v>0</v>
-      </c>
-      <c r="K44" s="20">
+      <c r="J44" s="22">
+        <v>0</v>
+      </c>
+      <c r="K44" s="22">
         <v>8.7799999999999994</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="L44" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3845,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="16">
         <v>2050</v>
@@ -3882,43 +4093,43 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="B46" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="21">
         <v>2020</v>
       </c>
-      <c r="D46" s="19">
-        <v>63</v>
-      </c>
-      <c r="E46" s="20">
+      <c r="D46" s="21">
+        <v>63</v>
+      </c>
+      <c r="E46" s="22">
         <v>1</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="22">
         <v>1</v>
       </c>
-      <c r="G46" s="20">
-        <v>0</v>
-      </c>
-      <c r="H46" s="20">
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
         <v>1</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="22">
         <v>1</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="22">
         <v>1</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="22">
         <v>1</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="L46" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3927,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="16">
         <v>2025</v>
@@ -3964,43 +4175,43 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="19">
+      <c r="B48" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="21">
         <v>2030</v>
       </c>
-      <c r="D48" s="19">
-        <v>63</v>
-      </c>
-      <c r="E48" s="20">
+      <c r="D48" s="21">
+        <v>63</v>
+      </c>
+      <c r="E48" s="22">
         <v>1.19</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="22">
         <v>1.19</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="22">
         <v>0.12</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="22">
         <v>1</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="22">
         <v>1.72</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="22">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="22">
         <v>1.21</v>
       </c>
-      <c r="L48" s="18" t="s">
+      <c r="L48" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M48" s="18" t="s">
+      <c r="M48" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4009,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="16">
         <v>2035</v>
@@ -4046,43 +4257,43 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="19">
+      <c r="B50" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="21">
         <v>2040</v>
       </c>
-      <c r="D50" s="19">
-        <v>63</v>
-      </c>
-      <c r="E50" s="20">
+      <c r="D50" s="21">
+        <v>63</v>
+      </c>
+      <c r="E50" s="22">
         <v>1.62</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="22">
         <v>1.65</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="22">
         <v>0.22</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="22">
         <v>1.02</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="22">
         <v>2.09</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="22">
         <v>1.53</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="22">
         <v>1.75</v>
       </c>
-      <c r="L50" s="18" t="s">
+      <c r="L50" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="18" t="s">
+      <c r="M50" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4091,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="16">
         <v>2045</v>
@@ -4128,43 +4339,43 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="19">
+      <c r="B52" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="21">
         <v>2050</v>
       </c>
-      <c r="D52" s="19">
-        <v>63</v>
-      </c>
-      <c r="E52" s="20">
+      <c r="D52" s="21">
+        <v>63</v>
+      </c>
+      <c r="E52" s="22">
         <v>1.92</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="22">
         <v>1.93</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="22">
         <v>0.31</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="22">
         <v>1.24</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="22">
         <v>2.54</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="22">
         <v>1.7</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="22">
         <v>2.14</v>
       </c>
-      <c r="L52" s="18" t="s">
+      <c r="L52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M52" s="18" t="s">
+      <c r="M52" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4173,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="16">
         <v>2020</v>
@@ -4210,43 +4421,43 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="19">
+      <c r="B54" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="21">
         <v>2025</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="21">
         <v>89</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="22">
         <v>1.06</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="22">
         <v>1.05</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="22">
         <v>0.05</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="22">
         <v>0.99</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="22">
         <v>1.41</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="22">
         <v>1.03</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="22">
         <v>1.08</v>
       </c>
-      <c r="L54" s="18" t="s">
+      <c r="L54" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="18" t="s">
+      <c r="M54" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4255,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="16">
         <v>2030</v>
@@ -4292,43 +4503,43 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="19">
+      <c r="B56" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="21">
         <v>2035</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="21">
         <v>89</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="22">
         <v>1.32</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="22">
         <v>1.32</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="22">
         <v>0.13</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="22">
         <v>1.03</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="22">
         <v>1.87</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="22">
         <v>1.26</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="22">
         <v>1.37</v>
       </c>
-      <c r="L56" s="18" t="s">
+      <c r="L56" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M56" s="18" t="s">
+      <c r="M56" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4337,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="16">
         <v>2040</v>
@@ -4374,43 +4585,43 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="19">
+      <c r="B58" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="21">
         <v>2045</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="21">
         <v>89</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="22">
         <v>1.68</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="22">
         <v>1.64</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="22">
         <v>0.24</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="22">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="22">
         <v>1.52</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="22">
         <v>1.88</v>
       </c>
-      <c r="L58" s="18" t="s">
+      <c r="L58" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="18" t="s">
+      <c r="M58" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4419,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="16">
         <v>2050</v>
@@ -4456,43 +4667,43 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="19">
+      <c r="B60" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="21">
         <v>2020</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="21">
         <v>219</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="22">
         <v>1</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="22">
         <v>1</v>
       </c>
-      <c r="G60" s="20">
-        <v>0</v>
-      </c>
-      <c r="H60" s="20">
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
         <v>1</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="22">
         <v>1</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="22">
         <v>1</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="22">
         <v>1</v>
       </c>
-      <c r="L60" s="18" t="s">
+      <c r="L60" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M60" s="18" t="s">
+      <c r="M60" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4501,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="16">
         <v>2025</v>
@@ -4538,43 +4749,43 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="19">
+      <c r="B62" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="21">
         <v>2030</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="21">
         <v>219</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="22">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="22">
         <v>1.17</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="22">
         <v>0.95</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="22">
         <v>1.44</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="22">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="22">
         <v>1.19</v>
       </c>
-      <c r="L62" s="18" t="s">
+      <c r="L62" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M62" s="18" t="s">
+      <c r="M62" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4583,7 +4794,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="16">
         <v>2035</v>
@@ -4620,43 +4831,43 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="19">
+      <c r="B64" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="21">
         <v>2040</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="21">
         <v>219</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="22">
         <v>1.47</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="22">
         <v>1.5</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="22">
         <v>0.2</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="22">
         <v>0.97</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="22">
         <v>1.9</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="22">
         <v>1.36</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="22">
         <v>1.61</v>
       </c>
-      <c r="L64" s="18" t="s">
+      <c r="L64" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M64" s="18" t="s">
+      <c r="M64" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4665,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="16">
         <v>2045</v>
@@ -4702,43 +4913,43 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="19">
+      <c r="B66" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="21">
         <v>2050</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="21">
         <v>219</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="22">
         <v>1.82</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="22">
         <v>1.81</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="22">
         <v>0.3</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="22">
         <v>2.73</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="22">
         <v>1.6</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="22">
         <v>2.0099999999999998</v>
       </c>
-      <c r="L66" s="18" t="s">
+      <c r="L66" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M66" s="18" t="s">
+      <c r="M66" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4747,7 +4958,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="16">
         <v>2020</v>
@@ -4784,43 +4995,43 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="19">
+      <c r="B68" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="21">
         <v>2025</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="21">
         <v>96</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="22">
         <v>1.06</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="22">
         <v>1.05</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="22">
         <v>0.05</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="22">
         <v>0.99</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I68" s="22">
         <v>1.24</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="22">
         <v>1.02</v>
       </c>
-      <c r="K68" s="20">
+      <c r="K68" s="22">
         <v>1.08</v>
       </c>
-      <c r="L68" s="18" t="s">
+      <c r="L68" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M68" s="18" t="s">
+      <c r="M68" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4829,7 +5040,7 @@
         <v>8</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="16">
         <v>2030</v>
@@ -4866,43 +5077,43 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="19">
+      <c r="B70" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="21">
         <v>2035</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="21">
         <v>96</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="22">
         <v>1.26</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="22">
         <v>1.29</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="22">
         <v>0.96</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="22">
         <v>1.54</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K70" s="20">
+      <c r="K70" s="22">
         <v>1.35</v>
       </c>
-      <c r="L70" s="18" t="s">
+      <c r="L70" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M70" s="18" t="s">
+      <c r="M70" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4911,7 +5122,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="16">
         <v>2040</v>
@@ -4948,43 +5159,43 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="19">
+      <c r="B72" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="21">
         <v>2045</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="21">
         <v>96</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="22">
         <v>1.57</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="22">
         <v>1.59</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="22">
         <v>0.27</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="22">
         <v>1.01</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="22">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J72" s="22">
         <v>1.43</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K72" s="22">
         <v>1.68</v>
       </c>
-      <c r="L72" s="18" t="s">
+      <c r="L72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M72" s="18" t="s">
+      <c r="M72" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4993,7 +5204,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="16">
         <v>2050</v>
@@ -5030,43 +5241,43 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="19">
+      <c r="B74" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="21">
         <v>2020</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="21">
         <v>61</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="22">
         <v>1</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="22">
         <v>1</v>
       </c>
-      <c r="G74" s="20">
-        <v>0</v>
-      </c>
-      <c r="H74" s="20">
+      <c r="G74" s="22">
+        <v>0</v>
+      </c>
+      <c r="H74" s="22">
         <v>1</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I74" s="22">
         <v>1</v>
       </c>
-      <c r="J74" s="20">
+      <c r="J74" s="22">
         <v>1</v>
       </c>
-      <c r="K74" s="20">
+      <c r="K74" s="22">
         <v>1</v>
       </c>
-      <c r="L74" s="18" t="s">
+      <c r="L74" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="18" t="s">
+      <c r="M74" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5075,7 +5286,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" s="16">
         <v>2025</v>
@@ -5112,43 +5323,43 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" s="19">
+      <c r="B76" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="21">
         <v>2030</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="21">
         <v>61</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G76" s="20">
+      <c r="G76" s="22">
         <v>0.09</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="22">
         <v>1.02</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I76" s="22">
         <v>1.58</v>
       </c>
-      <c r="J76" s="20">
+      <c r="J76" s="22">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K76" s="20">
+      <c r="K76" s="22">
         <v>1.2</v>
       </c>
-      <c r="L76" s="18" t="s">
+      <c r="L76" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M76" s="18" t="s">
+      <c r="M76" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5157,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" s="16">
         <v>2035</v>
@@ -5194,43 +5405,43 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="19">
+      <c r="B78" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="21">
         <v>2040</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="21">
         <v>61</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="22">
         <v>1.33</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="22">
         <v>1.3</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G78" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="22">
         <v>1.02</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="22">
         <v>1.72</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="22">
         <v>1.22</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="22">
         <v>1.44</v>
       </c>
-      <c r="L78" s="18" t="s">
+      <c r="L78" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M78" s="18" t="s">
+      <c r="M78" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5239,7 +5450,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C79" s="16">
         <v>2045</v>
@@ -5276,43 +5487,43 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="19">
+      <c r="B80" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="21">
         <v>2050</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="21">
         <v>61</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="22">
         <v>1.51</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="22">
         <v>1.48</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="22">
         <v>0.24</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="22">
         <v>1.04</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="22">
         <v>2.54</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J80" s="22">
         <v>1.36</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="22">
         <v>1.63</v>
       </c>
-      <c r="L80" s="18" t="s">
+      <c r="L80" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M80" s="18" t="s">
+      <c r="M80" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5321,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="16">
         <v>2020</v>
@@ -5358,43 +5569,43 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="19">
+      <c r="B82" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="21">
         <v>2025</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="21">
         <v>60</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="22">
         <v>0.01</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="22">
         <v>0.01</v>
       </c>
-      <c r="G82" s="20">
+      <c r="G82" s="22">
         <v>0.01</v>
       </c>
-      <c r="H82" s="20">
-        <v>0</v>
-      </c>
-      <c r="I82" s="20">
+      <c r="H82" s="22">
+        <v>0</v>
+      </c>
+      <c r="I82" s="22">
         <v>0.04</v>
       </c>
-      <c r="J82" s="20">
-        <v>0</v>
-      </c>
-      <c r="K82" s="20">
+      <c r="J82" s="22">
+        <v>0</v>
+      </c>
+      <c r="K82" s="22">
         <v>0.01</v>
       </c>
-      <c r="L82" s="18" t="s">
+      <c r="L82" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M82" s="18" t="s">
+      <c r="M82" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5403,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C83" s="16">
         <v>2030</v>
@@ -5440,43 +5651,43 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="19">
+      <c r="B84" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="21">
         <v>2035</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="21">
         <v>60</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="22">
         <v>0.03</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="22">
         <v>0.03</v>
       </c>
-      <c r="G84" s="20">
+      <c r="G84" s="22">
         <v>0.03</v>
       </c>
-      <c r="H84" s="20">
-        <v>0</v>
-      </c>
-      <c r="I84" s="20">
+      <c r="H84" s="22">
+        <v>0</v>
+      </c>
+      <c r="I84" s="22">
         <v>0.16</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J84" s="22">
         <v>0.01</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K84" s="22">
         <v>0.04</v>
       </c>
-      <c r="L84" s="18" t="s">
+      <c r="L84" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M84" s="18" t="s">
+      <c r="M84" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5485,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C85" s="16">
         <v>2040</v>
@@ -5522,43 +5733,43 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="19">
+      <c r="B86" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="21">
         <v>2045</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="21">
         <v>60</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="22">
         <v>0.05</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="22">
         <v>0.04</v>
       </c>
-      <c r="G86" s="20">
+      <c r="G86" s="22">
         <v>0.04</v>
       </c>
-      <c r="H86" s="20">
-        <v>0</v>
-      </c>
-      <c r="I86" s="20">
+      <c r="H86" s="22">
+        <v>0</v>
+      </c>
+      <c r="I86" s="22">
         <v>0.15</v>
       </c>
-      <c r="J86" s="20">
+      <c r="J86" s="22">
         <v>0.02</v>
       </c>
-      <c r="K86" s="20">
+      <c r="K86" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L86" s="18" t="s">
+      <c r="L86" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M86" s="18" t="s">
+      <c r="M86" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5567,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C87" s="16">
         <v>2050</v>
@@ -5604,43 +5815,43 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="19">
+      <c r="B88" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="21">
         <v>2020</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="21">
         <v>93</v>
       </c>
-      <c r="E88" s="20">
-        <v>0</v>
-      </c>
-      <c r="F88" s="20">
-        <v>0</v>
-      </c>
-      <c r="G88" s="20">
-        <v>0</v>
-      </c>
-      <c r="H88" s="20">
-        <v>0</v>
-      </c>
-      <c r="I88" s="20">
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>0</v>
+      </c>
+      <c r="I88" s="22">
         <v>0.01</v>
       </c>
-      <c r="J88" s="20">
-        <v>0</v>
-      </c>
-      <c r="K88" s="20">
-        <v>0</v>
-      </c>
-      <c r="L88" s="18" t="s">
+      <c r="J88" s="22">
+        <v>0</v>
+      </c>
+      <c r="K88" s="22">
+        <v>0</v>
+      </c>
+      <c r="L88" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M88" s="18" t="s">
+      <c r="M88" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5649,7 +5860,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C89" s="16">
         <v>2025</v>
@@ -5686,43 +5897,43 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="19">
+      <c r="B90" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="21">
         <v>2030</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="21">
         <v>93</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="22">
         <v>0.01</v>
       </c>
-      <c r="F90" s="20">
-        <v>0</v>
-      </c>
-      <c r="G90" s="20">
+      <c r="F90" s="22">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22">
         <v>0.01</v>
       </c>
-      <c r="H90" s="20">
-        <v>0</v>
-      </c>
-      <c r="I90" s="20">
+      <c r="H90" s="22">
+        <v>0</v>
+      </c>
+      <c r="I90" s="22">
         <v>0.05</v>
       </c>
-      <c r="J90" s="20">
-        <v>0</v>
-      </c>
-      <c r="K90" s="20">
+      <c r="J90" s="22">
+        <v>0</v>
+      </c>
+      <c r="K90" s="22">
         <v>0.02</v>
       </c>
-      <c r="L90" s="18" t="s">
+      <c r="L90" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M90" s="18" t="s">
+      <c r="M90" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5731,7 +5942,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C91" s="16">
         <v>2035</v>
@@ -5768,43 +5979,43 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" s="19">
+      <c r="B92" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="21">
         <v>2040</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="21">
         <v>93</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="22">
         <v>0.02</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="22">
         <v>0.02</v>
       </c>
-      <c r="G92" s="20">
+      <c r="G92" s="22">
         <v>0.03</v>
       </c>
-      <c r="H92" s="20">
-        <v>0</v>
-      </c>
-      <c r="I92" s="20">
+      <c r="H92" s="22">
+        <v>0</v>
+      </c>
+      <c r="I92" s="22">
         <v>0.11</v>
       </c>
-      <c r="J92" s="20">
-        <v>0</v>
-      </c>
-      <c r="K92" s="20">
+      <c r="J92" s="22">
+        <v>0</v>
+      </c>
+      <c r="K92" s="22">
         <v>0.04</v>
       </c>
-      <c r="L92" s="18" t="s">
+      <c r="L92" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M92" s="18" t="s">
+      <c r="M92" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5813,7 +6024,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C93" s="16">
         <v>2045</v>
@@ -5850,43 +6061,43 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C94" s="19">
+      <c r="B94" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="21">
         <v>2050</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="21">
         <v>93</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="22">
         <v>0.04</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="22">
         <v>0.04</v>
       </c>
-      <c r="G94" s="20">
+      <c r="G94" s="22">
         <v>0.04</v>
       </c>
-      <c r="H94" s="20">
-        <v>0</v>
-      </c>
-      <c r="I94" s="20">
+      <c r="H94" s="22">
+        <v>0</v>
+      </c>
+      <c r="I94" s="22">
         <v>0.21</v>
       </c>
-      <c r="J94" s="20">
+      <c r="J94" s="22">
         <v>0.01</v>
       </c>
-      <c r="K94" s="20">
+      <c r="K94" s="22">
         <v>0.06</v>
       </c>
-      <c r="L94" s="18" t="s">
+      <c r="L94" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="18" t="s">
+      <c r="M94" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5895,7 +6106,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C95" s="16">
         <v>2020</v>
@@ -5932,43 +6143,43 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="19">
+      <c r="B96" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="21">
         <v>2025</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="21">
         <v>192</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="22">
         <v>0.01</v>
       </c>
-      <c r="F96" s="20">
-        <v>0</v>
-      </c>
-      <c r="G96" s="20">
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
         <v>0.01</v>
       </c>
-      <c r="H96" s="20">
-        <v>0</v>
-      </c>
-      <c r="I96" s="20">
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
         <v>0.03</v>
       </c>
-      <c r="J96" s="20">
-        <v>0</v>
-      </c>
-      <c r="K96" s="20">
+      <c r="J96" s="22">
+        <v>0</v>
+      </c>
+      <c r="K96" s="22">
         <v>0.01</v>
       </c>
-      <c r="L96" s="18" t="s">
+      <c r="L96" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M96" s="18" t="s">
+      <c r="M96" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5977,7 +6188,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C97" s="16">
         <v>2030</v>
@@ -6014,43 +6225,43 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C98" s="19">
+      <c r="B98" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="21">
         <v>2035</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="21">
         <v>192</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="22">
         <v>0.02</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F98" s="22">
         <v>0.01</v>
       </c>
-      <c r="G98" s="20">
+      <c r="G98" s="22">
         <v>0.02</v>
       </c>
-      <c r="H98" s="20">
-        <v>0</v>
-      </c>
-      <c r="I98" s="20">
+      <c r="H98" s="22">
+        <v>0</v>
+      </c>
+      <c r="I98" s="22">
         <v>0.15</v>
       </c>
-      <c r="J98" s="20">
-        <v>0</v>
-      </c>
-      <c r="K98" s="20">
+      <c r="J98" s="22">
+        <v>0</v>
+      </c>
+      <c r="K98" s="22">
         <v>0.03</v>
       </c>
-      <c r="L98" s="18" t="s">
+      <c r="L98" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M98" s="18" t="s">
+      <c r="M98" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6059,7 +6270,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C99" s="16">
         <v>2040</v>
@@ -6096,43 +6307,43 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" s="19">
+      <c r="B100" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" s="21">
         <v>2045</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="21">
         <v>192</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="22">
         <v>0.03</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="22">
         <v>0.02</v>
       </c>
-      <c r="G100" s="20">
+      <c r="G100" s="22">
         <v>0.03</v>
       </c>
-      <c r="H100" s="20">
-        <v>0</v>
-      </c>
-      <c r="I100" s="20">
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
         <v>0.13</v>
       </c>
-      <c r="J100" s="20">
-        <v>0</v>
-      </c>
-      <c r="K100" s="20">
+      <c r="J100" s="22">
+        <v>0</v>
+      </c>
+      <c r="K100" s="22">
         <v>0.05</v>
       </c>
-      <c r="L100" s="18" t="s">
+      <c r="L100" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M100" s="18" t="s">
+      <c r="M100" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6141,7 +6352,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C101" s="16">
         <v>2050</v>
@@ -6178,43 +6389,43 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" s="19">
+      <c r="B102" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="21">
         <v>2020</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="21">
         <v>102</v>
       </c>
-      <c r="E102" s="20">
-        <v>0</v>
-      </c>
-      <c r="F102" s="20">
-        <v>0</v>
-      </c>
-      <c r="G102" s="20">
-        <v>0</v>
-      </c>
-      <c r="H102" s="20">
-        <v>0</v>
-      </c>
-      <c r="I102" s="20">
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
         <v>0.01</v>
       </c>
-      <c r="J102" s="20">
-        <v>0</v>
-      </c>
-      <c r="K102" s="20">
-        <v>0</v>
-      </c>
-      <c r="L102" s="18" t="s">
+      <c r="J102" s="22">
+        <v>0</v>
+      </c>
+      <c r="K102" s="22">
+        <v>0</v>
+      </c>
+      <c r="L102" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M102" s="18" t="s">
+      <c r="M102" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6223,7 +6434,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" s="16">
         <v>2025</v>
@@ -6260,43 +6471,43 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C104" s="19">
+      <c r="B104" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="21">
         <v>2030</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="21">
         <v>102</v>
       </c>
-      <c r="E104" s="20">
+      <c r="E104" s="22">
         <v>0.01</v>
       </c>
-      <c r="F104" s="20">
-        <v>0</v>
-      </c>
-      <c r="G104" s="20">
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
         <v>0.01</v>
       </c>
-      <c r="H104" s="20">
-        <v>0</v>
-      </c>
-      <c r="I104" s="20">
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
         <v>0.04</v>
       </c>
-      <c r="J104" s="20">
-        <v>0</v>
-      </c>
-      <c r="K104" s="20">
+      <c r="J104" s="22">
+        <v>0</v>
+      </c>
+      <c r="K104" s="22">
         <v>0.01</v>
       </c>
-      <c r="L104" s="18" t="s">
+      <c r="L104" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M104" s="18" t="s">
+      <c r="M104" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6305,7 +6516,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C105" s="16">
         <v>2035</v>
@@ -6342,43 +6553,43 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" s="19">
+      <c r="B106" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="21">
         <v>2040</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="21">
         <v>102</v>
       </c>
-      <c r="E106" s="20">
+      <c r="E106" s="22">
         <v>0.02</v>
       </c>
-      <c r="F106" s="20">
-        <v>0</v>
-      </c>
-      <c r="G106" s="20">
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
         <v>0.02</v>
       </c>
-      <c r="H106" s="20">
-        <v>0</v>
-      </c>
-      <c r="I106" s="20">
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
         <v>0.09</v>
       </c>
-      <c r="J106" s="20">
-        <v>0</v>
-      </c>
-      <c r="K106" s="20">
+      <c r="J106" s="22">
+        <v>0</v>
+      </c>
+      <c r="K106" s="22">
         <v>0.04</v>
       </c>
-      <c r="L106" s="18" t="s">
+      <c r="L106" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M106" s="18" t="s">
+      <c r="M106" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6387,7 +6598,7 @@
         <v>8</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C107" s="16">
         <v>2045</v>
@@ -6424,43 +6635,43 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="19">
+      <c r="B108" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="21">
         <v>2050</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="21">
         <v>102</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E108" s="22">
         <v>0.02</v>
       </c>
-      <c r="F108" s="20">
-        <v>0</v>
-      </c>
-      <c r="G108" s="20">
+      <c r="F108" s="22">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22">
         <v>0.03</v>
       </c>
-      <c r="H108" s="20">
-        <v>0</v>
-      </c>
-      <c r="I108" s="20">
+      <c r="H108" s="22">
+        <v>0</v>
+      </c>
+      <c r="I108" s="22">
         <v>0.11</v>
       </c>
-      <c r="J108" s="20">
-        <v>0</v>
-      </c>
-      <c r="K108" s="20">
+      <c r="J108" s="22">
+        <v>0</v>
+      </c>
+      <c r="K108" s="22">
         <v>0.04</v>
       </c>
-      <c r="L108" s="18" t="s">
+      <c r="L108" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M108" s="18" t="s">
+      <c r="M108" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6469,7 +6680,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C109" s="16">
         <v>2020</v>
@@ -6506,43 +6717,43 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C110" s="19">
+      <c r="B110" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="21">
         <v>2025</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="21">
         <v>53</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E110" s="22">
         <v>0.01</v>
       </c>
-      <c r="F110" s="20">
-        <v>0</v>
-      </c>
-      <c r="G110" s="20">
+      <c r="F110" s="22">
+        <v>0</v>
+      </c>
+      <c r="G110" s="22">
         <v>0.01</v>
       </c>
-      <c r="H110" s="20">
-        <v>0</v>
-      </c>
-      <c r="I110" s="20">
+      <c r="H110" s="22">
+        <v>0</v>
+      </c>
+      <c r="I110" s="22">
         <v>0.03</v>
       </c>
-      <c r="J110" s="20">
-        <v>0</v>
-      </c>
-      <c r="K110" s="20">
+      <c r="J110" s="22">
+        <v>0</v>
+      </c>
+      <c r="K110" s="22">
         <v>0.01</v>
       </c>
-      <c r="L110" s="18" t="s">
+      <c r="L110" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M110" s="18" t="s">
+      <c r="M110" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6551,7 +6762,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C111" s="16">
         <v>2030</v>
@@ -6588,43 +6799,43 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C112" s="19">
+      <c r="B112" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" s="21">
         <v>2035</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="21">
         <v>53</v>
       </c>
-      <c r="E112" s="20">
+      <c r="E112" s="22">
         <v>0.02</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="22">
         <v>0.01</v>
       </c>
-      <c r="G112" s="20">
+      <c r="G112" s="22">
         <v>0.02</v>
       </c>
-      <c r="H112" s="20">
-        <v>0</v>
-      </c>
-      <c r="I112" s="20">
+      <c r="H112" s="22">
+        <v>0</v>
+      </c>
+      <c r="I112" s="22">
         <v>0.06</v>
       </c>
-      <c r="J112" s="20">
-        <v>0</v>
-      </c>
-      <c r="K112" s="20">
+      <c r="J112" s="22">
+        <v>0</v>
+      </c>
+      <c r="K112" s="22">
         <v>0.03</v>
       </c>
-      <c r="L112" s="18" t="s">
+      <c r="L112" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M112" s="18" t="s">
+      <c r="M112" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6633,7 +6844,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C113" s="16">
         <v>2040</v>
@@ -6670,43 +6881,43 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="19">
+      <c r="B114" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="21">
         <v>2045</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="21">
         <v>53</v>
       </c>
-      <c r="E114" s="20">
+      <c r="E114" s="22">
         <v>0.03</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="22">
         <v>0.02</v>
       </c>
-      <c r="G114" s="20">
+      <c r="G114" s="22">
         <v>0.03</v>
       </c>
-      <c r="H114" s="20">
-        <v>0</v>
-      </c>
-      <c r="I114" s="20">
+      <c r="H114" s="22">
+        <v>0</v>
+      </c>
+      <c r="I114" s="22">
         <v>0.1</v>
       </c>
-      <c r="J114" s="20">
+      <c r="J114" s="22">
         <v>0.01</v>
       </c>
-      <c r="K114" s="20">
+      <c r="K114" s="22">
         <v>0.05</v>
       </c>
-      <c r="L114" s="18" t="s">
+      <c r="L114" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M114" s="18" t="s">
+      <c r="M114" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6715,7 +6926,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C115" s="16">
         <v>2050</v>
@@ -6752,43 +6963,43 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="19">
+      <c r="B116" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="21">
         <v>2020</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="21">
         <v>61</v>
       </c>
-      <c r="E116" s="20">
+      <c r="E116" s="22">
         <v>0.36</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="22">
         <v>0.35</v>
       </c>
-      <c r="G116" s="20">
+      <c r="G116" s="22">
         <v>0.02</v>
       </c>
-      <c r="H116" s="20">
+      <c r="H116" s="22">
         <v>0.33</v>
       </c>
-      <c r="I116" s="20">
+      <c r="I116" s="22">
         <v>0.41</v>
       </c>
-      <c r="J116" s="20">
+      <c r="J116" s="22">
         <v>0.35</v>
       </c>
-      <c r="K116" s="20">
+      <c r="K116" s="22">
         <v>0.37</v>
       </c>
-      <c r="L116" s="18" t="s">
+      <c r="L116" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M116" s="18" t="s">
+      <c r="M116" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6797,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C117" s="16">
         <v>2025</v>
@@ -6834,43 +7045,43 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="19">
+      <c r="B118" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="21">
         <v>2030</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="21">
         <v>61</v>
       </c>
-      <c r="E118" s="20">
+      <c r="E118" s="22">
         <v>0.32</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="22">
         <v>0.3</v>
       </c>
-      <c r="G118" s="20">
+      <c r="G118" s="22">
         <v>0.06</v>
       </c>
-      <c r="H118" s="20">
+      <c r="H118" s="22">
         <v>0.25</v>
       </c>
-      <c r="I118" s="20">
+      <c r="I118" s="22">
         <v>0.48</v>
       </c>
-      <c r="J118" s="20">
+      <c r="J118" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K118" s="20">
+      <c r="K118" s="22">
         <v>0.34</v>
       </c>
-      <c r="L118" s="18" t="s">
+      <c r="L118" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M118" s="18" t="s">
+      <c r="M118" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6879,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C119" s="16">
         <v>2035</v>
@@ -6916,43 +7127,43 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C120" s="19">
+      <c r="B120" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" s="21">
         <v>2040</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="21">
         <v>61</v>
       </c>
-      <c r="E120" s="20">
+      <c r="E120" s="22">
         <v>0.31</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G120" s="20">
+      <c r="G120" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H120" s="20">
+      <c r="H120" s="22">
         <v>0.22</v>
       </c>
-      <c r="I120" s="20">
+      <c r="I120" s="22">
         <v>0.49</v>
       </c>
-      <c r="J120" s="20">
+      <c r="J120" s="22">
         <v>0.27</v>
       </c>
-      <c r="K120" s="20">
+      <c r="K120" s="22">
         <v>0.33</v>
       </c>
-      <c r="L120" s="18" t="s">
+      <c r="L120" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M120" s="18" t="s">
+      <c r="M120" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6961,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C121" s="16">
         <v>2045</v>
@@ -6998,43 +7209,43 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" s="19">
+      <c r="B122" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="21">
         <v>2050</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D122" s="21">
         <v>61</v>
       </c>
-      <c r="E122" s="20">
+      <c r="E122" s="22">
         <v>0.32</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="22">
         <v>0.31</v>
       </c>
-      <c r="G122" s="20">
+      <c r="G122" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H122" s="20">
+      <c r="H122" s="22">
         <v>0.21</v>
       </c>
-      <c r="I122" s="20">
+      <c r="I122" s="22">
         <v>0.48</v>
       </c>
-      <c r="J122" s="20">
+      <c r="J122" s="22">
         <v>0.26</v>
       </c>
-      <c r="K122" s="20">
+      <c r="K122" s="22">
         <v>0.35</v>
       </c>
-      <c r="L122" s="18" t="s">
+      <c r="L122" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M122" s="18" t="s">
+      <c r="M122" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7043,7 +7254,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C123" s="16">
         <v>2020</v>
@@ -7080,43 +7291,43 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C124" s="19">
+      <c r="B124" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="21">
         <v>2025</v>
       </c>
-      <c r="D124" s="19">
+      <c r="D124" s="21">
         <v>89</v>
       </c>
-      <c r="E124" s="20">
+      <c r="E124" s="22">
         <v>0.34</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="22">
         <v>0.34</v>
       </c>
-      <c r="G124" s="20">
+      <c r="G124" s="22">
         <v>0.05</v>
       </c>
-      <c r="H124" s="20">
-        <v>0</v>
-      </c>
-      <c r="I124" s="20">
+      <c r="H124" s="22">
+        <v>0</v>
+      </c>
+      <c r="I124" s="22">
         <v>0.44</v>
       </c>
-      <c r="J124" s="20">
+      <c r="J124" s="22">
         <v>0.32</v>
       </c>
-      <c r="K124" s="20">
+      <c r="K124" s="22">
         <v>0.38</v>
       </c>
-      <c r="L124" s="18" t="s">
+      <c r="L124" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M124" s="18" t="s">
+      <c r="M124" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7125,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C125" s="16">
         <v>2030</v>
@@ -7162,43 +7373,43 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="19">
+      <c r="B126" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="21">
         <v>2035</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="21">
         <v>89</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E126" s="22">
         <v>0.32</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="22">
         <v>0.3</v>
       </c>
-      <c r="G126" s="20">
+      <c r="G126" s="22">
         <v>0.06</v>
       </c>
-      <c r="H126" s="20">
+      <c r="H126" s="22">
         <v>0.25</v>
       </c>
-      <c r="I126" s="20">
+      <c r="I126" s="22">
         <v>0.49</v>
       </c>
-      <c r="J126" s="20">
+      <c r="J126" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K126" s="20">
+      <c r="K126" s="22">
         <v>0.36</v>
       </c>
-      <c r="L126" s="18" t="s">
+      <c r="L126" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M126" s="18" t="s">
+      <c r="M126" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7207,7 +7418,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C127" s="16">
         <v>2040</v>
@@ -7244,43 +7455,43 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C128" s="19">
+      <c r="B128" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="21">
         <v>2045</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="21">
         <v>89</v>
       </c>
-      <c r="E128" s="20">
+      <c r="E128" s="22">
         <v>0.32</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="22">
         <v>0.31</v>
       </c>
-      <c r="G128" s="20">
+      <c r="G128" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H128" s="20">
+      <c r="H128" s="22">
         <v>0.21</v>
       </c>
-      <c r="I128" s="20">
+      <c r="I128" s="22">
         <v>0.47</v>
       </c>
-      <c r="J128" s="20">
+      <c r="J128" s="22">
         <v>0.26</v>
       </c>
-      <c r="K128" s="20">
+      <c r="K128" s="22">
         <v>0.35</v>
       </c>
-      <c r="L128" s="18" t="s">
+      <c r="L128" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M128" s="18" t="s">
+      <c r="M128" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7289,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C129" s="16">
         <v>2050</v>
@@ -7326,43 +7537,43 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B130" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130" s="19">
+      <c r="B130" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="21">
         <v>2020</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="21">
         <v>219</v>
       </c>
-      <c r="E130" s="20">
+      <c r="E130" s="22">
         <v>0.37</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="22">
         <v>0.36</v>
       </c>
-      <c r="G130" s="20">
+      <c r="G130" s="22">
         <v>0.02</v>
       </c>
-      <c r="H130" s="20">
+      <c r="H130" s="22">
         <v>0.32</v>
       </c>
-      <c r="I130" s="20">
+      <c r="I130" s="22">
         <v>0.41</v>
       </c>
-      <c r="J130" s="20">
+      <c r="J130" s="22">
         <v>0.35</v>
       </c>
-      <c r="K130" s="20">
+      <c r="K130" s="22">
         <v>0.37</v>
       </c>
-      <c r="L130" s="18" t="s">
+      <c r="L130" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M130" s="18" t="s">
+      <c r="M130" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7371,7 +7582,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C131" s="16">
         <v>2025</v>
@@ -7408,43 +7619,43 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" s="19">
+      <c r="B132" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="21">
         <v>2030</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D132" s="21">
         <v>219</v>
       </c>
-      <c r="E132" s="20">
+      <c r="E132" s="22">
         <v>0.31</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="22">
         <v>0.31</v>
       </c>
-      <c r="G132" s="20">
+      <c r="G132" s="22">
         <v>0.1</v>
       </c>
-      <c r="H132" s="20">
-        <v>0</v>
-      </c>
-      <c r="I132" s="20">
+      <c r="H132" s="22">
+        <v>0</v>
+      </c>
+      <c r="I132" s="22">
         <v>0.48</v>
       </c>
-      <c r="J132" s="20">
+      <c r="J132" s="22">
         <v>0.3</v>
       </c>
-      <c r="K132" s="20">
+      <c r="K132" s="22">
         <v>0.34</v>
       </c>
-      <c r="L132" s="18" t="s">
+      <c r="L132" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M132" s="18" t="s">
+      <c r="M132" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7453,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C133" s="16">
         <v>2035</v>
@@ -7490,43 +7701,43 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="19">
+      <c r="B134" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="21">
         <v>2040</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D134" s="21">
         <v>219</v>
       </c>
-      <c r="E134" s="20">
+      <c r="E134" s="22">
         <v>0.31</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G134" s="20">
+      <c r="G134" s="22">
         <v>0.06</v>
       </c>
-      <c r="H134" s="20">
+      <c r="H134" s="22">
         <v>0.2</v>
       </c>
-      <c r="I134" s="20">
+      <c r="I134" s="22">
         <v>0.49</v>
       </c>
-      <c r="J134" s="20">
+      <c r="J134" s="22">
         <v>0.27</v>
       </c>
-      <c r="K134" s="20">
+      <c r="K134" s="22">
         <v>0.35</v>
       </c>
-      <c r="L134" s="18" t="s">
+      <c r="L134" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M134" s="18" t="s">
+      <c r="M134" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7535,7 +7746,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C135" s="16">
         <v>2045</v>
@@ -7572,43 +7783,43 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C136" s="19">
+      <c r="B136" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="21">
         <v>2050</v>
       </c>
-      <c r="D136" s="19">
+      <c r="D136" s="21">
         <v>219</v>
       </c>
-      <c r="E136" s="20">
+      <c r="E136" s="22">
         <v>0.31</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="22">
         <v>0.3</v>
       </c>
-      <c r="G136" s="20">
+      <c r="G136" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H136" s="20">
+      <c r="H136" s="22">
         <v>0.18</v>
       </c>
-      <c r="I136" s="20">
+      <c r="I136" s="22">
         <v>0.49</v>
       </c>
-      <c r="J136" s="20">
+      <c r="J136" s="22">
         <v>0.26</v>
       </c>
-      <c r="K136" s="20">
+      <c r="K136" s="22">
         <v>0.36</v>
       </c>
-      <c r="L136" s="18" t="s">
+      <c r="L136" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M136" s="18" t="s">
+      <c r="M136" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7617,7 +7828,7 @@
         <v>8</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C137" s="16">
         <v>2020</v>
@@ -7654,43 +7865,43 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C138" s="19">
+      <c r="B138" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" s="21">
         <v>2025</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="21">
         <v>95</v>
       </c>
-      <c r="E138" s="20">
+      <c r="E138" s="22">
         <v>0.33</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="22">
         <v>0.35</v>
       </c>
-      <c r="G138" s="20">
+      <c r="G138" s="22">
         <v>0.11</v>
       </c>
-      <c r="H138" s="20">
-        <v>0</v>
-      </c>
-      <c r="I138" s="20">
+      <c r="H138" s="22">
+        <v>0</v>
+      </c>
+      <c r="I138" s="22">
         <v>0.43</v>
       </c>
-      <c r="J138" s="20">
+      <c r="J138" s="22">
         <v>0.32</v>
       </c>
-      <c r="K138" s="20">
+      <c r="K138" s="22">
         <v>0.38</v>
       </c>
-      <c r="L138" s="18" t="s">
+      <c r="L138" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M138" s="18" t="s">
+      <c r="M138" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7699,7 +7910,7 @@
         <v>8</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C139" s="16">
         <v>2030</v>
@@ -7736,43 +7947,43 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C140" s="19">
+      <c r="B140" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="21">
         <v>2035</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="21">
         <v>95</v>
       </c>
-      <c r="E140" s="20">
+      <c r="E140" s="22">
         <v>0.33</v>
       </c>
-      <c r="F140" s="20">
+      <c r="F140" s="22">
         <v>0.33</v>
       </c>
-      <c r="G140" s="20">
+      <c r="G140" s="22">
         <v>0.05</v>
       </c>
-      <c r="H140" s="20">
+      <c r="H140" s="22">
         <v>0.25</v>
       </c>
-      <c r="I140" s="20">
+      <c r="I140" s="22">
         <v>0.45</v>
       </c>
-      <c r="J140" s="20">
+      <c r="J140" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K140" s="20">
+      <c r="K140" s="22">
         <v>0.37</v>
       </c>
-      <c r="L140" s="18" t="s">
+      <c r="L140" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M140" s="18" t="s">
+      <c r="M140" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7781,7 +7992,7 @@
         <v>8</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C141" s="16">
         <v>2040</v>
@@ -7818,43 +8029,43 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C142" s="19">
+      <c r="B142" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" s="21">
         <v>2045</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="21">
         <v>95</v>
       </c>
-      <c r="E142" s="20">
+      <c r="E142" s="22">
         <v>0.31</v>
       </c>
-      <c r="F142" s="20">
+      <c r="F142" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G142" s="20">
+      <c r="G142" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H142" s="20">
+      <c r="H142" s="22">
         <v>0.21</v>
       </c>
-      <c r="I142" s="20">
+      <c r="I142" s="22">
         <v>0.48</v>
       </c>
-      <c r="J142" s="20">
+      <c r="J142" s="22">
         <v>0.27</v>
       </c>
-      <c r="K142" s="20">
+      <c r="K142" s="22">
         <v>0.35</v>
       </c>
-      <c r="L142" s="18" t="s">
+      <c r="L142" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M142" s="18" t="s">
+      <c r="M142" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7863,7 +8074,7 @@
         <v>8</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C143" s="16">
         <v>2050</v>
@@ -7900,43 +8111,43 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B144" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="19">
+      <c r="B144" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C144" s="21">
         <v>2020</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="21">
         <v>60</v>
       </c>
-      <c r="E144" s="20">
+      <c r="E144" s="22">
         <v>0.36</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F144" s="22">
         <v>0.35</v>
       </c>
-      <c r="G144" s="20">
+      <c r="G144" s="22">
         <v>0.02</v>
       </c>
-      <c r="H144" s="20">
+      <c r="H144" s="22">
         <v>0.33</v>
       </c>
-      <c r="I144" s="20">
+      <c r="I144" s="22">
         <v>0.41</v>
       </c>
-      <c r="J144" s="20">
+      <c r="J144" s="22">
         <v>0.35</v>
       </c>
-      <c r="K144" s="20">
+      <c r="K144" s="22">
         <v>0.37</v>
       </c>
-      <c r="L144" s="18" t="s">
+      <c r="L144" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M144" s="18" t="s">
+      <c r="M144" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7945,7 +8156,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C145" s="16">
         <v>2025</v>
@@ -7982,43 +8193,43 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B146" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C146" s="19">
+      <c r="B146" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="21">
         <v>2030</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="21">
         <v>60</v>
       </c>
-      <c r="E146" s="20">
+      <c r="E146" s="22">
         <v>0.34</v>
       </c>
-      <c r="F146" s="20">
+      <c r="F146" s="22">
         <v>0.34</v>
       </c>
-      <c r="G146" s="20">
+      <c r="G146" s="22">
         <v>0.03</v>
       </c>
-      <c r="H146" s="20">
+      <c r="H146" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I146" s="20">
+      <c r="I146" s="22">
         <v>0.41</v>
       </c>
-      <c r="J146" s="20">
+      <c r="J146" s="22">
         <v>0.31</v>
       </c>
-      <c r="K146" s="20">
+      <c r="K146" s="22">
         <v>0.36</v>
       </c>
-      <c r="L146" s="18" t="s">
+      <c r="L146" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M146" s="18" t="s">
+      <c r="M146" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8027,7 +8238,7 @@
         <v>10</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C147" s="16">
         <v>2035</v>
@@ -8064,43 +8275,43 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B148" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C148" s="19">
+      <c r="B148" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="21">
         <v>2040</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="21">
         <v>60</v>
       </c>
-      <c r="E148" s="20">
+      <c r="E148" s="22">
         <v>0.32</v>
       </c>
-      <c r="F148" s="20">
+      <c r="F148" s="22">
         <v>0.3</v>
       </c>
-      <c r="G148" s="20">
+      <c r="G148" s="22">
         <v>0.04</v>
       </c>
-      <c r="H148" s="20">
+      <c r="H148" s="22">
         <v>0.25</v>
       </c>
-      <c r="I148" s="20">
+      <c r="I148" s="22">
         <v>0.46</v>
       </c>
-      <c r="J148" s="20">
+      <c r="J148" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K148" s="20">
+      <c r="K148" s="22">
         <v>0.35</v>
       </c>
-      <c r="L148" s="18" t="s">
+      <c r="L148" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M148" s="18" t="s">
+      <c r="M148" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8109,7 +8320,7 @@
         <v>10</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C149" s="16">
         <v>2045</v>
@@ -8146,43 +8357,43 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B150" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C150" s="19">
+      <c r="B150" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="21">
         <v>2050</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="21">
         <v>60</v>
       </c>
-      <c r="E150" s="20">
+      <c r="E150" s="22">
         <v>0.31</v>
       </c>
-      <c r="F150" s="20">
+      <c r="F150" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G150" s="20">
+      <c r="G150" s="22">
         <v>0.05</v>
       </c>
-      <c r="H150" s="20">
+      <c r="H150" s="22">
         <v>0.26</v>
       </c>
-      <c r="I150" s="20">
+      <c r="I150" s="22">
         <v>0.49</v>
       </c>
-      <c r="J150" s="20">
+      <c r="J150" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K150" s="20">
+      <c r="K150" s="22">
         <v>0.34</v>
       </c>
-      <c r="L150" s="18" t="s">
+      <c r="L150" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M150" s="18" t="s">
+      <c r="M150" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8191,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C151" s="16">
         <v>2020</v>
@@ -8228,43 +8439,43 @@
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B152" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C152" s="19">
+      <c r="B152" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="21">
         <v>2025</v>
       </c>
-      <c r="D152" s="19">
-        <v>63</v>
-      </c>
-      <c r="E152" s="20">
+      <c r="D152" s="21">
+        <v>63</v>
+      </c>
+      <c r="E152" s="22">
         <v>0.6</v>
       </c>
-      <c r="F152" s="20">
+      <c r="F152" s="22">
         <v>0.62</v>
       </c>
-      <c r="G152" s="20">
+      <c r="G152" s="22">
         <v>0.04</v>
       </c>
-      <c r="H152" s="20">
+      <c r="H152" s="22">
         <v>0.52</v>
       </c>
-      <c r="I152" s="20">
+      <c r="I152" s="22">
         <v>0.69</v>
       </c>
-      <c r="J152" s="20">
+      <c r="J152" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K152" s="20">
+      <c r="K152" s="22">
         <v>0.63</v>
       </c>
-      <c r="L152" s="18" t="s">
+      <c r="L152" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M152" s="18" t="s">
+      <c r="M152" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8273,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C153" s="16">
         <v>2030</v>
@@ -8310,43 +8521,43 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C154" s="19">
+      <c r="B154" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154" s="21">
         <v>2035</v>
       </c>
-      <c r="D154" s="19">
-        <v>63</v>
-      </c>
-      <c r="E154" s="20">
+      <c r="D154" s="21">
+        <v>63</v>
+      </c>
+      <c r="E154" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F154" s="20">
+      <c r="F154" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G154" s="20">
+      <c r="G154" s="22">
         <v>0.06</v>
       </c>
-      <c r="H154" s="20">
+      <c r="H154" s="22">
         <v>0.4</v>
       </c>
-      <c r="I154" s="20">
+      <c r="I154" s="22">
         <v>0.65</v>
       </c>
-      <c r="J154" s="20">
+      <c r="J154" s="22">
         <v>0.53</v>
       </c>
-      <c r="K154" s="20">
+      <c r="K154" s="22">
         <v>0.59</v>
       </c>
-      <c r="L154" s="18" t="s">
+      <c r="L154" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M154" s="18" t="s">
+      <c r="M154" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8355,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C155" s="16">
         <v>2040</v>
@@ -8392,43 +8603,43 @@
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C156" s="19">
+      <c r="B156" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" s="21">
         <v>2045</v>
       </c>
-      <c r="D156" s="19">
-        <v>63</v>
-      </c>
-      <c r="E156" s="20">
+      <c r="D156" s="21">
+        <v>63</v>
+      </c>
+      <c r="E156" s="22">
         <v>0.52</v>
       </c>
-      <c r="F156" s="20">
+      <c r="F156" s="22">
         <v>0.53</v>
       </c>
-      <c r="G156" s="20">
+      <c r="G156" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H156" s="20">
+      <c r="H156" s="22">
         <v>0.34</v>
       </c>
-      <c r="I156" s="20">
+      <c r="I156" s="22">
         <v>0.64</v>
       </c>
-      <c r="J156" s="20">
+      <c r="J156" s="22">
         <v>0.51</v>
       </c>
-      <c r="K156" s="20">
+      <c r="K156" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L156" s="18" t="s">
+      <c r="L156" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M156" s="18" t="s">
+      <c r="M156" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8437,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C157" s="16">
         <v>2050</v>
@@ -8474,43 +8685,43 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C158" s="19">
+      <c r="B158" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="21">
         <v>2020</v>
       </c>
-      <c r="D158" s="19">
+      <c r="D158" s="21">
         <v>97</v>
       </c>
-      <c r="E158" s="20">
+      <c r="E158" s="22">
         <v>0.6</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="22">
         <v>0.6</v>
       </c>
-      <c r="G158" s="20">
+      <c r="G158" s="22">
         <v>0.03</v>
       </c>
-      <c r="H158" s="20">
+      <c r="H158" s="22">
         <v>0.54</v>
       </c>
-      <c r="I158" s="20">
+      <c r="I158" s="22">
         <v>0.65</v>
       </c>
-      <c r="J158" s="20">
+      <c r="J158" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K158" s="20">
+      <c r="K158" s="22">
         <v>0.63</v>
       </c>
-      <c r="L158" s="18" t="s">
+      <c r="L158" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M158" s="18" t="s">
+      <c r="M158" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8519,7 +8730,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C159" s="16">
         <v>2025</v>
@@ -8556,43 +8767,43 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C160" s="19">
+      <c r="B160" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160" s="21">
         <v>2030</v>
       </c>
-      <c r="D160" s="19">
+      <c r="D160" s="21">
         <v>97</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="22">
         <v>0.59</v>
       </c>
-      <c r="G160" s="20">
+      <c r="G160" s="22">
         <v>0.06</v>
       </c>
-      <c r="H160" s="20">
+      <c r="H160" s="22">
         <v>0.23</v>
       </c>
-      <c r="I160" s="20">
+      <c r="I160" s="22">
         <v>0.67</v>
       </c>
-      <c r="J160" s="20">
+      <c r="J160" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K160" s="20">
+      <c r="K160" s="22">
         <v>0.62</v>
       </c>
-      <c r="L160" s="18" t="s">
+      <c r="L160" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M160" s="18" t="s">
+      <c r="M160" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8601,7 +8812,7 @@
         <v>3</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C161" s="16">
         <v>2035</v>
@@ -8638,43 +8849,43 @@
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C162" s="19">
+      <c r="B162" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" s="21">
         <v>2040</v>
       </c>
-      <c r="D162" s="19">
+      <c r="D162" s="21">
         <v>97</v>
       </c>
-      <c r="E162" s="20">
+      <c r="E162" s="22">
         <v>0.54</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="22">
         <v>0.54</v>
       </c>
-      <c r="G162" s="20">
+      <c r="G162" s="22">
         <v>0.06</v>
       </c>
-      <c r="H162" s="20">
+      <c r="H162" s="22">
         <v>0.36</v>
       </c>
-      <c r="I162" s="20">
+      <c r="I162" s="22">
         <v>0.65</v>
       </c>
-      <c r="J162" s="20">
+      <c r="J162" s="22">
         <v>0.52</v>
       </c>
-      <c r="K162" s="20">
+      <c r="K162" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L162" s="18" t="s">
+      <c r="L162" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M162" s="18" t="s">
+      <c r="M162" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8683,7 +8894,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C163" s="16">
         <v>2045</v>
@@ -8720,43 +8931,43 @@
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C164" s="19">
+      <c r="B164" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="21">
         <v>2050</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D164" s="21">
         <v>97</v>
       </c>
-      <c r="E164" s="20">
+      <c r="E164" s="22">
         <v>0.52</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="22">
         <v>0.54</v>
       </c>
-      <c r="G164" s="20">
+      <c r="G164" s="22">
         <v>0.06</v>
       </c>
-      <c r="H164" s="20">
+      <c r="H164" s="22">
         <v>0.32</v>
       </c>
-      <c r="I164" s="20">
+      <c r="I164" s="22">
         <v>0.64</v>
       </c>
-      <c r="J164" s="20">
+      <c r="J164" s="22">
         <v>0.49</v>
       </c>
-      <c r="K164" s="20">
+      <c r="K164" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L164" s="18" t="s">
+      <c r="L164" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M164" s="18" t="s">
+      <c r="M164" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8765,7 +8976,7 @@
         <v>6</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C165" s="16">
         <v>2020</v>
@@ -8802,43 +9013,43 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B166" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C166" s="19">
+      <c r="B166" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" s="21">
         <v>2025</v>
       </c>
-      <c r="D166" s="19">
+      <c r="D166" s="21">
         <v>195</v>
       </c>
-      <c r="E166" s="20">
+      <c r="E166" s="22">
         <v>0.59</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="22">
         <v>0.6</v>
       </c>
-      <c r="G166" s="20">
+      <c r="G166" s="22">
         <v>0.11</v>
       </c>
-      <c r="H166" s="20">
-        <v>0</v>
-      </c>
-      <c r="I166" s="20">
+      <c r="H166" s="22">
+        <v>0</v>
+      </c>
+      <c r="I166" s="22">
         <v>0.76</v>
       </c>
-      <c r="J166" s="20">
+      <c r="J166" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K166" s="20">
+      <c r="K166" s="22">
         <v>0.63</v>
       </c>
-      <c r="L166" s="18" t="s">
+      <c r="L166" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M166" s="18" t="s">
+      <c r="M166" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8847,7 +9058,7 @@
         <v>6</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C167" s="16">
         <v>2030</v>
@@ -8884,43 +9095,43 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C168" s="19">
+      <c r="B168" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="21">
         <v>2035</v>
       </c>
-      <c r="D168" s="19">
+      <c r="D168" s="21">
         <v>195</v>
       </c>
-      <c r="E168" s="20">
+      <c r="E168" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G168" s="20">
+      <c r="G168" s="22">
         <v>0.06</v>
       </c>
-      <c r="H168" s="20">
+      <c r="H168" s="22">
         <v>0.41</v>
       </c>
-      <c r="I168" s="20">
+      <c r="I168" s="22">
         <v>0.66</v>
       </c>
-      <c r="J168" s="20">
+      <c r="J168" s="22">
         <v>0.53</v>
       </c>
-      <c r="K168" s="20">
+      <c r="K168" s="22">
         <v>0.6</v>
       </c>
-      <c r="L168" s="18" t="s">
+      <c r="L168" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M168" s="18" t="s">
+      <c r="M168" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8929,7 +9140,7 @@
         <v>6</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C169" s="16">
         <v>2040</v>
@@ -8966,43 +9177,43 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C170" s="19">
+      <c r="B170" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" s="21">
         <v>2045</v>
       </c>
-      <c r="D170" s="19">
+      <c r="D170" s="21">
         <v>195</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="22">
         <v>0.53</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="22">
         <v>0.52</v>
       </c>
-      <c r="G170" s="20">
+      <c r="G170" s="22">
         <v>0.06</v>
       </c>
-      <c r="H170" s="20">
+      <c r="H170" s="22">
         <v>0.32</v>
       </c>
-      <c r="I170" s="20">
+      <c r="I170" s="22">
         <v>0.65</v>
       </c>
-      <c r="J170" s="20">
+      <c r="J170" s="22">
         <v>0.5</v>
       </c>
-      <c r="K170" s="20">
+      <c r="K170" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L170" s="18" t="s">
+      <c r="L170" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M170" s="18" t="s">
+      <c r="M170" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9011,7 +9222,7 @@
         <v>6</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C171" s="16">
         <v>2050</v>
@@ -9048,43 +9259,43 @@
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C172" s="19">
+      <c r="B172" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C172" s="21">
         <v>2020</v>
       </c>
-      <c r="D172" s="19">
+      <c r="D172" s="21">
         <v>102</v>
       </c>
-      <c r="E172" s="20">
+      <c r="E172" s="22">
         <v>0.59</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="22">
         <v>0.59</v>
       </c>
-      <c r="G172" s="20">
+      <c r="G172" s="22">
         <v>0.02</v>
       </c>
-      <c r="H172" s="20">
+      <c r="H172" s="22">
         <v>0.54</v>
       </c>
-      <c r="I172" s="20">
+      <c r="I172" s="22">
         <v>0.64</v>
       </c>
-      <c r="J172" s="20">
+      <c r="J172" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K172" s="20">
+      <c r="K172" s="22">
         <v>0.6</v>
       </c>
-      <c r="L172" s="18" t="s">
+      <c r="L172" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M172" s="18" t="s">
+      <c r="M172" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9093,7 +9304,7 @@
         <v>8</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C173" s="16">
         <v>2025</v>
@@ -9130,43 +9341,43 @@
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C174" s="19">
+      <c r="B174" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C174" s="21">
         <v>2030</v>
       </c>
-      <c r="D174" s="19">
+      <c r="D174" s="21">
         <v>102</v>
       </c>
-      <c r="E174" s="20">
+      <c r="E174" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F174" s="20">
+      <c r="F174" s="22">
         <v>0.59</v>
       </c>
-      <c r="G174" s="20">
+      <c r="G174" s="22">
         <v>0.12</v>
       </c>
-      <c r="H174" s="20">
-        <v>0</v>
-      </c>
-      <c r="I174" s="20">
+      <c r="H174" s="22">
+        <v>0</v>
+      </c>
+      <c r="I174" s="22">
         <v>0.77</v>
       </c>
-      <c r="J174" s="20">
+      <c r="J174" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K174" s="20">
+      <c r="K174" s="22">
         <v>0.62</v>
       </c>
-      <c r="L174" s="18" t="s">
+      <c r="L174" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M174" s="18" t="s">
+      <c r="M174" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9175,7 +9386,7 @@
         <v>8</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C175" s="16">
         <v>2035</v>
@@ -9212,43 +9423,43 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C176" s="19">
+      <c r="B176" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" s="21">
         <v>2040</v>
       </c>
-      <c r="D176" s="19">
+      <c r="D176" s="21">
         <v>102</v>
       </c>
-      <c r="E176" s="20">
+      <c r="E176" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G176" s="20">
+      <c r="G176" s="22">
         <v>0.05</v>
       </c>
-      <c r="H176" s="20">
+      <c r="H176" s="22">
         <v>0.46</v>
       </c>
-      <c r="I176" s="20">
+      <c r="I176" s="22">
         <v>0.68</v>
       </c>
-      <c r="J176" s="20">
+      <c r="J176" s="22">
         <v>0.54</v>
       </c>
-      <c r="K176" s="20">
+      <c r="K176" s="22">
         <v>0.62</v>
       </c>
-      <c r="L176" s="18" t="s">
+      <c r="L176" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M176" s="18" t="s">
+      <c r="M176" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9257,7 +9468,7 @@
         <v>8</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C177" s="16">
         <v>2045</v>
@@ -9294,43 +9505,43 @@
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A178" s="18" t="s">
+      <c r="A178" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C178" s="19">
+      <c r="B178" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C178" s="21">
         <v>2050</v>
       </c>
-      <c r="D178" s="19">
+      <c r="D178" s="21">
         <v>102</v>
       </c>
-      <c r="E178" s="20">
+      <c r="E178" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F178" s="20">
+      <c r="F178" s="22">
         <v>0.54</v>
       </c>
-      <c r="G178" s="20">
+      <c r="G178" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H178" s="20">
+      <c r="H178" s="22">
         <v>0.46</v>
       </c>
-      <c r="I178" s="20">
+      <c r="I178" s="22">
         <v>0.71</v>
       </c>
-      <c r="J178" s="20">
+      <c r="J178" s="22">
         <v>0.52</v>
       </c>
-      <c r="K178" s="20">
+      <c r="K178" s="22">
         <v>0.64</v>
       </c>
-      <c r="L178" s="18" t="s">
+      <c r="L178" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M178" s="18" t="s">
+      <c r="M178" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9339,7 +9550,7 @@
         <v>10</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C179" s="16">
         <v>2020</v>
@@ -9376,43 +9587,43 @@
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C180" s="19">
+      <c r="B180" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" s="21">
         <v>2025</v>
       </c>
-      <c r="D180" s="19">
+      <c r="D180" s="21">
         <v>53</v>
       </c>
-      <c r="E180" s="20">
+      <c r="E180" s="22">
         <v>0.6</v>
       </c>
-      <c r="F180" s="20">
+      <c r="F180" s="22">
         <v>0.61</v>
       </c>
-      <c r="G180" s="20">
+      <c r="G180" s="22">
         <v>0.04</v>
       </c>
-      <c r="H180" s="20">
+      <c r="H180" s="22">
         <v>0.42</v>
       </c>
-      <c r="I180" s="20">
+      <c r="I180" s="22">
         <v>0.65</v>
       </c>
-      <c r="J180" s="20">
+      <c r="J180" s="22">
         <v>0.59</v>
       </c>
-      <c r="K180" s="20">
+      <c r="K180" s="22">
         <v>0.63</v>
       </c>
-      <c r="L180" s="18" t="s">
+      <c r="L180" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M180" s="18" t="s">
+      <c r="M180" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9421,7 +9632,7 @@
         <v>10</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C181" s="16">
         <v>2030</v>
@@ -9458,43 +9669,43 @@
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B182" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C182" s="19">
+      <c r="B182" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" s="21">
         <v>2035</v>
       </c>
-      <c r="D182" s="19">
+      <c r="D182" s="21">
         <v>53</v>
       </c>
-      <c r="E182" s="20">
+      <c r="E182" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F182" s="20">
+      <c r="F182" s="22">
         <v>0.59</v>
       </c>
-      <c r="G182" s="20">
+      <c r="G182" s="22">
         <v>0.04</v>
       </c>
-      <c r="H182" s="20">
+      <c r="H182" s="22">
         <v>0.46</v>
       </c>
-      <c r="I182" s="20">
+      <c r="I182" s="22">
         <v>0.65</v>
       </c>
-      <c r="J182" s="20">
+      <c r="J182" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K182" s="20">
+      <c r="K182" s="22">
         <v>0.61</v>
       </c>
-      <c r="L182" s="18" t="s">
+      <c r="L182" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M182" s="18" t="s">
+      <c r="M182" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9503,7 +9714,7 @@
         <v>10</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C183" s="16">
         <v>2040</v>
@@ -9540,43 +9751,43 @@
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A184" s="18" t="s">
+      <c r="A184" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B184" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C184" s="19">
+      <c r="B184" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C184" s="21">
         <v>2045</v>
       </c>
-      <c r="D184" s="19">
+      <c r="D184" s="21">
         <v>53</v>
       </c>
-      <c r="E184" s="20">
+      <c r="E184" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F184" s="20">
+      <c r="F184" s="22">
         <v>0.54</v>
       </c>
-      <c r="G184" s="20">
+      <c r="G184" s="22">
         <v>0.06</v>
       </c>
-      <c r="H184" s="20">
+      <c r="H184" s="22">
         <v>0.4</v>
       </c>
-      <c r="I184" s="20">
+      <c r="I184" s="22">
         <v>0.68</v>
       </c>
-      <c r="J184" s="20">
+      <c r="J184" s="22">
         <v>0.53</v>
       </c>
-      <c r="K184" s="20">
+      <c r="K184" s="22">
         <v>0.59</v>
       </c>
-      <c r="L184" s="18" t="s">
+      <c r="L184" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M184" s="18" t="s">
+      <c r="M184" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9585,7 +9796,7 @@
         <v>10</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C185" s="16">
         <v>2050</v>
@@ -9622,43 +9833,43 @@
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A186" s="18" t="s">
+      <c r="A186" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C186" s="19">
+      <c r="B186" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="21">
         <v>2020</v>
       </c>
-      <c r="D186" s="19">
-        <v>63</v>
-      </c>
-      <c r="E186" s="20">
+      <c r="D186" s="21">
+        <v>63</v>
+      </c>
+      <c r="E186" s="22">
         <v>0.03</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="22">
         <v>0.03</v>
       </c>
-      <c r="G186" s="20">
+      <c r="G186" s="22">
         <v>0.01</v>
       </c>
-      <c r="H186" s="20">
+      <c r="H186" s="22">
         <v>0.02</v>
       </c>
-      <c r="I186" s="20">
+      <c r="I186" s="22">
         <v>0.06</v>
       </c>
-      <c r="J186" s="20">
+      <c r="J186" s="22">
         <v>0.03</v>
       </c>
-      <c r="K186" s="20">
+      <c r="K186" s="22">
         <v>0.04</v>
       </c>
-      <c r="L186" s="18" t="s">
+      <c r="L186" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M186" s="18" t="s">
+      <c r="M186" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9667,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C187" s="16">
         <v>2025</v>
@@ -9704,43 +9915,43 @@
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A188" s="18" t="s">
+      <c r="A188" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B188" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C188" s="19">
+      <c r="B188" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" s="21">
         <v>2030</v>
       </c>
-      <c r="D188" s="19">
-        <v>63</v>
-      </c>
-      <c r="E188" s="20">
+      <c r="D188" s="21">
+        <v>63</v>
+      </c>
+      <c r="E188" s="22">
         <v>0.09</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="22">
         <v>0.1</v>
       </c>
-      <c r="G188" s="20">
+      <c r="G188" s="22">
         <v>0.03</v>
       </c>
-      <c r="H188" s="20">
+      <c r="H188" s="22">
         <v>0.02</v>
       </c>
-      <c r="I188" s="20">
+      <c r="I188" s="22">
         <v>0.16</v>
       </c>
-      <c r="J188" s="20">
+      <c r="J188" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K188" s="20">
+      <c r="K188" s="22">
         <v>0.11</v>
       </c>
-      <c r="L188" s="18" t="s">
+      <c r="L188" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M188" s="18" t="s">
+      <c r="M188" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9749,7 +9960,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C189" s="16">
         <v>2035</v>
@@ -9786,43 +9997,43 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C190" s="19">
+      <c r="B190" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" s="21">
         <v>2040</v>
       </c>
-      <c r="D190" s="19">
-        <v>63</v>
-      </c>
-      <c r="E190" s="20">
+      <c r="D190" s="21">
+        <v>63</v>
+      </c>
+      <c r="E190" s="22">
         <v>0.15</v>
       </c>
-      <c r="F190" s="20">
+      <c r="F190" s="22">
         <v>0.17</v>
       </c>
-      <c r="G190" s="20">
+      <c r="G190" s="22">
         <v>0.06</v>
       </c>
-      <c r="H190" s="20">
+      <c r="H190" s="22">
         <v>0.03</v>
       </c>
-      <c r="I190" s="20">
+      <c r="I190" s="22">
         <v>0.23</v>
       </c>
-      <c r="J190" s="20">
+      <c r="J190" s="22">
         <v>0.12</v>
       </c>
-      <c r="K190" s="20">
+      <c r="K190" s="22">
         <v>0.19</v>
       </c>
-      <c r="L190" s="18" t="s">
+      <c r="L190" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M190" s="18" t="s">
+      <c r="M190" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9831,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C191" s="16">
         <v>2045</v>
@@ -9868,43 +10079,43 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B192" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C192" s="19">
+      <c r="B192" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" s="21">
         <v>2050</v>
       </c>
-      <c r="D192" s="19">
-        <v>63</v>
-      </c>
-      <c r="E192" s="20">
+      <c r="D192" s="21">
+        <v>63</v>
+      </c>
+      <c r="E192" s="22">
         <v>0.17</v>
       </c>
-      <c r="F192" s="20">
+      <c r="F192" s="22">
         <v>0.2</v>
       </c>
-      <c r="G192" s="20">
+      <c r="G192" s="22">
         <v>0.06</v>
       </c>
-      <c r="H192" s="20">
+      <c r="H192" s="22">
         <v>0.03</v>
       </c>
-      <c r="I192" s="20">
+      <c r="I192" s="22">
         <v>0.26</v>
       </c>
-      <c r="J192" s="20">
+      <c r="J192" s="22">
         <v>0.11</v>
       </c>
-      <c r="K192" s="20">
+      <c r="K192" s="22">
         <v>0.2</v>
       </c>
-      <c r="L192" s="18" t="s">
+      <c r="L192" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M192" s="18" t="s">
+      <c r="M192" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9913,7 +10124,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C193" s="16">
         <v>2020</v>
@@ -9950,43 +10161,43 @@
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C194" s="19">
+      <c r="B194" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C194" s="21">
         <v>2025</v>
       </c>
-      <c r="D194" s="19">
+      <c r="D194" s="21">
         <v>89</v>
       </c>
-      <c r="E194" s="20">
+      <c r="E194" s="22">
         <v>0.06</v>
       </c>
-      <c r="F194" s="20">
+      <c r="F194" s="22">
         <v>0.06</v>
       </c>
-      <c r="G194" s="20">
+      <c r="G194" s="22">
         <v>0.06</v>
       </c>
-      <c r="H194" s="20">
+      <c r="H194" s="22">
         <v>0.01</v>
       </c>
-      <c r="I194" s="20">
+      <c r="I194" s="22">
         <v>0.59</v>
       </c>
-      <c r="J194" s="20">
+      <c r="J194" s="22">
         <v>0.05</v>
       </c>
-      <c r="K194" s="20">
+      <c r="K194" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L194" s="18" t="s">
+      <c r="L194" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M194" s="18" t="s">
+      <c r="M194" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9995,7 +10206,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C195" s="16">
         <v>2030</v>
@@ -10032,43 +10243,43 @@
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A196" s="18" t="s">
+      <c r="A196" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C196" s="19">
+      <c r="B196" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C196" s="21">
         <v>2035</v>
       </c>
-      <c r="D196" s="19">
+      <c r="D196" s="21">
         <v>89</v>
       </c>
-      <c r="E196" s="20">
+      <c r="E196" s="22">
         <v>0.12</v>
       </c>
-      <c r="F196" s="20">
+      <c r="F196" s="22">
         <v>0.12</v>
       </c>
-      <c r="G196" s="20">
+      <c r="G196" s="22">
         <v>0.06</v>
       </c>
-      <c r="H196" s="20">
+      <c r="H196" s="22">
         <v>0.01</v>
       </c>
-      <c r="I196" s="20">
+      <c r="I196" s="22">
         <v>0.24</v>
       </c>
-      <c r="J196" s="20">
+      <c r="J196" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K196" s="20">
+      <c r="K196" s="22">
         <v>0.16</v>
       </c>
-      <c r="L196" s="18" t="s">
+      <c r="L196" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M196" s="18" t="s">
+      <c r="M196" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10077,7 +10288,7 @@
         <v>3</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C197" s="16">
         <v>2040</v>
@@ -10114,43 +10325,43 @@
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A198" s="18" t="s">
+      <c r="A198" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C198" s="19">
+      <c r="B198" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C198" s="21">
         <v>2045</v>
       </c>
-      <c r="D198" s="19">
+      <c r="D198" s="21">
         <v>89</v>
       </c>
-      <c r="E198" s="20">
+      <c r="E198" s="22">
         <v>0.15</v>
       </c>
-      <c r="F198" s="20">
+      <c r="F198" s="22">
         <v>0.17</v>
       </c>
-      <c r="G198" s="20">
+      <c r="G198" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H198" s="20">
+      <c r="H198" s="22">
         <v>0.01</v>
       </c>
-      <c r="I198" s="20">
+      <c r="I198" s="22">
         <v>0.26</v>
       </c>
-      <c r="J198" s="20">
+      <c r="J198" s="22">
         <v>0.08</v>
       </c>
-      <c r="K198" s="20">
+      <c r="K198" s="22">
         <v>0.21</v>
       </c>
-      <c r="L198" s="18" t="s">
+      <c r="L198" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M198" s="18" t="s">
+      <c r="M198" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10159,7 +10370,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C199" s="16">
         <v>2050</v>
@@ -10196,43 +10407,43 @@
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A200" s="18" t="s">
+      <c r="A200" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C200" s="19">
+      <c r="B200" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" s="21">
         <v>2020</v>
       </c>
-      <c r="D200" s="19">
+      <c r="D200" s="21">
         <v>219</v>
       </c>
-      <c r="E200" s="20">
+      <c r="E200" s="22">
         <v>0.03</v>
       </c>
-      <c r="F200" s="20">
+      <c r="F200" s="22">
         <v>0.03</v>
       </c>
-      <c r="G200" s="20">
+      <c r="G200" s="22">
         <v>0.01</v>
       </c>
-      <c r="H200" s="20">
+      <c r="H200" s="22">
         <v>0.01</v>
       </c>
-      <c r="I200" s="20">
+      <c r="I200" s="22">
         <v>0.06</v>
       </c>
-      <c r="J200" s="20">
+      <c r="J200" s="22">
         <v>0.02</v>
       </c>
-      <c r="K200" s="20">
+      <c r="K200" s="22">
         <v>0.04</v>
       </c>
-      <c r="L200" s="18" t="s">
+      <c r="L200" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M200" s="18" t="s">
+      <c r="M200" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10241,7 +10452,7 @@
         <v>6</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C201" s="16">
         <v>2025</v>
@@ -10278,43 +10489,43 @@
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A202" s="18" t="s">
+      <c r="A202" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B202" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C202" s="19">
+      <c r="B202" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C202" s="21">
         <v>2030</v>
       </c>
-      <c r="D202" s="19">
+      <c r="D202" s="21">
         <v>219</v>
       </c>
-      <c r="E202" s="20">
+      <c r="E202" s="22">
         <v>0.11</v>
       </c>
-      <c r="F202" s="20">
+      <c r="F202" s="22">
         <v>0.08</v>
       </c>
-      <c r="G202" s="20">
+      <c r="G202" s="22">
         <v>0.16</v>
       </c>
-      <c r="H202" s="20">
+      <c r="H202" s="22">
         <v>0.01</v>
       </c>
-      <c r="I202" s="20">
+      <c r="I202" s="22">
         <v>1</v>
       </c>
-      <c r="J202" s="20">
+      <c r="J202" s="22">
         <v>0.04</v>
       </c>
-      <c r="K202" s="20">
+      <c r="K202" s="22">
         <v>0.11</v>
       </c>
-      <c r="L202" s="18" t="s">
+      <c r="L202" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M202" s="18" t="s">
+      <c r="M202" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10323,7 +10534,7 @@
         <v>6</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C203" s="16">
         <v>2035</v>
@@ -10360,43 +10571,43 @@
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B204" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C204" s="19">
+      <c r="B204" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C204" s="21">
         <v>2040</v>
       </c>
-      <c r="D204" s="19">
+      <c r="D204" s="21">
         <v>219</v>
       </c>
-      <c r="E204" s="20">
+      <c r="E204" s="22">
         <v>0.13</v>
       </c>
-      <c r="F204" s="20">
+      <c r="F204" s="22">
         <v>0.12</v>
       </c>
-      <c r="G204" s="20">
+      <c r="G204" s="22">
         <v>0.08</v>
       </c>
-      <c r="H204" s="20">
+      <c r="H204" s="22">
         <v>0.01</v>
       </c>
-      <c r="I204" s="20">
+      <c r="I204" s="22">
         <v>0.27</v>
       </c>
-      <c r="J204" s="20">
+      <c r="J204" s="22">
         <v>0.06</v>
       </c>
-      <c r="K204" s="20">
+      <c r="K204" s="22">
         <v>0.18</v>
       </c>
-      <c r="L204" s="18" t="s">
+      <c r="L204" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M204" s="18" t="s">
+      <c r="M204" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10405,7 +10616,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C205" s="16">
         <v>2045</v>
@@ -10442,43 +10653,43 @@
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A206" s="18" t="s">
+      <c r="A206" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B206" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C206" s="19">
+      <c r="B206" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C206" s="21">
         <v>2050</v>
       </c>
-      <c r="D206" s="19">
+      <c r="D206" s="21">
         <v>219</v>
       </c>
-      <c r="E206" s="20">
+      <c r="E206" s="22">
         <v>0.15</v>
       </c>
-      <c r="F206" s="20">
+      <c r="F206" s="22">
         <v>0.19</v>
       </c>
-      <c r="G206" s="20">
+      <c r="G206" s="22">
         <v>0.08</v>
       </c>
-      <c r="H206" s="20">
-        <v>0</v>
-      </c>
-      <c r="I206" s="20">
+      <c r="H206" s="22">
+        <v>0</v>
+      </c>
+      <c r="I206" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J206" s="20">
+      <c r="J206" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K206" s="20">
+      <c r="K206" s="22">
         <v>0.21</v>
       </c>
-      <c r="L206" s="18" t="s">
+      <c r="L206" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M206" s="18" t="s">
+      <c r="M206" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10487,7 +10698,7 @@
         <v>8</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C207" s="16">
         <v>2020</v>
@@ -10524,43 +10735,43 @@
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A208" s="18" t="s">
+      <c r="A208" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B208" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C208" s="19">
+      <c r="B208" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C208" s="21">
         <v>2025</v>
       </c>
-      <c r="D208" s="19">
+      <c r="D208" s="21">
         <v>96</v>
       </c>
-      <c r="E208" s="20">
+      <c r="E208" s="22">
         <v>0.08</v>
       </c>
-      <c r="F208" s="20">
+      <c r="F208" s="22">
         <v>0.05</v>
       </c>
-      <c r="G208" s="20">
+      <c r="G208" s="22">
         <v>0.18</v>
       </c>
-      <c r="H208" s="20">
+      <c r="H208" s="22">
         <v>0.01</v>
       </c>
-      <c r="I208" s="20">
+      <c r="I208" s="22">
         <v>1</v>
       </c>
-      <c r="J208" s="20">
+      <c r="J208" s="22">
         <v>0.02</v>
       </c>
-      <c r="K208" s="20">
+      <c r="K208" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L208" s="18" t="s">
+      <c r="L208" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M208" s="18" t="s">
+      <c r="M208" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10569,7 +10780,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C209" s="16">
         <v>2030</v>
@@ -10606,43 +10817,43 @@
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A210" s="18" t="s">
+      <c r="A210" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B210" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C210" s="19">
+      <c r="B210" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" s="21">
         <v>2035</v>
       </c>
-      <c r="D210" s="19">
+      <c r="D210" s="21">
         <v>96</v>
       </c>
-      <c r="E210" s="20">
+      <c r="E210" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F210" s="20">
+      <c r="F210" s="22">
         <v>0.06</v>
       </c>
-      <c r="G210" s="20">
+      <c r="G210" s="22">
         <v>0.05</v>
       </c>
-      <c r="H210" s="20">
+      <c r="H210" s="22">
         <v>0.01</v>
       </c>
-      <c r="I210" s="20">
+      <c r="I210" s="22">
         <v>0.24</v>
       </c>
-      <c r="J210" s="20">
+      <c r="J210" s="22">
         <v>0.03</v>
       </c>
-      <c r="K210" s="20">
+      <c r="K210" s="22">
         <v>0.09</v>
       </c>
-      <c r="L210" s="18" t="s">
+      <c r="L210" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M210" s="18" t="s">
+      <c r="M210" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10651,7 +10862,7 @@
         <v>8</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C211" s="16">
         <v>2040</v>
@@ -10688,43 +10899,43 @@
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A212" s="18" t="s">
+      <c r="A212" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C212" s="19">
+      <c r="B212" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" s="21">
         <v>2045</v>
       </c>
-      <c r="D212" s="19">
+      <c r="D212" s="21">
         <v>96</v>
       </c>
-      <c r="E212" s="20">
+      <c r="E212" s="22">
         <v>0.11</v>
       </c>
-      <c r="F212" s="20">
+      <c r="F212" s="22">
         <v>0.08</v>
       </c>
-      <c r="G212" s="20">
+      <c r="G212" s="22">
         <v>0.09</v>
       </c>
-      <c r="H212" s="20">
+      <c r="H212" s="22">
         <v>0.01</v>
       </c>
-      <c r="I212" s="20">
+      <c r="I212" s="22">
         <v>0.27</v>
       </c>
-      <c r="J212" s="20">
+      <c r="J212" s="22">
         <v>0.04</v>
       </c>
-      <c r="K212" s="20">
+      <c r="K212" s="22">
         <v>0.19</v>
       </c>
-      <c r="L212" s="18" t="s">
+      <c r="L212" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M212" s="18" t="s">
+      <c r="M212" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10733,7 +10944,7 @@
         <v>8</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C213" s="16">
         <v>2050</v>
@@ -10770,43 +10981,43 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A214" s="18" t="s">
+      <c r="A214" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C214" s="19">
+      <c r="B214" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C214" s="21">
         <v>2020</v>
       </c>
-      <c r="D214" s="19">
+      <c r="D214" s="21">
         <v>61</v>
       </c>
-      <c r="E214" s="20">
+      <c r="E214" s="22">
         <v>0.03</v>
       </c>
-      <c r="F214" s="20">
+      <c r="F214" s="22">
         <v>0.03</v>
       </c>
-      <c r="G214" s="20">
+      <c r="G214" s="22">
         <v>0.01</v>
       </c>
-      <c r="H214" s="20">
+      <c r="H214" s="22">
         <v>0.01</v>
       </c>
-      <c r="I214" s="20">
+      <c r="I214" s="22">
         <v>0.06</v>
       </c>
-      <c r="J214" s="20">
+      <c r="J214" s="22">
         <v>0.03</v>
       </c>
-      <c r="K214" s="20">
+      <c r="K214" s="22">
         <v>0.03</v>
       </c>
-      <c r="L214" s="18" t="s">
+      <c r="L214" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M214" s="18" t="s">
+      <c r="M214" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10815,7 +11026,7 @@
         <v>10</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C215" s="16">
         <v>2025</v>
@@ -10852,43 +11063,43 @@
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A216" s="18" t="s">
+      <c r="A216" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B216" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C216" s="19">
+      <c r="B216" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C216" s="21">
         <v>2030</v>
       </c>
-      <c r="D216" s="19">
+      <c r="D216" s="21">
         <v>61</v>
       </c>
-      <c r="E216" s="20">
+      <c r="E216" s="22">
         <v>0.06</v>
       </c>
-      <c r="F216" s="20">
+      <c r="F216" s="22">
         <v>0.06</v>
       </c>
-      <c r="G216" s="20">
+      <c r="G216" s="22">
         <v>0.02</v>
       </c>
-      <c r="H216" s="20">
+      <c r="H216" s="22">
         <v>0.01</v>
       </c>
-      <c r="I216" s="20">
+      <c r="I216" s="22">
         <v>0.11</v>
       </c>
-      <c r="J216" s="20">
+      <c r="J216" s="22">
         <v>0.03</v>
       </c>
-      <c r="K216" s="20">
+      <c r="K216" s="22">
         <v>0.08</v>
       </c>
-      <c r="L216" s="18" t="s">
+      <c r="L216" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M216" s="18" t="s">
+      <c r="M216" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10897,7 +11108,7 @@
         <v>10</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C217" s="16">
         <v>2035</v>
@@ -10934,43 +11145,43 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A218" s="18" t="s">
+      <c r="A218" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B218" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C218" s="19">
+      <c r="B218" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C218" s="21">
         <v>2040</v>
       </c>
-      <c r="D218" s="19">
+      <c r="D218" s="21">
         <v>61</v>
       </c>
-      <c r="E218" s="20">
+      <c r="E218" s="22">
         <v>0.09</v>
       </c>
-      <c r="F218" s="20">
+      <c r="F218" s="22">
         <v>0.09</v>
       </c>
-      <c r="G218" s="20">
+      <c r="G218" s="22">
         <v>0.05</v>
       </c>
-      <c r="H218" s="20">
+      <c r="H218" s="22">
         <v>0.01</v>
       </c>
-      <c r="I218" s="20">
+      <c r="I218" s="22">
         <v>0.22</v>
       </c>
-      <c r="J218" s="20">
+      <c r="J218" s="22">
         <v>0.03</v>
       </c>
-      <c r="K218" s="20">
+      <c r="K218" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L218" s="18" t="s">
+      <c r="L218" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M218" s="18" t="s">
+      <c r="M218" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10979,7 +11190,7 @@
         <v>10</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C219" s="16">
         <v>2045</v>
@@ -11016,43 +11227,43 @@
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A220" s="18" t="s">
+      <c r="A220" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B220" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C220" s="19">
+      <c r="B220" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C220" s="21">
         <v>2050</v>
       </c>
-      <c r="D220" s="19">
+      <c r="D220" s="21">
         <v>61</v>
       </c>
-      <c r="E220" s="20">
+      <c r="E220" s="22">
         <v>0.13</v>
       </c>
-      <c r="F220" s="20">
+      <c r="F220" s="22">
         <v>0.12</v>
       </c>
-      <c r="G220" s="20">
+      <c r="G220" s="22">
         <v>0.08</v>
       </c>
-      <c r="H220" s="20">
+      <c r="H220" s="22">
         <v>0.01</v>
       </c>
-      <c r="I220" s="20">
+      <c r="I220" s="22">
         <v>0.27</v>
       </c>
-      <c r="J220" s="20">
+      <c r="J220" s="22">
         <v>0.05</v>
       </c>
-      <c r="K220" s="20">
+      <c r="K220" s="22">
         <v>0.22</v>
       </c>
-      <c r="L220" s="18" t="s">
+      <c r="L220" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="18" t="s">
+      <c r="M220" s="20" t="s">
         <v>24</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285683B-9F93-47FF-8FE4-80CB8D4B1214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954832C3-BCAC-4730-AD43-ADC4C4D00541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,25 +657,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>282.05</c:v>
+                  <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>290.51150000000001</c:v>
+                  <c:v>334.7912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335.6395</c:v>
+                  <c:v>386.79759999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>403.33150000000001</c:v>
+                  <c:v>464.80720000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>465.38249999999999</c:v>
+                  <c:v>536.31600000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>510.51050000000004</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>544.35649999999998</c:v>
+                  <c:v>627.32720000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1190,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC73DE92-6AF1-69FB-863D-6F778211E107}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00C7288-042C-5B4C-C0A3-C6DB69C9BA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1245,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B52BB2-C881-149D-956E-A5D8E5F99144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FCC4CA-9E63-1C58-98D1-5E8698FDFA9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1600,7 @@
   <dimension ref="B2:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1683,8 +1683,8 @@
         <v>9</v>
       </c>
       <c r="Q10" s="3">
-        <f>SUMIFS(iea_data!I3:I9999,iea_data!$B$3:$B$9999,Veda!$Q$9)</f>
-        <v>282.05</v>
+        <f>SUMIFS(iea_data!I3:I9999,iea_data!$B$3:$B$9999,Veda!$Q$9)+R26-R27</f>
+        <v>325.04000000000002</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>58</v>
@@ -1704,31 +1704,31 @@
     <row r="12" spans="2:27" x14ac:dyDescent="0.45">
       <c r="R12" s="8">
         <f>Q10</f>
-        <v>282.05</v>
+        <v>325.04000000000002</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="0">$Q$10*H13</f>
-        <v>290.51150000000001</v>
+        <v>334.7912</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="0"/>
-        <v>335.6395</v>
+        <v>386.79759999999999</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="0"/>
-        <v>403.33150000000001</v>
+        <v>464.80720000000002</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="0"/>
-        <v>465.38249999999999</v>
+        <v>536.31600000000003</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="0"/>
-        <v>510.51050000000004</v>
+        <v>588.32240000000002</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="0"/>
-        <v>544.35649999999998</v>
+        <v>627.32720000000006</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.45">
@@ -1863,31 +1863,31 @@
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="2">G16*R$12</f>
-        <v>2.8205</v>
+        <v>3.2504000000000004</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="2"/>
-        <v>2.9051150000000003</v>
+        <v>3.347912</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="2"/>
-        <v>3.356395</v>
+        <v>3.8679760000000001</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="2"/>
-        <v>12.099945</v>
+        <v>13.944216000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="2"/>
-        <v>13.961475</v>
+        <v>16.089480000000002</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="2"/>
-        <v>20.420420000000004</v>
+        <v>23.532896000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="2"/>
-        <v>27.217825000000001</v>
+        <v>31.366360000000004</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -1931,31 +1931,31 @@
       </c>
       <c r="R17" s="6">
         <f t="shared" si="2"/>
-        <v>98.717500000000001</v>
+        <v>113.764</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="2"/>
-        <v>92.963680000000011</v>
+        <v>107.133184</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="2"/>
-        <v>100.69185</v>
+        <v>116.03927999999999</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="2"/>
-        <v>116.96613499999999</v>
+        <v>134.79408799999999</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="2"/>
-        <v>134.96092499999997</v>
+        <v>155.53164000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="2"/>
-        <v>153.15315000000001</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="2"/>
-        <v>168.75051500000001</v>
+        <v>194.47143200000002</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -1998,31 +1998,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="2"/>
-        <v>172.0505</v>
+        <v>198.27440000000001</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="2"/>
-        <v>180.11713</v>
+        <v>207.57054400000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="2"/>
-        <v>198.02730499999998</v>
+        <v>228.21058399999998</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="2"/>
-        <v>225.86564000000001</v>
+        <v>260.29203200000006</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="2"/>
-        <v>251.30655000000002</v>
+        <v>289.61064000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="2"/>
-        <v>270.57056500000004</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="2"/>
-        <v>288.50894499999998</v>
+        <v>332.48341600000003</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -2065,31 +2065,31 @@
       </c>
       <c r="R19" s="6">
         <f>G19*R$12</f>
-        <v>8.4615000000000009</v>
+        <v>9.7512000000000008</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" ref="S19:X19" si="3">R19</f>
-        <v>8.4615000000000009</v>
+        <v>9.7512000000000008</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="3"/>
-        <v>8.4615000000000009</v>
+        <v>9.7512000000000008</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="3"/>
-        <v>8.4615000000000009</v>
+        <v>9.7512000000000008</v>
       </c>
       <c r="V19" s="6">
         <f t="shared" si="3"/>
-        <v>8.4615000000000009</v>
+        <v>9.7512000000000008</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="3"/>
-        <v>8.4615000000000009</v>
+        <v>9.7512000000000008</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="3"/>
-        <v>8.4615000000000009</v>
+        <v>9.7512000000000008</v>
       </c>
       <c r="Y19" t="s">
         <v>18</v>
@@ -2104,31 +2104,31 @@
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20:X20" si="4">R12-SUM(R17:R19)</f>
-        <v>2.8204999999999814</v>
+        <v>3.2504000000000133</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" si="4"/>
-        <v>8.9691899999999691</v>
+        <v>10.336272000000008</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="4"/>
-        <v>28.458844999999997</v>
+        <v>32.796536000000003</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="4"/>
-        <v>52.038225000000011</v>
+        <v>59.969879999999989</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="4"/>
-        <v>70.653525000000002</v>
+        <v>81.42252000000002</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="4"/>
-        <v>78.325284999999951</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="4"/>
-        <v>78.635539999999992</v>
+        <v>90.621151999999938</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954832C3-BCAC-4730-AD43-ADC4C4D00541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2412775-56FA-4E95-AC9A-CC8CC56A67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,7 +1190,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00C7288-042C-5B4C-C0A3-C6DB69C9BA94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15ED6EE2-ABB3-CFA2-AD25-A7B428075B84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1245,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FCC4CA-9E63-1C58-98D1-5E8698FDFA9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A4FEE7-2229-E5C6-DC74-E1D256A9EE40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E355459-83DB-4473-9D30-0E1090ECA21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD96CAC-A20C-4F86-B87B-D0D11A20A848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2622,7 +2622,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB1987A-F383-12A1-1580-F1BACA7D6A68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179E85F0-C860-20FA-BCC0-4D20F0437954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4027,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2957F23-7C35-CF99-8B46-ADFD7433FCD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279DA377-4017-F693-A9EF-BE44A47C683D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,7 +5432,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2504153D-7521-CD33-90D3-CC26F071DBFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20B8576-4DE6-2AD6-6C1E-DDCE7D35BD97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD96CAC-A20C-4F86-B87B-D0D11A20A848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B19A5-B202-4832-9150-B5AA574CD8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2622,7 +2622,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179E85F0-C860-20FA-BCC0-4D20F0437954}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5660CBED-846F-C498-02F4-7D75C7BE272F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4027,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279DA377-4017-F693-A9EF-BE44A47C683D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F034CD3D-E3B1-B7DC-A01D-55C57B0F126C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,7 +5432,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20B8576-4DE6-2AD6-6C1E-DDCE7D35BD97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678FDE95-E802-C0F1-B4A8-E106CE394822}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD5BACF-B036-4565-AF7F-AC6022B472E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDBC674-2933-462B-80B4-32BB24136AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDBC674-2933-462B-80B4-32BB24136AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE2D6A-B21B-4B81-AEB2-503245D094A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE2D6A-B21B-4B81-AEB2-503245D094A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130DFC2-D2CD-4145-945F-CBCAA4E1FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130DFC2-D2CD-4145-945F-CBCAA4E1FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049FD931-BF79-483F-A41F-8210A2D43990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049FD931-BF79-483F-A41F-8210A2D43990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D538F-17E3-439F-B2EE-F44AF1BE25A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D538F-17E3-439F-B2EE-F44AF1BE25A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8844E-EBE4-42D2-95EF-839FB296CF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8844E-EBE4-42D2-95EF-839FB296CF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C4C1DF-6FD6-40A3-900E-B477D1537C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C4C1DF-6FD6-40A3-900E-B477D1537C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D30BF8-2C33-46EF-8706-DC3EAC5BBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D30BF8-2C33-46EF-8706-DC3EAC5BBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46687A8B-0681-4C31-88BC-122FDBA42C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46687A8B-0681-4C31-88BC-122FDBA42C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CE2A0D-13C3-40C4-A76C-F33801779F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
     <sheet name="fuel_prices" sheetId="4" r:id="rId2"/>
     <sheet name="iea_data" sheetId="2" r:id="rId3"/>
     <sheet name="ar6_r10" sheetId="3" r:id="rId4"/>
+    <sheet name="ev_charging_uc" sheetId="6" r:id="rId5"/>
+    <sheet name="ts12_clu" sheetId="7" r:id="rId6"/>
+    <sheet name="ts_annual" sheetId="8" r:id="rId7"/>
+    <sheet name="ts_12" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="172">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -299,6 +303,69 @@
     <t>~TFM_INS-TS: attribute=flo_cost</t>
   </si>
   <si>
+    <t>share of charging at night</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E: AllRegions</t>
+  </si>
+  <si>
+    <t>UC_N</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>UC_FLO</t>
+  </si>
+  <si>
+    <t>UC_RHSRT</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~0</t>
+  </si>
+  <si>
+    <t>UC_bev night chg limit</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>*EV*</t>
+  </si>
+  <si>
+    <t>AuxStoIN</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
     <t>ITA</t>
   </si>
   <si>
@@ -306,6 +373,189 @@
   </si>
   <si>
     <t xml:space="preserve"> Pipeline gas, Mediterranean pellet imports </t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>wparent</t>
+  </si>
+  <si>
+    <t>dparent</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>S1,S2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>timeslice</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>AllS</t>
+  </si>
+  <si>
+    <t>AllH</t>
+  </si>
+  <si>
+    <t>AllSaAllH</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>W,R,S,F</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>FaD</t>
+  </si>
+  <si>
+    <t>FaN</t>
+  </si>
+  <si>
+    <t>FaP</t>
+  </si>
+  <si>
+    <t>RaD</t>
+  </si>
+  <si>
+    <t>RaN</t>
+  </si>
+  <si>
+    <t>RaP</t>
+  </si>
+  <si>
+    <t>SaD</t>
+  </si>
+  <si>
+    <t>SaN</t>
+  </si>
+  <si>
+    <t>SaP</t>
+  </si>
+  <si>
+    <t>WaD</t>
+  </si>
+  <si>
+    <t>WaN</t>
+  </si>
+  <si>
+    <t>WaP</t>
+  </si>
+  <si>
+    <t>RaD,RaP,SaD,WaD,WaP,FaP,SaP,FaD</t>
+  </si>
+  <si>
+    <t>FaN,FaP,SaP,WaP,SaN,WaN,RaN,RaP</t>
   </si>
 </sst>
 </file>
@@ -459,7 +709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
@@ -467,8 +717,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,12 +734,18 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
+    <cellStyle name="Heading 2 2" xfId="8" xr:uid="{A6AB1C46-4E7B-4C21-A104-E4DF3FE4CE4A}"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
+    <cellStyle name="Heading 3 2" xfId="9" xr:uid="{F2503A68-FC7E-4C35-8B5A-10334C80FC2A}"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
+    <cellStyle name="Input 2" xfId="7" xr:uid="{08B5D232-691F-4F66-AEAC-8298A30D4B38}"/>
     <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5541,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -6604,7 +6863,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6655,7 +6914,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>29.1</v>
@@ -6682,7 +6941,7 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6696,7 +6955,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6748,7 +7007,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -6777,7 +7036,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B12">
         <v>2001</v>
@@ -6806,7 +7065,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B13">
         <v>2002</v>
@@ -6835,7 +7094,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B14">
         <v>2003</v>
@@ -6864,7 +7123,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -6893,7 +7152,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B16">
         <v>2005</v>
@@ -6922,7 +7181,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B17">
         <v>2006</v>
@@ -6951,7 +7210,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B18">
         <v>2007</v>
@@ -6980,7 +7239,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>2008</v>
@@ -7009,7 +7268,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>2009</v>
@@ -7038,7 +7297,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>2010</v>
@@ -7067,7 +7326,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B22">
         <v>2011</v>
@@ -7096,7 +7355,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B23">
         <v>2012</v>
@@ -7125,7 +7384,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>2013</v>
@@ -7154,7 +7413,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B25">
         <v>2014</v>
@@ -7183,7 +7442,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B26">
         <v>2015</v>
@@ -7212,7 +7471,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <v>2016</v>
@@ -7241,7 +7500,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -7270,7 +7529,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <v>2018</v>
@@ -7299,7 +7558,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>2019</v>
@@ -7328,7 +7587,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>2020</v>
@@ -7357,7 +7616,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -7386,7 +7645,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -7491,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -7532,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -7573,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C13">
         <v>2030</v>
@@ -7614,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>2035</v>
@@ -7655,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>2040</v>
@@ -7696,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>2045</v>
@@ -7737,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>2050</v>
@@ -7778,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -7819,7 +8078,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C19">
         <v>2025</v>
@@ -7860,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>2030</v>
@@ -7901,7 +8160,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C21">
         <v>2035</v>
@@ -7942,7 +8201,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C22">
         <v>2040</v>
@@ -7983,7 +8242,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>2045</v>
@@ -8024,7 +8283,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>2050</v>
@@ -8065,7 +8324,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -8106,7 +8365,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C26">
         <v>2025</v>
@@ -8147,7 +8406,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C27">
         <v>2030</v>
@@ -8188,7 +8447,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C28">
         <v>2035</v>
@@ -8229,7 +8488,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C29">
         <v>2040</v>
@@ -8270,7 +8529,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>2045</v>
@@ -8311,7 +8570,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C31">
         <v>2050</v>
@@ -8352,7 +8611,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -8393,7 +8652,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C33">
         <v>2025</v>
@@ -8434,7 +8693,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C34">
         <v>2030</v>
@@ -8475,7 +8734,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C35">
         <v>2035</v>
@@ -8516,7 +8775,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>2040</v>
@@ -8557,7 +8816,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C37">
         <v>2045</v>
@@ -8598,7 +8857,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C38">
         <v>2050</v>
@@ -8639,7 +8898,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C39">
         <v>2020</v>
@@ -8680,7 +8939,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C40">
         <v>2025</v>
@@ -8721,7 +8980,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C41">
         <v>2030</v>
@@ -8762,7 +9021,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>2035</v>
@@ -8803,7 +9062,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C43">
         <v>2040</v>
@@ -8844,7 +9103,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C44">
         <v>2045</v>
@@ -8885,7 +9144,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C45">
         <v>2050</v>
@@ -8926,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <v>2020</v>
@@ -8967,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C47">
         <v>2025</v>
@@ -9008,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C48">
         <v>2030</v>
@@ -9049,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C49">
         <v>2035</v>
@@ -9090,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C50">
         <v>2040</v>
@@ -9131,7 +9390,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>2045</v>
@@ -9172,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>2050</v>
@@ -9213,7 +9472,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C53">
         <v>2020</v>
@@ -9254,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>2025</v>
@@ -9295,7 +9554,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>2030</v>
@@ -9336,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>2035</v>
@@ -9377,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C57">
         <v>2040</v>
@@ -9418,7 +9677,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C58">
         <v>2045</v>
@@ -9459,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C59">
         <v>2050</v>
@@ -9500,7 +9759,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>2020</v>
@@ -9541,7 +9800,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C61">
         <v>2025</v>
@@ -9582,7 +9841,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C62">
         <v>2030</v>
@@ -9623,7 +9882,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>2035</v>
@@ -9664,7 +9923,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C64">
         <v>2040</v>
@@ -9705,7 +9964,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>2045</v>
@@ -9746,7 +10005,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C66">
         <v>2050</v>
@@ -9787,7 +10046,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C67">
         <v>2020</v>
@@ -9828,7 +10087,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C68">
         <v>2025</v>
@@ -9869,7 +10128,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C69">
         <v>2030</v>
@@ -9910,7 +10169,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C70">
         <v>2035</v>
@@ -9951,7 +10210,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C71">
         <v>2040</v>
@@ -9992,7 +10251,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C72">
         <v>2045</v>
@@ -10033,7 +10292,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C73">
         <v>2050</v>
@@ -10074,7 +10333,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C74">
         <v>2020</v>
@@ -10115,7 +10374,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C75">
         <v>2025</v>
@@ -10156,7 +10415,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C76">
         <v>2030</v>
@@ -10197,7 +10456,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C77">
         <v>2035</v>
@@ -10238,7 +10497,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C78">
         <v>2040</v>
@@ -10279,7 +10538,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C79">
         <v>2045</v>
@@ -10320,7 +10579,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C80">
         <v>2050</v>
@@ -10361,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C81">
         <v>2020</v>
@@ -10402,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C82">
         <v>2025</v>
@@ -10443,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C83">
         <v>2030</v>
@@ -10484,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C84">
         <v>2035</v>
@@ -10525,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>2040</v>
@@ -10566,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C86">
         <v>2045</v>
@@ -10607,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C87">
         <v>2050</v>
@@ -10648,7 +10907,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>2020</v>
@@ -10689,7 +10948,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C89">
         <v>2025</v>
@@ -10730,7 +10989,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C90">
         <v>2030</v>
@@ -10771,7 +11030,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C91">
         <v>2035</v>
@@ -10812,7 +11071,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C92">
         <v>2040</v>
@@ -10853,7 +11112,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>2045</v>
@@ -10894,7 +11153,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C94">
         <v>2050</v>
@@ -10935,7 +11194,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C95">
         <v>2020</v>
@@ -10976,7 +11235,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C96">
         <v>2025</v>
@@ -11017,7 +11276,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C97">
         <v>2030</v>
@@ -11058,7 +11317,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C98">
         <v>2035</v>
@@ -11099,7 +11358,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C99">
         <v>2040</v>
@@ -11140,7 +11399,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C100">
         <v>2045</v>
@@ -11181,7 +11440,7 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C101">
         <v>2050</v>
@@ -11222,7 +11481,7 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C102">
         <v>2020</v>
@@ -11263,7 +11522,7 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C103">
         <v>2025</v>
@@ -11304,7 +11563,7 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C104">
         <v>2030</v>
@@ -11345,7 +11604,7 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C105">
         <v>2035</v>
@@ -11386,7 +11645,7 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>2040</v>
@@ -11427,7 +11686,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>2045</v>
@@ -11468,7 +11727,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C108">
         <v>2050</v>
@@ -11509,7 +11768,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C109">
         <v>2020</v>
@@ -11550,7 +11809,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <v>2025</v>
@@ -11591,7 +11850,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>2030</v>
@@ -11632,7 +11891,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C112">
         <v>2035</v>
@@ -11673,7 +11932,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C113">
         <v>2040</v>
@@ -11714,7 +11973,7 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C114">
         <v>2045</v>
@@ -11755,7 +12014,7 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C115">
         <v>2050</v>
@@ -11796,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C116">
         <v>2020</v>
@@ -11837,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C117">
         <v>2025</v>
@@ -11878,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C118">
         <v>2030</v>
@@ -11919,7 +12178,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C119">
         <v>2035</v>
@@ -11960,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C120">
         <v>2040</v>
@@ -12001,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C121">
         <v>2045</v>
@@ -12042,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C122">
         <v>2050</v>
@@ -12083,7 +12342,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C123">
         <v>2020</v>
@@ -12124,7 +12383,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C124">
         <v>2025</v>
@@ -12165,7 +12424,7 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C125">
         <v>2030</v>
@@ -12206,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C126">
         <v>2035</v>
@@ -12247,7 +12506,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C127">
         <v>2040</v>
@@ -12288,7 +12547,7 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C128">
         <v>2045</v>
@@ -12329,7 +12588,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C129">
         <v>2050</v>
@@ -12370,7 +12629,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C130">
         <v>2020</v>
@@ -12411,7 +12670,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C131">
         <v>2025</v>
@@ -12452,7 +12711,7 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C132">
         <v>2030</v>
@@ -12493,7 +12752,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C133">
         <v>2035</v>
@@ -12534,7 +12793,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C134">
         <v>2040</v>
@@ -12575,7 +12834,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C135">
         <v>2045</v>
@@ -12616,7 +12875,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C136">
         <v>2050</v>
@@ -12657,7 +12916,7 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C137">
         <v>2020</v>
@@ -12698,7 +12957,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C138">
         <v>2025</v>
@@ -12739,7 +12998,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C139">
         <v>2030</v>
@@ -12780,7 +13039,7 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C140">
         <v>2035</v>
@@ -12821,7 +13080,7 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C141">
         <v>2040</v>
@@ -12862,7 +13121,7 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C142">
         <v>2045</v>
@@ -12903,7 +13162,7 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C143">
         <v>2050</v>
@@ -12944,7 +13203,7 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C144">
         <v>2020</v>
@@ -12985,7 +13244,7 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C145">
         <v>2025</v>
@@ -13026,7 +13285,7 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C146">
         <v>2030</v>
@@ -13067,7 +13326,7 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C147">
         <v>2035</v>
@@ -13108,7 +13367,7 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C148">
         <v>2040</v>
@@ -13149,7 +13408,7 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C149">
         <v>2045</v>
@@ -13190,7 +13449,7 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C150">
         <v>2050</v>
@@ -13231,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C151">
         <v>2020</v>
@@ -13272,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C152">
         <v>2025</v>
@@ -13313,7 +13572,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C153">
         <v>2030</v>
@@ -13354,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C154">
         <v>2035</v>
@@ -13395,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C155">
         <v>2040</v>
@@ -13436,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C156">
         <v>2045</v>
@@ -13477,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C157">
         <v>2050</v>
@@ -13518,7 +13777,7 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C158">
         <v>2020</v>
@@ -13559,7 +13818,7 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C159">
         <v>2025</v>
@@ -13600,7 +13859,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C160">
         <v>2030</v>
@@ -13641,7 +13900,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C161">
         <v>2035</v>
@@ -13682,7 +13941,7 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C162">
         <v>2040</v>
@@ -13723,7 +13982,7 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C163">
         <v>2045</v>
@@ -13764,7 +14023,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C164">
         <v>2050</v>
@@ -13805,7 +14064,7 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C165">
         <v>2020</v>
@@ -13846,7 +14105,7 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C166">
         <v>2025</v>
@@ -13887,7 +14146,7 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C167">
         <v>2030</v>
@@ -13928,7 +14187,7 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C168">
         <v>2035</v>
@@ -13969,7 +14228,7 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C169">
         <v>2040</v>
@@ -14010,7 +14269,7 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C170">
         <v>2045</v>
@@ -14051,7 +14310,7 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C171">
         <v>2050</v>
@@ -14092,7 +14351,7 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C172">
         <v>2020</v>
@@ -14133,7 +14392,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C173">
         <v>2025</v>
@@ -14174,7 +14433,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C174">
         <v>2030</v>
@@ -14215,7 +14474,7 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C175">
         <v>2035</v>
@@ -14256,7 +14515,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C176">
         <v>2040</v>
@@ -14297,7 +14556,7 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C177">
         <v>2045</v>
@@ -14338,7 +14597,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C178">
         <v>2050</v>
@@ -14379,7 +14638,7 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C179">
         <v>2020</v>
@@ -14420,7 +14679,7 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C180">
         <v>2025</v>
@@ -14461,7 +14720,7 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C181">
         <v>2030</v>
@@ -14502,7 +14761,7 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C182">
         <v>2035</v>
@@ -14543,7 +14802,7 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C183">
         <v>2040</v>
@@ -14584,7 +14843,7 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C184">
         <v>2045</v>
@@ -14625,7 +14884,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C185">
         <v>2050</v>
@@ -14666,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C186">
         <v>2020</v>
@@ -14707,7 +14966,7 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C187">
         <v>2025</v>
@@ -14748,7 +15007,7 @@
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C188">
         <v>2030</v>
@@ -14789,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C189">
         <v>2035</v>
@@ -14830,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C190">
         <v>2040</v>
@@ -14871,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C191">
         <v>2045</v>
@@ -14912,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C192">
         <v>2050</v>
@@ -14953,7 +15212,7 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C193">
         <v>2020</v>
@@ -14994,7 +15253,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C194">
         <v>2025</v>
@@ -15035,7 +15294,7 @@
         <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C195">
         <v>2030</v>
@@ -15076,7 +15335,7 @@
         <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C196">
         <v>2035</v>
@@ -15117,7 +15376,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C197">
         <v>2040</v>
@@ -15158,7 +15417,7 @@
         <v>3</v>
       </c>
       <c r="B198" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C198">
         <v>2045</v>
@@ -15199,7 +15458,7 @@
         <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C199">
         <v>2050</v>
@@ -15240,7 +15499,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C200">
         <v>2020</v>
@@ -15281,7 +15540,7 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C201">
         <v>2025</v>
@@ -15322,7 +15581,7 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C202">
         <v>2030</v>
@@ -15363,7 +15622,7 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C203">
         <v>2035</v>
@@ -15404,7 +15663,7 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C204">
         <v>2040</v>
@@ -15445,7 +15704,7 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C205">
         <v>2045</v>
@@ -15486,7 +15745,7 @@
         <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C206">
         <v>2050</v>
@@ -15527,7 +15786,7 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C207">
         <v>2020</v>
@@ -15568,7 +15827,7 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C208">
         <v>2025</v>
@@ -15609,7 +15868,7 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C209">
         <v>2030</v>
@@ -15650,7 +15909,7 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C210">
         <v>2035</v>
@@ -15691,7 +15950,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C211">
         <v>2040</v>
@@ -15732,7 +15991,7 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C212">
         <v>2045</v>
@@ -15773,7 +16032,7 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C213">
         <v>2050</v>
@@ -15814,7 +16073,7 @@
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C214">
         <v>2020</v>
@@ -15855,7 +16114,7 @@
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C215">
         <v>2025</v>
@@ -15896,7 +16155,7 @@
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C216">
         <v>2030</v>
@@ -15937,7 +16196,7 @@
         <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C217">
         <v>2035</v>
@@ -15978,7 +16237,7 @@
         <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C218">
         <v>2040</v>
@@ -16019,7 +16278,7 @@
         <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C219">
         <v>2045</v>
@@ -16060,7 +16319,7 @@
         <v>10</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C220">
         <v>2050</v>
@@ -16101,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C221">
         <v>2020</v>
@@ -16142,7 +16401,7 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C222">
         <v>2025</v>
@@ -16180,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C223">
         <v>2030</v>
@@ -16218,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C224">
         <v>2035</v>
@@ -16256,7 +16515,7 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C225">
         <v>2040</v>
@@ -16294,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C226">
         <v>2045</v>
@@ -16332,7 +16591,7 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C227">
         <v>2050</v>
@@ -16370,7 +16629,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C228">
         <v>2020</v>
@@ -16411,7 +16670,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C229">
         <v>2025</v>
@@ -16449,7 +16708,7 @@
         <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C230">
         <v>2030</v>
@@ -16487,7 +16746,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C231">
         <v>2035</v>
@@ -16525,7 +16784,7 @@
         <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C232">
         <v>2040</v>
@@ -16563,7 +16822,7 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C233">
         <v>2045</v>
@@ -16601,7 +16860,7 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C234">
         <v>2050</v>
@@ -16639,7 +16898,7 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C235">
         <v>2020</v>
@@ -16680,7 +16939,7 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C236">
         <v>2025</v>
@@ -16718,7 +16977,7 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C237">
         <v>2030</v>
@@ -16756,7 +17015,7 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C238">
         <v>2035</v>
@@ -16794,7 +17053,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C239">
         <v>2040</v>
@@ -16832,7 +17091,7 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C240">
         <v>2045</v>
@@ -16870,7 +17129,7 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C241">
         <v>2050</v>
@@ -16908,7 +17167,7 @@
         <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C242">
         <v>2020</v>
@@ -16949,7 +17208,7 @@
         <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C243">
         <v>2025</v>
@@ -16990,7 +17249,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C244">
         <v>2030</v>
@@ -17031,7 +17290,7 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C245">
         <v>2035</v>
@@ -17072,7 +17331,7 @@
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C246">
         <v>2040</v>
@@ -17113,7 +17372,7 @@
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C247">
         <v>2045</v>
@@ -17154,7 +17413,7 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C248">
         <v>2050</v>
@@ -17195,7 +17454,7 @@
         <v>10</v>
       </c>
       <c r="B249" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C249">
         <v>2020</v>
@@ -17236,7 +17495,7 @@
         <v>10</v>
       </c>
       <c r="B250" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C250">
         <v>2025</v>
@@ -17277,7 +17536,7 @@
         <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C251">
         <v>2030</v>
@@ -17318,7 +17577,7 @@
         <v>10</v>
       </c>
       <c r="B252" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C252">
         <v>2035</v>
@@ -17359,7 +17618,7 @@
         <v>10</v>
       </c>
       <c r="B253" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C253">
         <v>2040</v>
@@ -17400,7 +17659,7 @@
         <v>10</v>
       </c>
       <c r="B254" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C254">
         <v>2045</v>
@@ -17441,7 +17700,7 @@
         <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C255">
         <v>2050</v>
@@ -17482,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C256">
         <v>2020</v>
@@ -17523,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C257">
         <v>2025</v>
@@ -17561,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C258">
         <v>2030</v>
@@ -17599,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C259">
         <v>2035</v>
@@ -17637,7 +17896,7 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C260">
         <v>2040</v>
@@ -17675,7 +17934,7 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C261">
         <v>2045</v>
@@ -17713,7 +17972,7 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C262">
         <v>2050</v>
@@ -17751,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C263">
         <v>2020</v>
@@ -17792,7 +18051,7 @@
         <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C264">
         <v>2025</v>
@@ -17830,7 +18089,7 @@
         <v>3</v>
       </c>
       <c r="B265" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C265">
         <v>2030</v>
@@ -17868,7 +18127,7 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C266">
         <v>2035</v>
@@ -17906,7 +18165,7 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C267">
         <v>2040</v>
@@ -17944,7 +18203,7 @@
         <v>3</v>
       </c>
       <c r="B268" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C268">
         <v>2045</v>
@@ -17982,7 +18241,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C269">
         <v>2050</v>
@@ -18020,7 +18279,7 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C270">
         <v>2020</v>
@@ -18061,7 +18320,7 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C271">
         <v>2025</v>
@@ -18099,7 +18358,7 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C272">
         <v>2030</v>
@@ -18137,7 +18396,7 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C273">
         <v>2035</v>
@@ -18175,7 +18434,7 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C274">
         <v>2040</v>
@@ -18213,7 +18472,7 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C275">
         <v>2045</v>
@@ -18251,7 +18510,7 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C276">
         <v>2050</v>
@@ -18289,7 +18548,7 @@
         <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C277">
         <v>2020</v>
@@ -18330,7 +18589,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C278">
         <v>2025</v>
@@ -18371,7 +18630,7 @@
         <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C279">
         <v>2030</v>
@@ -18412,7 +18671,7 @@
         <v>8</v>
       </c>
       <c r="B280" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C280">
         <v>2035</v>
@@ -18453,7 +18712,7 @@
         <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C281">
         <v>2040</v>
@@ -18494,7 +18753,7 @@
         <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C282">
         <v>2045</v>
@@ -18535,7 +18794,7 @@
         <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C283">
         <v>2050</v>
@@ -18576,7 +18835,7 @@
         <v>10</v>
       </c>
       <c r="B284" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C284">
         <v>2020</v>
@@ -18617,7 +18876,7 @@
         <v>10</v>
       </c>
       <c r="B285" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C285">
         <v>2025</v>
@@ -18658,7 +18917,7 @@
         <v>10</v>
       </c>
       <c r="B286" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C286">
         <v>2030</v>
@@ -18699,7 +18958,7 @@
         <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C287">
         <v>2035</v>
@@ -18740,7 +18999,7 @@
         <v>10</v>
       </c>
       <c r="B288" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C288">
         <v>2040</v>
@@ -18781,7 +19040,7 @@
         <v>10</v>
       </c>
       <c r="B289" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C289">
         <v>2045</v>
@@ -18822,7 +19081,7 @@
         <v>10</v>
       </c>
       <c r="B290" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C290">
         <v>2050</v>
@@ -18863,7 +19122,7 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C291">
         <v>2020</v>
@@ -18904,7 +19163,7 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C292">
         <v>2025</v>
@@ -18945,7 +19204,7 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C293">
         <v>2030</v>
@@ -18986,7 +19245,7 @@
         <v>1</v>
       </c>
       <c r="B294" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C294">
         <v>2035</v>
@@ -19027,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C295">
         <v>2040</v>
@@ -19068,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C296">
         <v>2045</v>
@@ -19109,7 +19368,7 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C297">
         <v>2050</v>
@@ -19150,7 +19409,7 @@
         <v>3</v>
       </c>
       <c r="B298" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C298">
         <v>2020</v>
@@ -19191,7 +19450,7 @@
         <v>3</v>
       </c>
       <c r="B299" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C299">
         <v>2025</v>
@@ -19232,7 +19491,7 @@
         <v>3</v>
       </c>
       <c r="B300" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C300">
         <v>2030</v>
@@ -19273,7 +19532,7 @@
         <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C301">
         <v>2035</v>
@@ -19314,7 +19573,7 @@
         <v>3</v>
       </c>
       <c r="B302" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C302">
         <v>2040</v>
@@ -19355,7 +19614,7 @@
         <v>3</v>
       </c>
       <c r="B303" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C303">
         <v>2045</v>
@@ -19396,7 +19655,7 @@
         <v>3</v>
       </c>
       <c r="B304" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C304">
         <v>2050</v>
@@ -19437,7 +19696,7 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C305">
         <v>2020</v>
@@ -19478,7 +19737,7 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C306">
         <v>2025</v>
@@ -19519,7 +19778,7 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C307">
         <v>2030</v>
@@ -19560,7 +19819,7 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C308">
         <v>2035</v>
@@ -19601,7 +19860,7 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C309">
         <v>2040</v>
@@ -19642,7 +19901,7 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C310">
         <v>2045</v>
@@ -19683,7 +19942,7 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C311">
         <v>2050</v>
@@ -19724,7 +19983,7 @@
         <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C312">
         <v>2020</v>
@@ -19765,7 +20024,7 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C313">
         <v>2025</v>
@@ -19806,7 +20065,7 @@
         <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C314">
         <v>2030</v>
@@ -19847,7 +20106,7 @@
         <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C315">
         <v>2035</v>
@@ -19888,7 +20147,7 @@
         <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C316">
         <v>2040</v>
@@ -19929,7 +20188,7 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C317">
         <v>2045</v>
@@ -19970,7 +20229,7 @@
         <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C318">
         <v>2050</v>
@@ -20011,7 +20270,7 @@
         <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C319">
         <v>2020</v>
@@ -20052,7 +20311,7 @@
         <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C320">
         <v>2025</v>
@@ -20093,7 +20352,7 @@
         <v>10</v>
       </c>
       <c r="B321" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C321">
         <v>2030</v>
@@ -20134,7 +20393,7 @@
         <v>10</v>
       </c>
       <c r="B322" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C322">
         <v>2035</v>
@@ -20175,7 +20434,7 @@
         <v>10</v>
       </c>
       <c r="B323" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C323">
         <v>2040</v>
@@ -20216,7 +20475,7 @@
         <v>10</v>
       </c>
       <c r="B324" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C324">
         <v>2045</v>
@@ -20257,7 +20516,7 @@
         <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C325">
         <v>2050</v>
@@ -20298,7 +20557,7 @@
         <v>1</v>
       </c>
       <c r="B326" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C326">
         <v>2020</v>
@@ -20339,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C327">
         <v>2025</v>
@@ -20380,7 +20639,7 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C328">
         <v>2030</v>
@@ -20421,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C329">
         <v>2035</v>
@@ -20462,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C330">
         <v>2040</v>
@@ -20503,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C331">
         <v>2045</v>
@@ -20544,7 +20803,7 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C332">
         <v>2050</v>
@@ -20585,7 +20844,7 @@
         <v>3</v>
       </c>
       <c r="B333" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C333">
         <v>2020</v>
@@ -20626,7 +20885,7 @@
         <v>3</v>
       </c>
       <c r="B334" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C334">
         <v>2025</v>
@@ -20667,7 +20926,7 @@
         <v>3</v>
       </c>
       <c r="B335" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C335">
         <v>2030</v>
@@ -20708,7 +20967,7 @@
         <v>3</v>
       </c>
       <c r="B336" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C336">
         <v>2035</v>
@@ -20749,7 +21008,7 @@
         <v>3</v>
       </c>
       <c r="B337" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C337">
         <v>2040</v>
@@ -20790,7 +21049,7 @@
         <v>3</v>
       </c>
       <c r="B338" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C338">
         <v>2045</v>
@@ -20831,7 +21090,7 @@
         <v>3</v>
       </c>
       <c r="B339" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C339">
         <v>2050</v>
@@ -20872,7 +21131,7 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C340">
         <v>2020</v>
@@ -20913,7 +21172,7 @@
         <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C341">
         <v>2025</v>
@@ -20954,7 +21213,7 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C342">
         <v>2030</v>
@@ -20995,7 +21254,7 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C343">
         <v>2035</v>
@@ -21036,7 +21295,7 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C344">
         <v>2040</v>
@@ -21077,7 +21336,7 @@
         <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C345">
         <v>2045</v>
@@ -21118,7 +21377,7 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C346">
         <v>2050</v>
@@ -21159,7 +21418,7 @@
         <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C347">
         <v>2020</v>
@@ -21200,7 +21459,7 @@
         <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C348">
         <v>2025</v>
@@ -21241,7 +21500,7 @@
         <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C349">
         <v>2030</v>
@@ -21282,7 +21541,7 @@
         <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C350">
         <v>2035</v>
@@ -21323,7 +21582,7 @@
         <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C351">
         <v>2040</v>
@@ -21364,7 +21623,7 @@
         <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C352">
         <v>2045</v>
@@ -21405,7 +21664,7 @@
         <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C353">
         <v>2050</v>
@@ -21446,7 +21705,7 @@
         <v>10</v>
       </c>
       <c r="B354" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C354">
         <v>2020</v>
@@ -21487,7 +21746,7 @@
         <v>10</v>
       </c>
       <c r="B355" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C355">
         <v>2025</v>
@@ -21528,7 +21787,7 @@
         <v>10</v>
       </c>
       <c r="B356" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C356">
         <v>2030</v>
@@ -21569,7 +21828,7 @@
         <v>10</v>
       </c>
       <c r="B357" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C357">
         <v>2035</v>
@@ -21610,7 +21869,7 @@
         <v>10</v>
       </c>
       <c r="B358" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C358">
         <v>2040</v>
@@ -21651,7 +21910,7 @@
         <v>10</v>
       </c>
       <c r="B359" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C359">
         <v>2045</v>
@@ -21692,7 +21951,7 @@
         <v>10</v>
       </c>
       <c r="B360" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C360">
         <v>2050</v>
@@ -21732,4 +21991,2369 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
+  <dimension ref="B10:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="I17" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C18" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H21" s="13" t="str">
+        <f>IF(C11=C12,"Not Required!","~UC_T: LO")</f>
+        <v>~UC_T: LO</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="str">
+        <f>G23</f>
+        <v>AuxStoIN</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="str">
+        <f>C12</f>
+        <v>timeslice</v>
+      </c>
+      <c r="I23">
+        <f>1+I24</f>
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="str">
+        <f>G24</f>
+        <v>AuxStoIN</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="str">
+        <f>C11</f>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+      </c>
+      <c r="I24">
+        <f>-$I$17</f>
+        <v>-0.75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5494E2-F9B1-4D6E-AFE4-A903048AE5CC}">
+  <dimension ref="B9:AL26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" t="s">
+        <v>127</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11">
+        <v>5.494129233392326E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11">
+        <v>0.26073447921315601</v>
+      </c>
+      <c r="P11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" t="s">
+        <v>129</v>
+      </c>
+      <c r="T11">
+        <v>0.27463091742222551</v>
+      </c>
+      <c r="U11" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="X11">
+        <v>0.15387812942843648</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD11">
+        <v>0.2313419026170857</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH11">
+        <v>0.39943788609404285</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK11">
+        <v>1.0373322535863025</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12">
+        <v>6.1887757755837457E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12">
+        <v>3.1242262740711402E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" t="s">
+        <v>131</v>
+      </c>
+      <c r="T12">
+        <v>3.2992217990046896E-2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="X12">
+        <v>4.4339474098567179E-2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD12">
+        <v>3.7992871294534346E-2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH12">
+        <v>0.16360291619848955</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12">
+        <v>0.16266774641369736</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13">
+        <v>0.69268101163307605</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13">
+        <v>0.29027872858556963</v>
+      </c>
+      <c r="P13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" t="s">
+        <v>132</v>
+      </c>
+      <c r="T13">
+        <v>0.27254417104690487</v>
+      </c>
+      <c r="U13" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="X13">
+        <v>0.3837379940166904</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD13">
+        <v>0.30694765460925511</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH13">
+        <v>0.19801264323379142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14">
+        <v>9.7787453472504768E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14">
+        <v>0.24342285181757803</v>
+      </c>
+      <c r="P14" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14" t="s">
+        <v>133</v>
+      </c>
+      <c r="T14">
+        <v>0.25011876183276338</v>
+      </c>
+      <c r="U14" t="s">
+        <v>130</v>
+      </c>
+      <c r="W14">
+        <v>0.24292237442922374</v>
+      </c>
+      <c r="X14">
+        <v>0.25092111478507323</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD14">
+        <v>0.2497015680449729</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH14">
+        <v>0.27107344605999706</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15">
+        <v>4.896936097582037E-4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15">
+        <v>5.8072729744006978E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" t="s">
+        <v>139</v>
+      </c>
+      <c r="S15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15">
+        <v>5.8167440438757136E-2</v>
+      </c>
+      <c r="U15" t="s">
+        <v>130</v>
+      </c>
+      <c r="W15">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="X15">
+        <v>3.0876861497153366E-2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD15">
+        <v>4.8303646907925109E-2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH15">
+        <v>0.33115646790490216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16">
+        <v>4.8235789482883535E-3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16">
+        <v>7.120478132112207E-3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" t="s">
+        <v>135</v>
+      </c>
+      <c r="T16">
+        <v>6.7986277207287031E-3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="X16">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD16">
+        <v>7.9985661615229135E-3</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH16">
+        <v>0.10528395697637927</v>
+      </c>
+    </row>
+    <row r="17" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17">
+        <v>8.5702982161334179E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17">
+        <v>5.8809210602448606E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" t="s">
+        <v>139</v>
+      </c>
+      <c r="S17" t="s">
+        <v>136</v>
+      </c>
+      <c r="T17">
+        <v>5.3564233598422953E-2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="X17">
+        <v>7.7000058009927999E-2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD17">
+        <v>6.4256093433203029E-2</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH17">
+        <v>0.1139698900628332</v>
+      </c>
+    </row>
+    <row r="18" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18">
+        <v>1.6862300850866115E-3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18">
+        <v>5.0319259164211566E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>130</v>
+      </c>
+      <c r="R18" t="s">
+        <v>139</v>
+      </c>
+      <c r="S18" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18">
+        <v>5.1183629949946789E-2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="X18">
+        <v>5.0349302637794295E-2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD18">
+        <v>5.3457696931500959E-2</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH18">
+        <v>0.18212079901465139</v>
+      </c>
+    </row>
+    <row r="19" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD19">
+        <v>0.27409061223624648</v>
+      </c>
+    </row>
+    <row r="20" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD20">
+        <v>3.4986937233220237E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD21">
+        <v>0.28013574017878146</v>
+      </c>
+    </row>
+    <row r="22" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD22">
+        <v>0.24360939428227799</v>
+      </c>
+    </row>
+    <row r="23" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD23">
+        <v>5.4950064605738376E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD24">
+        <v>7.0255204884274343E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD25">
+        <v>5.6225557246189072E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD26">
+        <v>4.8976173729118958E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD42285A-8A7D-4CBA-9713-9553469B8DC5}">
+  <dimension ref="B9:AL12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" t="s">
+        <v>127</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11">
+        <v>0.99999999999980893</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11">
+        <v>0.99999999999979439</v>
+      </c>
+      <c r="P11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11">
+        <v>0.99999999999979616</v>
+      </c>
+      <c r="U11" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH11">
+        <v>0.29960038929139898</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK11">
+        <v>1.2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="AB12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A7E5F4-F72F-43B3-97A6-54A66E3995D2}">
+  <dimension ref="B9:AL34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" t="s">
+        <v>127</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11">
+        <v>0.19429881101052746</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11">
+        <v>0.10520441806812357</v>
+      </c>
+      <c r="P11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11">
+        <v>9.7172680668432682E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="X11">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD11">
+        <v>0.11819115625337555</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH11">
+        <v>0.18444393583567309</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK11">
+        <v>0.22555529847292916</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12">
+        <v>6.9026431976756313E-5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12">
+        <v>0.10140725246095379</v>
+      </c>
+      <c r="P12" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" t="s">
+        <v>159</v>
+      </c>
+      <c r="T12">
+        <v>0.10539924156265808</v>
+      </c>
+      <c r="U12" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="X12">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD12">
+        <v>9.764364422569162E-2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH12">
+        <v>0.33632064062675737</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK12">
+        <v>0.30301943544655252</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13">
+        <v>1.2744997819071709E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13">
+        <v>2.0061122687877575E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" t="s">
+        <v>160</v>
+      </c>
+      <c r="T13">
+        <v>1.8540853079282008E-2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="X13">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD13">
+        <v>2.2218061012861254E-2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH13">
+        <v>0.16828062521923326</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK13">
+        <v>0.40439611291068944</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14">
+        <v>0.25838474206722706</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14">
+        <v>0.14904848550067187</v>
+      </c>
+      <c r="P14" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14">
+        <v>0.13990776695821097</v>
+      </c>
+      <c r="U14" t="s">
+        <v>130</v>
+      </c>
+      <c r="W14">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X14">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD14">
+        <v>0.12251447003662695</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH14">
+        <v>0.19174320375688136</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK14">
+        <v>0.26702915316982878</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15">
+        <v>3.3105948694450689E-3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15">
+        <v>0.1425689183623626</v>
+      </c>
+      <c r="P15" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" t="s">
+        <v>139</v>
+      </c>
+      <c r="S15" t="s">
+        <v>162</v>
+      </c>
+      <c r="T15">
+        <v>0.14899437241819788</v>
+      </c>
+      <c r="U15" t="s">
+        <v>130</v>
+      </c>
+      <c r="W15">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X15">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD15">
+        <v>9.9430561690573876E-2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH15">
+        <v>0.37712195612715815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16">
+        <v>3.0691267184700395E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16">
+        <v>2.8818897827592432E-2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" t="s">
+        <v>163</v>
+      </c>
+      <c r="T16">
+        <v>2.7122130054051344E-2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="X16">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD16">
+        <v>2.2965271391870858E-2</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH16">
+        <v>0.1680616153557668</v>
+      </c>
+    </row>
+    <row r="17" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17">
+        <v>0.29948444185308731</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17">
+        <v>7.5144634691264436E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" t="s">
+        <v>139</v>
+      </c>
+      <c r="S17" t="s">
+        <v>164</v>
+      </c>
+      <c r="T17">
+        <v>6.8511894999283909E-2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD17">
+        <v>0.12264326156561349</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH17">
+        <v>0.14769495408386679</v>
+      </c>
+    </row>
+    <row r="18" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18">
+        <v>9.4162079174879981E-3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18">
+        <v>6.846541783195341E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>130</v>
+      </c>
+      <c r="R18" t="s">
+        <v>139</v>
+      </c>
+      <c r="S18" t="s">
+        <v>165</v>
+      </c>
+      <c r="T18">
+        <v>7.3165268177176404E-2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD18">
+        <v>0.10045386194730507</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH18">
+        <v>0.31451538907064003</v>
+      </c>
+    </row>
+    <row r="19" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19">
+        <v>3.8021106530569837E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19">
+        <v>1.5303222790190243E-2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>130</v>
+      </c>
+      <c r="R19" t="s">
+        <v>139</v>
+      </c>
+      <c r="S19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T19">
+        <v>1.532870077005929E-2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>130</v>
+      </c>
+      <c r="W19">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="X19">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD19">
+        <v>2.2611873364752143E-2</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH19">
+        <v>0.1070148299237299</v>
+      </c>
+    </row>
+    <row r="20" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20">
+        <v>0.14688613298083877</v>
+      </c>
+      <c r="K20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20">
+        <v>0.1353111009554451</v>
+      </c>
+      <c r="P20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" t="s">
+        <v>139</v>
+      </c>
+      <c r="S20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T20">
+        <v>0.14132794813818267</v>
+      </c>
+      <c r="U20" t="s">
+        <v>130</v>
+      </c>
+      <c r="W20">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="X20">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD20">
+        <v>0.13762287724714475</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH20">
+        <v>0.10814855721490635</v>
+      </c>
+    </row>
+    <row r="21" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21">
+        <v>0.13382477085889041</v>
+      </c>
+      <c r="P21" t="s">
+        <v>130</v>
+      </c>
+      <c r="R21" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" t="s">
+        <v>168</v>
+      </c>
+      <c r="T21">
+        <v>0.13886151961176466</v>
+      </c>
+      <c r="U21" t="s">
+        <v>130</v>
+      </c>
+      <c r="W21">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="X21">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD21">
+        <v>0.10709107236508457</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH21">
+        <v>0.30643668094329723</v>
+      </c>
+    </row>
+    <row r="22" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22">
+        <v>6.6926713348765317E-3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22">
+        <v>2.4841757964468962E-2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>130</v>
+      </c>
+      <c r="R22" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T22">
+        <v>2.5667623562496359E-2</v>
+      </c>
+      <c r="U22" t="s">
+        <v>130</v>
+      </c>
+      <c r="W22">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="X22">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD22">
+        <v>2.6613888899099897E-2</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH22">
+        <v>5.2768244206291559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD23">
+        <v>0.11495523261944324</v>
+      </c>
+    </row>
+    <row r="24" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD24">
+        <v>0.11331233725982839</v>
+      </c>
+    </row>
+    <row r="25" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD25">
+        <v>2.0959220056360785E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD26">
+        <v>0.11632010738895902</v>
+      </c>
+    </row>
+    <row r="27" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD27">
+        <v>0.11447441211196349</v>
+      </c>
+    </row>
+    <row r="28" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD28">
+        <v>2.1204273083676676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD29">
+        <v>0.11630400514669803</v>
+      </c>
+    </row>
+    <row r="30" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD30">
+        <v>0.11452983114371207</v>
+      </c>
+    </row>
+    <row r="31" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD31">
+        <v>2.1171216837340218E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD32">
+        <v>0.11416318349107028</v>
+      </c>
+    </row>
+    <row r="33" spans="28:30" x14ac:dyDescent="0.45">
+      <c r="AB33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD33">
+        <v>0.11172198474672497</v>
+      </c>
+    </row>
+    <row r="34" spans="28:30" x14ac:dyDescent="0.45">
+      <c r="AB34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD34">
+        <v>2.0884196114222889E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC80CB2-AF58-4ADD-A0D3-A1D6FACE20DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3374065-D18D-40EE-8CAC-037205F2CB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="181">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -438,25 +438,100 @@
     <t>H4</t>
   </si>
   <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>timeslice</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S1aH2,S2aH3,S2aH2,S1aH3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S1aH4,S1aH1,S2aH4,S2aH1</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
     <t>AllS</t>
   </si>
   <si>
     <t>AllH</t>
   </si>
   <si>
-    <t>F</t>
+    <t>AllSaAllH</t>
   </si>
   <si>
-    <t>D</t>
+    <t>F</t>
   </si>
   <si>
     <t>W,R,S,F</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>S</t>
@@ -466,6 +541,48 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>FaD</t>
+  </si>
+  <si>
+    <t>FaN</t>
+  </si>
+  <si>
+    <t>FaP</t>
+  </si>
+  <si>
+    <t>RaD</t>
+  </si>
+  <si>
+    <t>RaN</t>
+  </si>
+  <si>
+    <t>RaP</t>
+  </si>
+  <si>
+    <t>SaD</t>
+  </si>
+  <si>
+    <t>SaN</t>
+  </si>
+  <si>
+    <t>SaP</t>
+  </si>
+  <si>
+    <t>WaD</t>
+  </si>
+  <si>
+    <t>WaN</t>
+  </si>
+  <si>
+    <t>WaP</t>
+  </si>
+  <si>
+    <t>WaD,SaD,RaP,FaD,FaP,SaP,WaP,RaD</t>
+  </si>
+  <si>
+    <t>FaP,SaP,RaP,FaN,RaN,WaP,SaN,WaN</t>
   </si>
 </sst>
 </file>
@@ -22526,17 +22643,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C10" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.45">
       <c r="I17" s="12">
@@ -22555,7 +22723,7 @@
     <row r="21" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H21" s="13" t="str">
         <f>IF(C11=C12,"Not Required!","~UC_T: LO")</f>
-        <v>Not Required!</v>
+        <v>~UC_T: LO</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -22604,9 +22772,9 @@
       <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="str">
         <f>C12</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -22636,9 +22804,9 @@
       <c r="G24" t="s">
         <v>101</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="str">
         <f>C11</f>
-        <v>0</v>
+        <v>D</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -22654,19 +22822,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A915F57-B86F-4C76-BE90-80194763064C}">
-  <dimension ref="B9:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E562BF-35AB-4F2C-A308-8B4AAA61269A}">
+  <dimension ref="A9:AL26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -22682,8 +22874,83 @@
       <c r="F10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>124</v>
       </c>
@@ -22699,8 +22966,83 @@
       <c r="F11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11">
+        <v>5.494129233392326E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11">
+        <v>0.26073447921315601</v>
+      </c>
+      <c r="P11" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11">
+        <v>0.27463091742222551</v>
+      </c>
+      <c r="U11" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="X11">
+        <v>0.15387812942843648</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD11">
+        <v>0.2313419026170857</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH11">
+        <v>0.39943788609404285</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK11">
+        <v>0.16266774641369736</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>128</v>
       </c>
@@ -22710,21 +23052,588 @@
       <c r="F12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12">
+        <v>6.1887757755837457E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12">
+        <v>3.1242262740711402E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12">
+        <v>3.2992217990046896E-2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>137</v>
+      </c>
+      <c r="W12">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="X12">
+        <v>4.4339474098567179E-2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD12">
+        <v>3.7992871294534346E-2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH12">
+        <v>0.16360291619848955</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK12">
+        <v>1.0373322535863025</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>130</v>
       </c>
       <c r="F13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13">
+        <v>0.69268101163307605</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13">
+        <v>0.29027872858556963</v>
+      </c>
+      <c r="P13" t="s">
+        <v>137</v>
+      </c>
+      <c r="R13" t="s">
+        <v>146</v>
+      </c>
+      <c r="S13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13">
+        <v>0.27254417104690487</v>
+      </c>
+      <c r="U13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W13">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="X13">
+        <v>0.3837379940166904</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD13">
+        <v>0.30694765460925511</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH13">
+        <v>0.19801264323379142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>131</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14">
+        <v>9.7787453472504768E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14">
+        <v>0.24342285181757803</v>
+      </c>
+      <c r="P14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R14" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" t="s">
+        <v>140</v>
+      </c>
+      <c r="T14">
+        <v>0.25011876183276338</v>
+      </c>
+      <c r="U14" t="s">
+        <v>137</v>
+      </c>
+      <c r="W14">
+        <v>0.24292237442922374</v>
+      </c>
+      <c r="X14">
+        <v>0.25092111478507323</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD14">
+        <v>0.2497015680449729</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH14">
+        <v>0.27107344605999706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15">
+        <v>4.896936097582037E-4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15">
+        <v>5.8072729744006978E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R15" t="s">
+        <v>146</v>
+      </c>
+      <c r="S15" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15">
+        <v>5.8167440438757136E-2</v>
+      </c>
+      <c r="U15" t="s">
+        <v>137</v>
+      </c>
+      <c r="W15">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="X15">
+        <v>3.0876861497153366E-2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD15">
+        <v>4.8303646907925109E-2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH15">
+        <v>0.33115646790490216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16">
+        <v>4.8235789482883535E-3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16">
+        <v>7.120478132112207E-3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="R16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T16">
+        <v>6.7986277207287031E-3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>137</v>
+      </c>
+      <c r="W16">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="X16">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD16">
+        <v>7.9985661615229135E-3</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH16">
+        <v>0.10528395697637927</v>
+      </c>
+    </row>
+    <row r="17" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17">
+        <v>8.5702982161334179E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17">
+        <v>5.8809210602448606E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>137</v>
+      </c>
+      <c r="R17" t="s">
+        <v>146</v>
+      </c>
+      <c r="S17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T17">
+        <v>5.3564233598422953E-2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>137</v>
+      </c>
+      <c r="W17">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="X17">
+        <v>7.7000058009927999E-2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD17">
+        <v>6.4256093433203029E-2</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH17">
+        <v>0.1139698900628332</v>
+      </c>
+    </row>
+    <row r="18" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18">
+        <v>1.6862300850866115E-3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18">
+        <v>5.0319259164211566E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" t="s">
+        <v>146</v>
+      </c>
+      <c r="S18" t="s">
+        <v>144</v>
+      </c>
+      <c r="T18">
+        <v>5.1183629949946789E-2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>137</v>
+      </c>
+      <c r="W18">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="X18">
+        <v>5.0349302637794295E-2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD18">
+        <v>5.3457696931500959E-2</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH18">
+        <v>0.18212079901465139</v>
+      </c>
+    </row>
+    <row r="19" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD19">
+        <v>0.27409061223624648</v>
+      </c>
+    </row>
+    <row r="20" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD20">
+        <v>3.4986937233220237E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD21">
+        <v>0.28013574017878146</v>
+      </c>
+    </row>
+    <row r="22" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD22">
+        <v>0.24360939428227799</v>
+      </c>
+    </row>
+    <row r="23" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD23">
+        <v>5.4950064605738376E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD24">
+        <v>7.0255204884274343E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD25">
+        <v>5.6225557246189072E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD26">
+        <v>4.8976173729118958E-2</v>
       </c>
     </row>
   </sheetData>
@@ -22733,19 +23642,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DC150A-BCF5-4CAC-B531-1B27A8FA81AF}">
-  <dimension ref="B9:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098CAA2B-5B3A-48A3-B710-1AE82059BAFF}">
+  <dimension ref="A9:AL12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -22761,22 +23694,183 @@
       <c r="F10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11">
+        <v>0.99999999999980893</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11">
+        <v>0.99999999999979439</v>
+      </c>
+      <c r="P11" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T11">
+        <v>0.99999999999979616</v>
+      </c>
+      <c r="U11" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH11">
+        <v>0.29960038929139898</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK11">
+        <v>1.2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AB12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22785,19 +23879,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407623E4-D8F5-428F-A337-1587B9C039BF}">
-  <dimension ref="B9:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681C80B-84C4-4C68-8ADE-E6485F46256C}">
+  <dimension ref="A9:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -22813,49 +23931,1100 @@
       <c r="F10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11">
+        <v>0.19429881101052746</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11">
+        <v>0.10520441806812357</v>
+      </c>
+      <c r="P11" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11">
+        <v>9.7172680668432682E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="X11">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD11">
+        <v>0.11819115625337555</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH11">
+        <v>0.18444393583567309</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK11">
+        <v>0.22555529847292913</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12">
+        <v>6.9026431976756313E-5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12">
+        <v>0.10140725246095379</v>
+      </c>
+      <c r="P12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" t="s">
+        <v>168</v>
+      </c>
+      <c r="T12">
+        <v>0.10539924156265808</v>
+      </c>
+      <c r="U12" t="s">
+        <v>137</v>
+      </c>
+      <c r="W12">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="X12">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD12">
+        <v>9.764364422569162E-2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH12">
+        <v>0.33632064062675737</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK12">
+        <v>0.40439611291068939</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13">
+        <v>1.2744997819071709E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13">
+        <v>2.0061122687877575E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>137</v>
+      </c>
+      <c r="R13" t="s">
+        <v>146</v>
+      </c>
+      <c r="S13" t="s">
+        <v>169</v>
+      </c>
+      <c r="T13">
+        <v>1.8540853079282008E-2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W13">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="X13">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD13">
+        <v>2.2218061012861254E-2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH13">
+        <v>0.16828062521923326</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK13">
+        <v>0.30301943544655247</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>141</v>
+        <v>166</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14">
+        <v>0.25838474206722706</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14">
+        <v>0.14904848550067187</v>
+      </c>
+      <c r="P14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R14" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" t="s">
+        <v>170</v>
+      </c>
+      <c r="T14">
+        <v>0.13990776695821097</v>
+      </c>
+      <c r="U14" t="s">
+        <v>137</v>
+      </c>
+      <c r="W14">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X14">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD14">
+        <v>0.12251447003662695</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH14">
+        <v>0.19174320375688136</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK14">
+        <v>0.26702915316982873</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15">
+        <v>3.3105948694450689E-3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15">
+        <v>0.1425689183623626</v>
+      </c>
+      <c r="P15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R15" t="s">
+        <v>146</v>
+      </c>
+      <c r="S15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15">
+        <v>0.14899437241819788</v>
+      </c>
+      <c r="U15" t="s">
+        <v>137</v>
+      </c>
+      <c r="W15">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X15">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD15">
+        <v>9.9430561690573876E-2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH15">
+        <v>0.37712195612715815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16">
+        <v>3.0691267184700395E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16">
+        <v>2.8818897827592432E-2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="R16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" t="s">
+        <v>172</v>
+      </c>
+      <c r="T16">
+        <v>2.7122130054051344E-2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>137</v>
+      </c>
+      <c r="W16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="X16">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD16">
+        <v>2.2965271391870858E-2</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH16">
+        <v>0.1680616153557668</v>
+      </c>
+    </row>
+    <row r="17" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17">
+        <v>0.29948444185308731</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17">
+        <v>7.5144634691264436E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>137</v>
+      </c>
+      <c r="R17" t="s">
+        <v>146</v>
+      </c>
+      <c r="S17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T17">
+        <v>6.8511894999283909E-2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>137</v>
+      </c>
+      <c r="W17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD17">
+        <v>0.12264326156561349</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH17">
+        <v>0.14769495408386679</v>
+      </c>
+    </row>
+    <row r="18" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18">
+        <v>9.4162079174879981E-3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18">
+        <v>6.846541783195341E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" t="s">
+        <v>146</v>
+      </c>
+      <c r="S18" t="s">
+        <v>174</v>
+      </c>
+      <c r="T18">
+        <v>7.3165268177176404E-2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>137</v>
+      </c>
+      <c r="W18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="X18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD18">
+        <v>0.10045386194730507</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH18">
+        <v>0.31451538907064003</v>
+      </c>
+    </row>
+    <row r="19" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19">
+        <v>3.8021106530569837E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19">
+        <v>1.5303222790190243E-2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" t="s">
+        <v>146</v>
+      </c>
+      <c r="S19" t="s">
+        <v>175</v>
+      </c>
+      <c r="T19">
+        <v>1.532870077005929E-2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>137</v>
+      </c>
+      <c r="W19">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="X19">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD19">
+        <v>2.2611873364752143E-2</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH19">
+        <v>0.1070148299237299</v>
+      </c>
+    </row>
+    <row r="20" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20">
+        <v>0.14688613298083877</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20">
+        <v>0.1353111009554451</v>
+      </c>
+      <c r="P20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" t="s">
+        <v>146</v>
+      </c>
+      <c r="S20" t="s">
+        <v>176</v>
+      </c>
+      <c r="T20">
+        <v>0.14132794813818267</v>
+      </c>
+      <c r="U20" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="X20">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD20">
+        <v>0.13762287724714475</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH20">
+        <v>0.10814855721490635</v>
+      </c>
+    </row>
+    <row r="21" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21">
+        <v>0.13382477085889041</v>
+      </c>
+      <c r="P21" t="s">
+        <v>137</v>
+      </c>
+      <c r="R21" t="s">
+        <v>146</v>
+      </c>
+      <c r="S21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T21">
+        <v>0.13886151961176466</v>
+      </c>
+      <c r="U21" t="s">
+        <v>137</v>
+      </c>
+      <c r="W21">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="X21">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD21">
+        <v>0.10709107236508457</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH21">
+        <v>0.30643668094329723</v>
+      </c>
+    </row>
+    <row r="22" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22">
+        <v>6.6926713348765317E-3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22">
+        <v>2.4841757964468962E-2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R22" t="s">
+        <v>146</v>
+      </c>
+      <c r="S22" t="s">
+        <v>178</v>
+      </c>
+      <c r="T22">
+        <v>2.5667623562496359E-2</v>
+      </c>
+      <c r="U22" t="s">
+        <v>137</v>
+      </c>
+      <c r="W22">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="X22">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD22">
+        <v>2.6613888899099897E-2</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH22">
+        <v>5.2768244206291559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD23">
+        <v>0.11495523261944324</v>
+      </c>
+    </row>
+    <row r="24" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD24">
+        <v>0.11331233725982839</v>
+      </c>
+    </row>
+    <row r="25" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD25">
+        <v>2.0959220056360785E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD26">
+        <v>0.11632010738895902</v>
+      </c>
+    </row>
+    <row r="27" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD27">
+        <v>0.11447441211196349</v>
+      </c>
+    </row>
+    <row r="28" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD28">
+        <v>2.1204273083676676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD29">
+        <v>0.11630400514669803</v>
+      </c>
+    </row>
+    <row r="30" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD30">
+        <v>0.11452983114371207</v>
+      </c>
+    </row>
+    <row r="31" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD31">
+        <v>2.1171216837340218E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:34" x14ac:dyDescent="0.45">
+      <c r="AB32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD32">
+        <v>0.11416318349107028</v>
+      </c>
+    </row>
+    <row r="33" spans="28:30" x14ac:dyDescent="0.45">
+      <c r="AB33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD33">
+        <v>0.11172198474672497</v>
+      </c>
+    </row>
+    <row r="34" spans="28:30" x14ac:dyDescent="0.45">
+      <c r="AB34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD34">
+        <v>2.0884196114222889E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3374065-D18D-40EE-8CAC-037205F2CB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD9CB76-FD66-472C-A52C-ACD883E4FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="180">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -438,7 +438,7 @@
     <t>H4</t>
   </si>
   <si>
-    <t>~TFM_DINS-AT</t>
+    <t>DeActivated</t>
   </si>
   <si>
     <t>timeslice</t>
@@ -492,19 +492,16 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S2aH2,S1aH3</t>
+    <t>S1aH3,S1aH2,S2aH3,S2aH2</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH4,S1aH1,S2aH4,S2aH1</t>
+    <t>S2aH4,S1aH4,S2aH1,S1aH1</t>
   </si>
   <si>
     <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
   <si>
     <t>ncap_afs</t>
@@ -579,10 +576,10 @@
     <t>WaP</t>
   </si>
   <si>
-    <t>WaD,SaD,RaP,FaD,FaP,SaP,WaP,RaD</t>
+    <t>WaD,RaD,RaP,FaP,SaP,WaP,SaD,FaD</t>
   </si>
   <si>
-    <t>FaP,SaP,RaP,FaN,RaN,WaP,SaN,WaN</t>
+    <t>FaN,RaN,SaN,WaN,FaP,SaP,RaP,WaP</t>
   </si>
 </sst>
 </file>
@@ -22676,13 +22673,13 @@
         <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
         <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
@@ -22697,13 +22694,13 @@
         <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
         <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.45">
@@ -22822,817 +22819,821 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E562BF-35AB-4F2C-A308-8B4AAA61269A}">
-  <dimension ref="A9:AL26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA1FE24-0B17-42C9-B2A1-26AC6C2D3344}">
+  <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
         <v>118</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>132</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>132</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>132</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>132</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>132</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>132</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AK9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>121</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>133</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>134</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>133</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>134</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>31</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>14</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>133</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>134</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>31</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>147</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>134</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>133</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>14</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>133</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>134</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>14</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>133</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>153</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>133</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM10" t="s">
         <v>155</v>
       </c>
-      <c r="AL10" t="s">
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <f>IFERROR(IF(Veda!B5=ts12_clu!A10,"ok","x"),"")</f>
+        <v>x</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11">
+        <v>5.494129233392326E-2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11">
+        <v>0.26073447921315601</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" t="s">
+        <v>136</v>
+      </c>
+      <c r="U11">
+        <v>0.27463091742222551</v>
+      </c>
+      <c r="V11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="Y11">
+        <v>0.15387812942843648</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE11">
+        <v>0.2313419026170857</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI11">
+        <v>0.39943788609404285</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL11">
+        <v>0.16266774641369736</v>
+      </c>
+      <c r="AM11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12">
+        <v>6.1887757755837457E-2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12">
+        <v>3.1242262740711402E-2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12">
+        <v>3.2992217990046896E-2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="Y12">
+        <v>4.4339474098567179E-2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE12">
+        <v>3.7992871294534346E-2</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI12">
+        <v>0.16360291619848955</v>
+      </c>
+      <c r="AK12" t="s">
         <v>124</v>
       </c>
-      <c r="C11" t="s">
+      <c r="AL12">
+        <v>1.0373322535863025</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
         <v>125</v>
       </c>
-      <c r="D11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13">
+        <v>0.69268101163307605</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13">
+        <v>0.29027872858556963</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>137</v>
+      </c>
+      <c r="S13" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U13">
+        <v>0.27254417104690487</v>
+      </c>
+      <c r="V13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="Y13">
+        <v>0.3837379940166904</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE13">
+        <v>0.30694765460925511</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI13">
+        <v>0.19801264323379142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
         <v>125</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I14" t="s">
         <v>135</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14">
+        <v>9.7787453472504768E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14">
+        <v>0.24342285181757803</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" t="s">
+        <v>140</v>
+      </c>
+      <c r="U14">
+        <v>0.25011876183276338</v>
+      </c>
+      <c r="V14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14">
+        <v>0.24292237442922374</v>
+      </c>
+      <c r="Y14">
+        <v>0.25092111478507323</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE14">
+        <v>0.2497015680449729</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI14">
+        <v>0.27107344605999706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15">
+        <v>4.896936097582037E-4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15">
+        <v>5.8072729744006978E-2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15">
+        <v>5.8167440438757136E-2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="Y15">
+        <v>3.0876861497153366E-2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE15">
+        <v>4.8303646907925109E-2</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI15">
+        <v>0.33115646790490216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16">
+        <v>4.8235789482883535E-3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16">
+        <v>7.120478132112207E-3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>137</v>
+      </c>
+      <c r="S16" t="s">
+        <v>146</v>
+      </c>
+      <c r="T16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U16">
+        <v>6.7986277207287031E-3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="Y16">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE16">
+        <v>7.9985661615229135E-3</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI16">
+        <v>0.10528395697637927</v>
+      </c>
+    </row>
+    <row r="17" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17">
+        <v>8.5702982161334179E-2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17">
+        <v>5.8809210602448606E-2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>137</v>
+      </c>
+      <c r="S17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" t="s">
+        <v>143</v>
+      </c>
+      <c r="U17">
+        <v>5.3564233598422953E-2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="Y17">
+        <v>7.7000058009927999E-2</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE17">
+        <v>6.4256093433203029E-2</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI17">
+        <v>0.1139698900628332</v>
+      </c>
+    </row>
+    <row r="18" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18">
+        <v>1.6862300850866115E-3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18">
+        <v>5.0319259164211566E-2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" t="s">
+        <v>146</v>
+      </c>
+      <c r="T18" t="s">
+        <v>144</v>
+      </c>
+      <c r="U18">
+        <v>5.1183629949946789E-2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>137</v>
+      </c>
+      <c r="X18">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="Y18">
+        <v>5.0349302637794295E-2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE18">
+        <v>5.3457696931500959E-2</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI18">
+        <v>0.18212079901465139</v>
+      </c>
+    </row>
+    <row r="19" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s">
         <v>136</v>
       </c>
-      <c r="J11">
-        <v>5.494129233392326E-2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s">
-        <v>136</v>
-      </c>
-      <c r="O11">
-        <v>0.26073447921315601</v>
-      </c>
-      <c r="P11" t="s">
-        <v>137</v>
-      </c>
-      <c r="R11" t="s">
-        <v>146</v>
-      </c>
-      <c r="S11" t="s">
-        <v>136</v>
-      </c>
-      <c r="T11">
-        <v>0.27463091742222551</v>
-      </c>
-      <c r="U11" t="s">
-        <v>137</v>
-      </c>
-      <c r="W11">
-        <v>0.27762557077625571</v>
-      </c>
-      <c r="X11">
-        <v>0.15387812942843648</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD11">
-        <v>0.2313419026170857</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH11">
-        <v>0.39943788609404285</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK11">
-        <v>0.16266774641369736</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="AE19">
+        <v>0.27409061223624648</v>
+      </c>
+    </row>
+    <row r="20" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s">
         <v>138</v>
       </c>
-      <c r="J12">
-        <v>6.1887757755837457E-2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N12" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12">
-        <v>3.1242262740711402E-2</v>
-      </c>
-      <c r="P12" t="s">
-        <v>137</v>
-      </c>
-      <c r="R12" t="s">
-        <v>146</v>
-      </c>
-      <c r="S12" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12">
-        <v>3.2992217990046896E-2</v>
-      </c>
-      <c r="U12" t="s">
-        <v>137</v>
-      </c>
-      <c r="W12">
-        <v>3.4703196347031964E-2</v>
-      </c>
-      <c r="X12">
-        <v>4.4339474098567179E-2</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD12">
-        <v>3.7992871294534346E-2</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH12">
-        <v>0.16360291619848955</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK12">
-        <v>1.0373322535863025</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="AE20">
+        <v>3.4986937233220237E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="s">
         <v>139</v>
       </c>
-      <c r="J13">
-        <v>0.69268101163307605</v>
-      </c>
-      <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O13">
-        <v>0.29027872858556963</v>
-      </c>
-      <c r="P13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" t="s">
-        <v>146</v>
-      </c>
-      <c r="S13" t="s">
-        <v>139</v>
-      </c>
-      <c r="T13">
-        <v>0.27254417104690487</v>
-      </c>
-      <c r="U13" t="s">
-        <v>137</v>
-      </c>
-      <c r="W13">
-        <v>0.27762557077625571</v>
-      </c>
-      <c r="X13">
-        <v>0.3837379940166904</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD13">
-        <v>0.30694765460925511</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH13">
-        <v>0.19801264323379142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="AE21">
+        <v>0.28013574017878146</v>
+      </c>
+    </row>
+    <row r="22" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s">
         <v>140</v>
       </c>
-      <c r="J14">
-        <v>9.7787453472504768E-2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14">
-        <v>0.24342285181757803</v>
-      </c>
-      <c r="P14" t="s">
-        <v>137</v>
-      </c>
-      <c r="R14" t="s">
-        <v>146</v>
-      </c>
-      <c r="S14" t="s">
-        <v>140</v>
-      </c>
-      <c r="T14">
-        <v>0.25011876183276338</v>
-      </c>
-      <c r="U14" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14">
-        <v>0.24292237442922374</v>
-      </c>
-      <c r="X14">
-        <v>0.25092111478507323</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD14">
-        <v>0.2497015680449729</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH14">
-        <v>0.27107344605999706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="H15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="AE22">
+        <v>0.24360939428227799</v>
+      </c>
+    </row>
+    <row r="23" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD23" t="s">
         <v>141</v>
       </c>
-      <c r="J15">
-        <v>4.896936097582037E-4</v>
-      </c>
-      <c r="K15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15">
-        <v>5.8072729744006978E-2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>137</v>
-      </c>
-      <c r="R15" t="s">
-        <v>146</v>
-      </c>
-      <c r="S15" t="s">
-        <v>141</v>
-      </c>
-      <c r="T15">
-        <v>5.8167440438757136E-2</v>
-      </c>
-      <c r="U15" t="s">
-        <v>137</v>
-      </c>
-      <c r="W15">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="X15">
-        <v>3.0876861497153366E-2</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD15">
-        <v>4.8303646907925109E-2</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH15">
-        <v>0.33115646790490216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="AE23">
+        <v>5.4950064605738376E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="s">
         <v>142</v>
       </c>
-      <c r="J16">
-        <v>4.8235789482883535E-3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" t="s">
-        <v>145</v>
-      </c>
-      <c r="N16" t="s">
-        <v>142</v>
-      </c>
-      <c r="O16">
-        <v>7.120478132112207E-3</v>
-      </c>
-      <c r="P16" t="s">
-        <v>137</v>
-      </c>
-      <c r="R16" t="s">
-        <v>146</v>
-      </c>
-      <c r="S16" t="s">
-        <v>142</v>
-      </c>
-      <c r="T16">
-        <v>6.7986277207287031E-3</v>
-      </c>
-      <c r="U16" t="s">
-        <v>137</v>
-      </c>
-      <c r="W16">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="X16">
-        <v>8.8970655263572278E-3</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD16">
-        <v>7.9985661615229135E-3</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH16">
-        <v>0.10528395697637927</v>
-      </c>
-    </row>
-    <row r="17" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="AE24">
+        <v>7.0255204884274343E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s">
         <v>143</v>
       </c>
-      <c r="J17">
-        <v>8.5702982161334179E-2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" t="s">
-        <v>145</v>
-      </c>
-      <c r="N17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17">
-        <v>5.8809210602448606E-2</v>
-      </c>
-      <c r="P17" t="s">
-        <v>137</v>
-      </c>
-      <c r="R17" t="s">
-        <v>146</v>
-      </c>
-      <c r="S17" t="s">
-        <v>143</v>
-      </c>
-      <c r="T17">
-        <v>5.3564233598422953E-2</v>
-      </c>
-      <c r="U17" t="s">
-        <v>137</v>
-      </c>
-      <c r="W17">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="X17">
-        <v>7.7000058009927999E-2</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD17">
-        <v>6.4256093433203029E-2</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH17">
-        <v>0.1139698900628332</v>
-      </c>
-    </row>
-    <row r="18" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="AE25">
+        <v>5.6225557246189072E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s">
         <v>144</v>
       </c>
-      <c r="J18">
-        <v>1.6862300850866115E-3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" t="s">
-        <v>145</v>
-      </c>
-      <c r="N18" t="s">
-        <v>144</v>
-      </c>
-      <c r="O18">
-        <v>5.0319259164211566E-2</v>
-      </c>
-      <c r="P18" t="s">
-        <v>137</v>
-      </c>
-      <c r="R18" t="s">
-        <v>146</v>
-      </c>
-      <c r="S18" t="s">
-        <v>144</v>
-      </c>
-      <c r="T18">
-        <v>5.1183629949946789E-2</v>
-      </c>
-      <c r="U18" t="s">
-        <v>137</v>
-      </c>
-      <c r="W18">
-        <v>4.8744292237442921E-2</v>
-      </c>
-      <c r="X18">
-        <v>5.0349302637794295E-2</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD18">
-        <v>5.3457696931500959E-2</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH18">
-        <v>0.18212079901465139</v>
-      </c>
-    </row>
-    <row r="19" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD19">
-        <v>0.27409061223624648</v>
-      </c>
-    </row>
-    <row r="20" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD20">
-        <v>3.4986937233220237E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD21">
-        <v>0.28013574017878146</v>
-      </c>
-    </row>
-    <row r="22" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB22" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD22">
-        <v>0.24360939428227799</v>
-      </c>
-    </row>
-    <row r="23" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD23">
-        <v>5.4950064605738376E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD24">
-        <v>7.0255204884274343E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD25">
-        <v>5.6225557246189072E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>4.8976173729118958E-2</v>
       </c>
     </row>
@@ -23642,234 +23643,238 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098CAA2B-5B3A-48A3-B710-1AE82059BAFF}">
-  <dimension ref="A9:AL12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFF4B1-8112-4665-8AF4-07166DDBF958}">
+  <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
         <v>118</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>132</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>132</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>132</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>132</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>132</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>132</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AK9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>121</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>133</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>134</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>133</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>134</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>31</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>14</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>133</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>134</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>31</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>147</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>134</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>133</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>14</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>133</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>134</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>14</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>133</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>153</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>133</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM10" t="s">
         <v>155</v>
       </c>
-      <c r="AL10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>158</v>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <f>IFERROR(IF(Veda!B5=ts12_clu!A10,"ok","x"),"")</f>
+        <v>x</v>
       </c>
       <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
         <v>125</v>
-      </c>
-      <c r="D11" t="s">
-        <v>159</v>
       </c>
       <c r="E11" t="s">
         <v>158</v>
       </c>
       <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
         <v>125</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>135</v>
       </c>
-      <c r="I11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11">
         <v>0.99999999999980893</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>137</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>145</v>
       </c>
-      <c r="N11" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11">
+      <c r="O11" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11">
         <v>0.99999999999979439</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>137</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>146</v>
       </c>
-      <c r="S11" t="s">
-        <v>160</v>
-      </c>
-      <c r="T11">
+      <c r="T11" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11">
         <v>0.99999999999979616</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>137</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1.0000000000000002</v>
       </c>
-      <c r="Y11" t="s">
-        <v>160</v>
-      </c>
       <c r="Z11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA11" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>23</v>
       </c>
-      <c r="AC11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD11">
+      <c r="AD11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE11">
         <v>1</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>99</v>
       </c>
-      <c r="AG11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH11">
+      <c r="AH11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI11">
         <v>0.29960038929139898</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK11">
+      <c r="AK11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL11">
         <v>1.2</v>
       </c>
-      <c r="AL11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="AB12" t="s">
+      <c r="AM11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AC12" t="s">
         <v>20</v>
       </c>
-      <c r="AC12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD12">
+      <c r="AD12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE12">
         <v>1</v>
       </c>
     </row>
@@ -23879,1151 +23884,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681C80B-84C4-4C68-8ADE-E6485F46256C}">
-  <dimension ref="A9:AL34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9170D2-33C6-4922-B34E-2205BAA8A701}">
+  <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
         <v>118</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>132</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>132</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>132</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>132</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>132</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>132</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AK9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>114</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>121</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>133</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>134</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>133</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>134</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>31</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>14</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>133</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>134</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>31</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>147</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>134</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>133</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>14</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>133</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>134</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>14</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>133</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>153</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>133</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM10" t="s">
         <v>155</v>
       </c>
-      <c r="AL10" t="s">
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <f>IFERROR(IF(Veda!B5=ts12_clu!A10,"ok","x"),"")</f>
+        <v>x</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11">
+        <v>0.19429881101052746</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11">
+        <v>0.10520441806812357</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11">
+        <v>9.7172680668432682E-2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="Y11">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE11">
+        <v>0.11819115625337555</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI11">
+        <v>0.18444393583567309</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL11">
+        <v>0.22555529847292916</v>
+      </c>
+      <c r="AM11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
         <v>125</v>
       </c>
-      <c r="D11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12">
+        <v>6.9026431976756313E-5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12">
+        <v>0.10140725246095379</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12" t="s">
+        <v>167</v>
+      </c>
+      <c r="U12">
+        <v>0.10539924156265808</v>
+      </c>
+      <c r="V12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="Y12">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE12">
+        <v>9.764364422569162E-2</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI12">
+        <v>0.33632064062675737</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL12">
+        <v>0.40439611291068944</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13">
+        <v>1.2744997819071709E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13">
+        <v>2.0061122687877575E-2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>137</v>
+      </c>
+      <c r="S13" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" t="s">
+        <v>168</v>
+      </c>
+      <c r="U13">
+        <v>1.8540853079282008E-2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="Y13">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE13">
+        <v>2.2218061012861254E-2</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI13">
+        <v>0.16828062521923326</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL13">
+        <v>0.26702915316982878</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14">
+        <v>0.25838474206722706</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14">
+        <v>0.14904848550067187</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" t="s">
+        <v>169</v>
+      </c>
+      <c r="U14">
+        <v>0.13990776695821097</v>
+      </c>
+      <c r="V14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="Y14">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE14">
+        <v>0.12251447003662695</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI14">
+        <v>0.19174320375688136</v>
+      </c>
+      <c r="AK14" t="s">
         <v>162</v>
       </c>
-      <c r="F11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="AL14">
+        <v>0.30301943544655252</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
         <v>135</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15">
+        <v>3.3105948694450689E-3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15">
+        <v>0.1425689183623626</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
+        <v>170</v>
+      </c>
+      <c r="U15">
+        <v>0.14899437241819788</v>
+      </c>
+      <c r="V15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="Y15">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE15">
+        <v>9.9430561690573876E-2</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI15">
+        <v>0.37712195612715815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16">
+        <v>3.0691267184700395E-2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16">
+        <v>2.8818897827592432E-2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>137</v>
+      </c>
+      <c r="S16" t="s">
+        <v>146</v>
+      </c>
+      <c r="T16" t="s">
+        <v>171</v>
+      </c>
+      <c r="U16">
+        <v>2.7122130054051344E-2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="Y16">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE16">
+        <v>2.2965271391870858E-2</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI16">
+        <v>0.1680616153557668</v>
+      </c>
+    </row>
+    <row r="17" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17">
+        <v>0.29948444185308731</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17">
+        <v>7.5144634691264436E-2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>137</v>
+      </c>
+      <c r="S17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" t="s">
+        <v>172</v>
+      </c>
+      <c r="U17">
+        <v>6.8511894999283909E-2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="Y17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE17">
+        <v>0.12264326156561349</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI17">
+        <v>0.14769495408386679</v>
+      </c>
+    </row>
+    <row r="18" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18">
+        <v>9.4162079174879981E-3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18">
+        <v>6.846541783195341E-2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" t="s">
+        <v>146</v>
+      </c>
+      <c r="T18" t="s">
+        <v>173</v>
+      </c>
+      <c r="U18">
+        <v>7.3165268177176404E-2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>137</v>
+      </c>
+      <c r="X18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="Y18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE18">
+        <v>0.10045386194730507</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI18">
+        <v>0.31451538907064003</v>
+      </c>
+    </row>
+    <row r="19" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19">
+        <v>3.8021106530569837E-2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19">
+        <v>1.5303222790190243E-2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S19" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" t="s">
+        <v>174</v>
+      </c>
+      <c r="U19">
+        <v>1.532870077005929E-2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>137</v>
+      </c>
+      <c r="X19">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="Y19">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE19">
+        <v>2.2611873364752143E-2</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI19">
+        <v>0.1070148299237299</v>
+      </c>
+    </row>
+    <row r="20" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20">
+        <v>0.14688613298083877</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20">
+        <v>0.1353111009554451</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>137</v>
+      </c>
+      <c r="S20" t="s">
+        <v>146</v>
+      </c>
+      <c r="T20" t="s">
+        <v>175</v>
+      </c>
+      <c r="U20">
+        <v>0.14132794813818267</v>
+      </c>
+      <c r="V20" t="s">
+        <v>137</v>
+      </c>
+      <c r="X20">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="Y20">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE20">
+        <v>0.13762287724714475</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI20">
+        <v>0.10814855721490635</v>
+      </c>
+    </row>
+    <row r="21" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P21">
+        <v>0.13382477085889041</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S21" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21" t="s">
+        <v>176</v>
+      </c>
+      <c r="U21">
+        <v>0.13886151961176466</v>
+      </c>
+      <c r="V21" t="s">
+        <v>137</v>
+      </c>
+      <c r="X21">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="Y21">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE21">
+        <v>0.10709107236508457</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI21">
+        <v>0.30643668094329723</v>
+      </c>
+    </row>
+    <row r="22" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22">
+        <v>6.6926713348765317E-3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22">
+        <v>2.4841757964468962E-2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>137</v>
+      </c>
+      <c r="S22" t="s">
+        <v>146</v>
+      </c>
+      <c r="T22" t="s">
+        <v>177</v>
+      </c>
+      <c r="U22">
+        <v>2.5667623562496359E-2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>137</v>
+      </c>
+      <c r="X22">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="Y22">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE22">
+        <v>2.6613888899099897E-2</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI22">
+        <v>5.2768244206291559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE23">
+        <v>0.11495523261944324</v>
+      </c>
+    </row>
+    <row r="24" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="s">
         <v>167</v>
       </c>
-      <c r="J11">
-        <v>0.19429881101052746</v>
-      </c>
-      <c r="K11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s">
-        <v>167</v>
-      </c>
-      <c r="O11">
-        <v>0.10520441806812357</v>
-      </c>
-      <c r="P11" t="s">
-        <v>137</v>
-      </c>
-      <c r="R11" t="s">
-        <v>146</v>
-      </c>
-      <c r="S11" t="s">
-        <v>167</v>
-      </c>
-      <c r="T11">
-        <v>9.7172680668432682E-2</v>
-      </c>
-      <c r="U11" t="s">
-        <v>137</v>
-      </c>
-      <c r="W11">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="X11">
-        <v>0.16087081189037786</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD11">
-        <v>0.11819115625337555</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH11">
-        <v>0.18444393583567309</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK11">
-        <v>0.22555529847292913</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="AE24">
+        <v>0.11331233725982839</v>
+      </c>
+    </row>
+    <row r="25" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s">
         <v>168</v>
       </c>
-      <c r="J12">
-        <v>6.9026431976756313E-5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O12">
-        <v>0.10140725246095379</v>
-      </c>
-      <c r="P12" t="s">
-        <v>137</v>
-      </c>
-      <c r="R12" t="s">
-        <v>146</v>
-      </c>
-      <c r="S12" t="s">
-        <v>168</v>
-      </c>
-      <c r="T12">
-        <v>0.10539924156265808</v>
-      </c>
-      <c r="U12" t="s">
-        <v>137</v>
-      </c>
-      <c r="W12">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="X12">
-        <v>5.2547713165767528E-2</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD12">
-        <v>9.764364422569162E-2</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH12">
-        <v>0.33632064062675737</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK12">
-        <v>0.40439611291068939</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="AE25">
+        <v>2.0959220056360785E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s">
         <v>169</v>
       </c>
-      <c r="J13">
-        <v>1.2744997819071709E-2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13" t="s">
-        <v>169</v>
-      </c>
-      <c r="O13">
-        <v>2.0061122687877575E-2</v>
-      </c>
-      <c r="P13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" t="s">
-        <v>146</v>
-      </c>
-      <c r="S13" t="s">
-        <v>169</v>
-      </c>
-      <c r="T13">
-        <v>1.8540853079282008E-2</v>
-      </c>
-      <c r="U13" t="s">
-        <v>137</v>
-      </c>
-      <c r="W13">
-        <v>2.0776255707762557E-2</v>
-      </c>
-      <c r="X13">
-        <v>3.5896543437005365E-2</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD13">
-        <v>2.2218061012861254E-2</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH13">
-        <v>0.16828062521923326</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK13">
-        <v>0.30301943544655247</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="AE26">
+        <v>0.11632010738895902</v>
+      </c>
+    </row>
+    <row r="27" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s">
         <v>170</v>
       </c>
-      <c r="J14">
-        <v>0.25838474206722706</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14">
-        <v>0.14904848550067187</v>
-      </c>
-      <c r="P14" t="s">
-        <v>137</v>
-      </c>
-      <c r="R14" t="s">
-        <v>146</v>
-      </c>
-      <c r="S14" t="s">
-        <v>170</v>
-      </c>
-      <c r="T14">
-        <v>0.13990776695821097</v>
-      </c>
-      <c r="U14" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="X14">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD14">
-        <v>0.12251447003662695</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH14">
-        <v>0.19174320375688136</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK14">
-        <v>0.26702915316982873</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="H15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="AE27">
+        <v>0.11447441211196349</v>
+      </c>
+    </row>
+    <row r="28" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s">
         <v>171</v>
       </c>
-      <c r="J15">
-        <v>3.3105948694450689E-3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15">
-        <v>0.1425689183623626</v>
-      </c>
-      <c r="P15" t="s">
-        <v>137</v>
-      </c>
-      <c r="R15" t="s">
-        <v>146</v>
-      </c>
-      <c r="S15" t="s">
-        <v>171</v>
-      </c>
-      <c r="T15">
-        <v>0.14899437241819788</v>
-      </c>
-      <c r="U15" t="s">
-        <v>137</v>
-      </c>
-      <c r="W15">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="X15">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD15">
-        <v>9.9430561690573876E-2</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH15">
-        <v>0.37712195612715815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="AE28">
+        <v>2.1204273083676676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="s">
         <v>172</v>
       </c>
-      <c r="J16">
-        <v>3.0691267184700395E-2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" t="s">
-        <v>145</v>
-      </c>
-      <c r="N16" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16">
-        <v>2.8818897827592432E-2</v>
-      </c>
-      <c r="P16" t="s">
-        <v>137</v>
-      </c>
-      <c r="R16" t="s">
-        <v>146</v>
-      </c>
-      <c r="S16" t="s">
-        <v>172</v>
-      </c>
-      <c r="T16">
-        <v>2.7122130054051344E-2</v>
-      </c>
-      <c r="U16" t="s">
-        <v>137</v>
-      </c>
-      <c r="W16">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="X16">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD16">
-        <v>2.2965271391870858E-2</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH16">
-        <v>0.1680616153557668</v>
-      </c>
-    </row>
-    <row r="17" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="AE29">
+        <v>0.11630400514669803</v>
+      </c>
+    </row>
+    <row r="30" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD30" t="s">
         <v>173</v>
       </c>
-      <c r="J17">
-        <v>0.29948444185308731</v>
-      </c>
-      <c r="K17" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" t="s">
-        <v>145</v>
-      </c>
-      <c r="N17" t="s">
-        <v>173</v>
-      </c>
-      <c r="O17">
-        <v>7.5144634691264436E-2</v>
-      </c>
-      <c r="P17" t="s">
-        <v>137</v>
-      </c>
-      <c r="R17" t="s">
-        <v>146</v>
-      </c>
-      <c r="S17" t="s">
-        <v>173</v>
-      </c>
-      <c r="T17">
-        <v>6.8511894999283909E-2</v>
-      </c>
-      <c r="U17" t="s">
-        <v>137</v>
-      </c>
-      <c r="W17">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="X17">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD17">
-        <v>0.12264326156561349</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH17">
-        <v>0.14769495408386679</v>
-      </c>
-    </row>
-    <row r="18" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="AE30">
+        <v>0.11452983114371207</v>
+      </c>
+    </row>
+    <row r="31" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s">
         <v>174</v>
       </c>
-      <c r="J18">
-        <v>9.4162079174879981E-3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" t="s">
-        <v>145</v>
-      </c>
-      <c r="N18" t="s">
-        <v>174</v>
-      </c>
-      <c r="O18">
-        <v>6.846541783195341E-2</v>
-      </c>
-      <c r="P18" t="s">
-        <v>137</v>
-      </c>
-      <c r="R18" t="s">
-        <v>146</v>
-      </c>
-      <c r="S18" t="s">
-        <v>174</v>
-      </c>
-      <c r="T18">
-        <v>7.3165268177176404E-2</v>
-      </c>
-      <c r="U18" t="s">
-        <v>137</v>
-      </c>
-      <c r="W18">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="X18">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD18">
-        <v>0.10045386194730507</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH18">
-        <v>0.31451538907064003</v>
-      </c>
-    </row>
-    <row r="19" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="AE31">
+        <v>2.1171216837340218E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:35" x14ac:dyDescent="0.45">
+      <c r="AC32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD32" t="s">
         <v>175</v>
       </c>
-      <c r="J19">
-        <v>3.8021106530569837E-2</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" t="s">
-        <v>175</v>
-      </c>
-      <c r="O19">
-        <v>1.5303222790190243E-2</v>
-      </c>
-      <c r="P19" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" t="s">
-        <v>146</v>
-      </c>
-      <c r="S19" t="s">
-        <v>175</v>
-      </c>
-      <c r="T19">
-        <v>1.532870077005929E-2</v>
-      </c>
-      <c r="U19" t="s">
-        <v>137</v>
-      </c>
-      <c r="W19">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="X19">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD19">
-        <v>2.2611873364752143E-2</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH19">
-        <v>0.1070148299237299</v>
-      </c>
-    </row>
-    <row r="20" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="AE32">
+        <v>0.11416318349107028</v>
+      </c>
+    </row>
+    <row r="33" spans="29:31" x14ac:dyDescent="0.45">
+      <c r="AC33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD33" t="s">
         <v>176</v>
       </c>
-      <c r="J20">
-        <v>0.14688613298083877</v>
-      </c>
-      <c r="K20" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N20" t="s">
-        <v>176</v>
-      </c>
-      <c r="O20">
-        <v>0.1353111009554451</v>
-      </c>
-      <c r="P20" t="s">
-        <v>137</v>
-      </c>
-      <c r="R20" t="s">
-        <v>146</v>
-      </c>
-      <c r="S20" t="s">
-        <v>176</v>
-      </c>
-      <c r="T20">
-        <v>0.14132794813818267</v>
-      </c>
-      <c r="U20" t="s">
-        <v>137</v>
-      </c>
-      <c r="W20">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="X20">
-        <v>0.15910300077070333</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD20">
-        <v>0.13762287724714475</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH20">
-        <v>0.10814855721490635</v>
-      </c>
-    </row>
-    <row r="21" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="AE33">
+        <v>0.11172198474672497</v>
+      </c>
+    </row>
+    <row r="34" spans="29:31" x14ac:dyDescent="0.45">
+      <c r="AC34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD34" t="s">
         <v>177</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21" t="s">
-        <v>177</v>
-      </c>
-      <c r="O21">
-        <v>0.13382477085889041</v>
-      </c>
-      <c r="P21" t="s">
-        <v>137</v>
-      </c>
-      <c r="R21" t="s">
-        <v>146</v>
-      </c>
-      <c r="S21" t="s">
-        <v>177</v>
-      </c>
-      <c r="T21">
-        <v>0.13886151961176466</v>
-      </c>
-      <c r="U21" t="s">
-        <v>137</v>
-      </c>
-      <c r="W21">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="X21">
-        <v>5.197026576834151E-2</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD21">
-        <v>0.10709107236508457</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH21">
-        <v>0.30643668094329723</v>
-      </c>
-    </row>
-    <row r="22" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J22">
-        <v>6.6926713348765317E-3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" t="s">
-        <v>145</v>
-      </c>
-      <c r="N22" t="s">
-        <v>178</v>
-      </c>
-      <c r="O22">
-        <v>2.4841757964468962E-2</v>
-      </c>
-      <c r="P22" t="s">
-        <v>137</v>
-      </c>
-      <c r="R22" t="s">
-        <v>146</v>
-      </c>
-      <c r="S22" t="s">
-        <v>178</v>
-      </c>
-      <c r="T22">
-        <v>2.5667623562496359E-2</v>
-      </c>
-      <c r="U22" t="s">
-        <v>137</v>
-      </c>
-      <c r="W22">
-        <v>2.0547945205479451E-2</v>
-      </c>
-      <c r="X22">
-        <v>3.5502075926708607E-2</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD22">
-        <v>2.6613888899099897E-2</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH22">
-        <v>5.2768244206291559E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD23">
-        <v>0.11495523261944324</v>
-      </c>
-    </row>
-    <row r="24" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD24">
-        <v>0.11331233725982839</v>
-      </c>
-    </row>
-    <row r="25" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD25">
-        <v>2.0959220056360785E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD26">
-        <v>0.11632010738895902</v>
-      </c>
-    </row>
-    <row r="27" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD27">
-        <v>0.11447441211196349</v>
-      </c>
-    </row>
-    <row r="28" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD28">
-        <v>2.1204273083676676E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD29">
-        <v>0.11630400514669803</v>
-      </c>
-    </row>
-    <row r="30" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB30" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD30">
-        <v>0.11452983114371207</v>
-      </c>
-    </row>
-    <row r="31" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD31">
-        <v>2.1171216837340218E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="8:34" x14ac:dyDescent="0.45">
-      <c r="AB32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD32">
-        <v>0.11416318349107028</v>
-      </c>
-    </row>
-    <row r="33" spans="28:30" x14ac:dyDescent="0.45">
-      <c r="AB33" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD33">
-        <v>0.11172198474672497</v>
-      </c>
-    </row>
-    <row r="34" spans="28:30" x14ac:dyDescent="0.45">
-      <c r="AB34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>2.0884196114222889E-2</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD9CB76-FD66-472C-A52C-ACD883E4FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1739EFA0-7A2B-4DE3-90F0-FFC9FD590409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="178">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -396,9 +396,6 @@
     <t xml:space="preserve"> Pipeline gas, Mediterranean pellet imports </t>
   </si>
   <si>
-    <t>~TimeSlices</t>
-  </si>
-  <si>
     <t>season</t>
   </si>
   <si>
@@ -436,9 +433,6 @@
   </si>
   <si>
     <t>H4</t>
-  </si>
-  <si>
-    <t>DeActivated</t>
   </si>
   <si>
     <t>timeslice</t>
@@ -498,7 +492,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>S2aH4,S1aH4,S2aH1,S1aH1</t>
+    <t>S2aH1,S2aH4,S1aH1,S1aH4</t>
   </si>
   <si>
     <t>com_pkflx</t>
@@ -576,10 +570,10 @@
     <t>WaP</t>
   </si>
   <si>
-    <t>WaD,RaD,RaP,FaP,SaP,WaP,SaD,FaD</t>
+    <t>SaD,FaP,SaP,WaD,RaD,FaD,RaP,WaP</t>
   </si>
   <si>
-    <t>FaN,RaN,SaN,WaN,FaP,SaP,RaP,WaP</t>
+    <t>FaP,SaP,SaN,WaN,FaN,RaP,RaN,WaP</t>
   </si>
 </sst>
 </file>
@@ -22643,19 +22637,19 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
         <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
         <v>114</v>
@@ -22664,43 +22658,43 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.45">
@@ -22819,7 +22813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA1FE24-0B17-42C9-B2A1-26AC6C2D3344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B62CA4-2A46-4C01-897C-38824CB8E3E1}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,29 +22821,37 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="9" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" t="s">
-        <v>132</v>
-      </c>
-      <c r="X9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>132</v>
+      <c r="C9" t="str">
+        <f>IF(A11="x","DeActivated","~TimeSlices")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="S9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="X9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AC9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AG9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AK9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_INS-AT")</f>
+        <v>DeActivated</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.45">
@@ -22857,28 +22859,28 @@
         <v>108</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>121</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
         <v>31</v>
@@ -22887,10 +22889,10 @@
         <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
@@ -22899,22 +22901,22 @@
         <v>14</v>
       </c>
       <c r="T10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V10" t="s">
         <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Z10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AA10" t="s">
         <v>14</v>
@@ -22923,28 +22925,28 @@
         <v>14</v>
       </c>
       <c r="AD10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
         <v>14</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AI10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM10" t="s">
         <v>153</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -22953,55 +22955,55 @@
         <v>x</v>
       </c>
       <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
         <v>124</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>125</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>126</v>
       </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11">
         <v>5.494129233392326E-2</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P11">
         <v>0.26073447921315601</v>
       </c>
       <c r="Q11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U11">
         <v>0.27463091742222551</v>
       </c>
       <c r="V11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X11">
         <v>0.27762557077625571</v>
@@ -23010,7 +23012,7 @@
         <v>0.15387812942843648</v>
       </c>
       <c r="Z11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA11" t="s">
         <v>26</v>
@@ -23019,7 +23021,7 @@
         <v>23</v>
       </c>
       <c r="AD11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AE11">
         <v>0.2313419026170857</v>
@@ -23028,66 +23030,66 @@
         <v>99</v>
       </c>
       <c r="AH11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AI11">
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL11">
         <v>0.16266774641369736</v>
       </c>
       <c r="AM11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
         <v>128</v>
       </c>
-      <c r="E12" t="s">
-        <v>129</v>
-      </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K12">
         <v>6.1887757755837457E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P12">
         <v>3.1242262740711402E-2</v>
       </c>
       <c r="Q12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U12">
         <v>3.2992217990046896E-2</v>
       </c>
       <c r="V12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X12">
         <v>3.4703196347031964E-2</v>
@@ -23096,7 +23098,7 @@
         <v>4.4339474098567179E-2</v>
       </c>
       <c r="Z12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AA12" t="s">
         <v>26</v>
@@ -23105,7 +23107,7 @@
         <v>23</v>
       </c>
       <c r="AD12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AE12">
         <v>3.7992871294534346E-2</v>
@@ -23114,63 +23116,63 @@
         <v>99</v>
       </c>
       <c r="AH12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AI12">
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL12">
         <v>1.0373322535863025</v>
       </c>
       <c r="AM12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K13">
         <v>0.69268101163307605</v>
       </c>
       <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
         <v>137</v>
-      </c>
-      <c r="N13" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" t="s">
-        <v>139</v>
       </c>
       <c r="P13">
         <v>0.29027872858556963</v>
       </c>
       <c r="Q13" t="s">
+        <v>135</v>
+      </c>
+      <c r="S13" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" t="s">
         <v>137</v>
-      </c>
-      <c r="S13" t="s">
-        <v>146</v>
-      </c>
-      <c r="T13" t="s">
-        <v>139</v>
       </c>
       <c r="U13">
         <v>0.27254417104690487</v>
       </c>
       <c r="V13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X13">
         <v>0.27762557077625571</v>
@@ -23179,7 +23181,7 @@
         <v>0.3837379940166904</v>
       </c>
       <c r="Z13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA13" t="s">
         <v>26</v>
@@ -23188,7 +23190,7 @@
         <v>23</v>
       </c>
       <c r="AD13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE13">
         <v>0.30694765460925511</v>
@@ -23197,7 +23199,7 @@
         <v>99</v>
       </c>
       <c r="AH13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AI13">
         <v>0.19801264323379142</v>
@@ -23205,46 +23207,46 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14">
         <v>9.7787453472504768E-2</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P14">
         <v>0.24342285181757803</v>
       </c>
       <c r="Q14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U14">
         <v>0.25011876183276338</v>
       </c>
       <c r="V14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X14">
         <v>0.24292237442922374</v>
@@ -23253,7 +23255,7 @@
         <v>0.25092111478507323</v>
       </c>
       <c r="Z14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA14" t="s">
         <v>26</v>
@@ -23262,7 +23264,7 @@
         <v>23</v>
       </c>
       <c r="AD14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE14">
         <v>0.2497015680449729</v>
@@ -23271,7 +23273,7 @@
         <v>99</v>
       </c>
       <c r="AH14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AI14">
         <v>0.27107344605999706</v>
@@ -23279,40 +23281,40 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K15">
         <v>4.896936097582037E-4</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P15">
         <v>5.8072729744006978E-2</v>
       </c>
       <c r="Q15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U15">
         <v>5.8167440438757136E-2</v>
       </c>
       <c r="V15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X15">
         <v>5.5707762557077628E-2</v>
@@ -23321,7 +23323,7 @@
         <v>3.0876861497153366E-2</v>
       </c>
       <c r="Z15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA15" t="s">
         <v>26</v>
@@ -23330,7 +23332,7 @@
         <v>23</v>
       </c>
       <c r="AD15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AE15">
         <v>4.8303646907925109E-2</v>
@@ -23339,7 +23341,7 @@
         <v>99</v>
       </c>
       <c r="AH15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AI15">
         <v>0.33115646790490216</v>
@@ -23347,40 +23349,40 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K16">
         <v>4.8235789482883535E-3</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P16">
         <v>7.120478132112207E-3</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U16">
         <v>6.7986277207287031E-3</v>
       </c>
       <c r="V16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X16">
         <v>6.9634703196347035E-3</v>
@@ -23389,7 +23391,7 @@
         <v>8.8970655263572278E-3</v>
       </c>
       <c r="Z16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="s">
         <v>26</v>
@@ -23398,7 +23400,7 @@
         <v>23</v>
       </c>
       <c r="AD16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE16">
         <v>7.9985661615229135E-3</v>
@@ -23407,7 +23409,7 @@
         <v>99</v>
       </c>
       <c r="AH16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI16">
         <v>0.10528395697637927</v>
@@ -23415,40 +23417,40 @@
     </row>
     <row r="17" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K17">
         <v>8.5702982161334179E-2</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P17">
         <v>5.8809210602448606E-2</v>
       </c>
       <c r="Q17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U17">
         <v>5.3564233598422953E-2</v>
       </c>
       <c r="V17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X17">
         <v>5.5707762557077628E-2</v>
@@ -23457,7 +23459,7 @@
         <v>7.7000058009927999E-2</v>
       </c>
       <c r="Z17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA17" t="s">
         <v>26</v>
@@ -23466,7 +23468,7 @@
         <v>23</v>
       </c>
       <c r="AD17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE17">
         <v>6.4256093433203029E-2</v>
@@ -23475,7 +23477,7 @@
         <v>99</v>
       </c>
       <c r="AH17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI17">
         <v>0.1139698900628332</v>
@@ -23483,40 +23485,40 @@
     </row>
     <row r="18" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K18">
         <v>1.6862300850866115E-3</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P18">
         <v>5.0319259164211566E-2</v>
       </c>
       <c r="Q18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U18">
         <v>5.1183629949946789E-2</v>
       </c>
       <c r="V18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X18">
         <v>4.8744292237442921E-2</v>
@@ -23525,7 +23527,7 @@
         <v>5.0349302637794295E-2</v>
       </c>
       <c r="Z18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA18" t="s">
         <v>26</v>
@@ -23534,7 +23536,7 @@
         <v>23</v>
       </c>
       <c r="AD18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE18">
         <v>5.3457696931500959E-2</v>
@@ -23543,7 +23545,7 @@
         <v>99</v>
       </c>
       <c r="AH18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI18">
         <v>0.18212079901465139</v>
@@ -23554,7 +23556,7 @@
         <v>20</v>
       </c>
       <c r="AD19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AE19">
         <v>0.27409061223624648</v>
@@ -23565,7 +23567,7 @@
         <v>20</v>
       </c>
       <c r="AD20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AE20">
         <v>3.4986937233220237E-2</v>
@@ -23576,7 +23578,7 @@
         <v>20</v>
       </c>
       <c r="AD21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE21">
         <v>0.28013574017878146</v>
@@ -23587,7 +23589,7 @@
         <v>20</v>
       </c>
       <c r="AD22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE22">
         <v>0.24360939428227799</v>
@@ -23598,7 +23600,7 @@
         <v>20</v>
       </c>
       <c r="AD23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AE23">
         <v>5.4950064605738376E-2</v>
@@ -23609,7 +23611,7 @@
         <v>20</v>
       </c>
       <c r="AD24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE24">
         <v>7.0255204884274343E-3</v>
@@ -23620,7 +23622,7 @@
         <v>20</v>
       </c>
       <c r="AD25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE25">
         <v>5.6225557246189072E-2</v>
@@ -23631,7 +23633,7 @@
         <v>20</v>
       </c>
       <c r="AD26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE26">
         <v>4.8976173729118958E-2</v>
@@ -23643,7 +23645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFF4B1-8112-4665-8AF4-07166DDBF958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99FEB8-76EC-4337-BDB5-F20EAAA499A2}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23651,29 +23653,37 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="9" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" t="s">
-        <v>132</v>
-      </c>
-      <c r="X9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>132</v>
+      <c r="C9" t="str">
+        <f>IF(A11="x","DeActivated","~TimeSlices")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="S9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="X9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AC9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AG9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AK9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_INS-AT")</f>
+        <v>DeActivated</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.45">
@@ -23681,28 +23691,28 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>121</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
         <v>31</v>
@@ -23711,10 +23721,10 @@
         <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
@@ -23723,22 +23733,22 @@
         <v>14</v>
       </c>
       <c r="T10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V10" t="s">
         <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Z10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AA10" t="s">
         <v>14</v>
@@ -23747,28 +23757,28 @@
         <v>14</v>
       </c>
       <c r="AD10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
         <v>14</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AI10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM10" t="s">
         <v>153</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -23777,55 +23787,55 @@
         <v>x</v>
       </c>
       <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
         <v>157</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" t="s">
-        <v>159</v>
       </c>
       <c r="K11">
         <v>0.99999999999980893</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P11">
         <v>0.99999999999979439</v>
       </c>
       <c r="Q11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U11">
         <v>0.99999999999979616</v>
       </c>
       <c r="V11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -23834,7 +23844,7 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="Z11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AA11" t="s">
         <v>26</v>
@@ -23843,7 +23853,7 @@
         <v>23</v>
       </c>
       <c r="AD11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -23852,19 +23862,19 @@
         <v>99</v>
       </c>
       <c r="AH11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AI11">
         <v>0.29960038929139898</v>
       </c>
       <c r="AK11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL11">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="AM11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -23872,7 +23882,7 @@
         <v>20</v>
       </c>
       <c r="AD12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -23884,7 +23894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9170D2-33C6-4922-B34E-2205BAA8A701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF841B-EC1D-46A1-9495-507A297283F4}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -23892,29 +23902,37 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="9" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" t="s">
-        <v>132</v>
-      </c>
-      <c r="X9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>132</v>
+      <c r="C9" t="str">
+        <f>IF(A11="x","DeActivated","~TimeSlices")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="S9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="X9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AC9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AG9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
+        <v>DeActivated</v>
+      </c>
+      <c r="AK9" t="str">
+        <f>IF(A11="x","DeActivated","~TFM_INS-AT")</f>
+        <v>DeActivated</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.45">
@@ -23922,28 +23940,28 @@
         <v>114</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>121</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
         <v>31</v>
@@ -23952,10 +23970,10 @@
         <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
@@ -23964,22 +23982,22 @@
         <v>14</v>
       </c>
       <c r="T10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V10" t="s">
         <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Z10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AA10" t="s">
         <v>14</v>
@@ -23988,28 +24006,28 @@
         <v>14</v>
       </c>
       <c r="AD10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
         <v>14</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AI10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM10" t="s">
         <v>153</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -24018,55 +24036,55 @@
         <v>x</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K11">
         <v>0.19429881101052746</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P11">
         <v>0.10520441806812357</v>
       </c>
       <c r="Q11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U11">
         <v>9.7172680668432682E-2</v>
       </c>
       <c r="V11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X11">
         <v>0.11426940639269406</v>
@@ -24075,7 +24093,7 @@
         <v>0.16087081189037786</v>
       </c>
       <c r="Z11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AA11" t="s">
         <v>26</v>
@@ -24084,7 +24102,7 @@
         <v>23</v>
       </c>
       <c r="AD11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE11">
         <v>0.11819115625337555</v>
@@ -24093,66 +24111,66 @@
         <v>99</v>
       </c>
       <c r="AH11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AI11">
         <v>0.18444393583567309</v>
       </c>
       <c r="AK11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AL11">
-        <v>0.22555529847292916</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="AM11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K12">
         <v>6.9026431976756313E-5</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P12">
         <v>0.10140725246095379</v>
       </c>
       <c r="Q12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U12">
         <v>0.10539924156265808</v>
       </c>
       <c r="V12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X12">
         <v>0.11426940639269406</v>
@@ -24161,7 +24179,7 @@
         <v>5.2547713165767528E-2</v>
       </c>
       <c r="Z12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s">
         <v>26</v>
@@ -24170,7 +24188,7 @@
         <v>23</v>
       </c>
       <c r="AD12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE12">
         <v>9.764364422569162E-2</v>
@@ -24179,66 +24197,66 @@
         <v>99</v>
       </c>
       <c r="AH12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI12">
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AL12">
-        <v>0.40439611291068944</v>
+        <v>0.30301943544655247</v>
       </c>
       <c r="AM12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K13">
         <v>1.2744997819071709E-2</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P13">
         <v>2.0061122687877575E-2</v>
       </c>
       <c r="Q13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U13">
         <v>1.8540853079282008E-2</v>
       </c>
       <c r="V13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X13">
         <v>2.0776255707762557E-2</v>
@@ -24247,7 +24265,7 @@
         <v>3.5896543437005365E-2</v>
       </c>
       <c r="Z13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s">
         <v>26</v>
@@ -24256,7 +24274,7 @@
         <v>23</v>
       </c>
       <c r="AD13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AE13">
         <v>2.2218061012861254E-2</v>
@@ -24265,60 +24283,60 @@
         <v>99</v>
       </c>
       <c r="AH13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AI13">
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AL13">
-        <v>0.26702915316982878</v>
+        <v>0.26702915316982873</v>
       </c>
       <c r="AM13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K14">
         <v>0.25838474206722706</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P14">
         <v>0.14904848550067187</v>
       </c>
       <c r="Q14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U14">
         <v>0.13990776695821097</v>
       </c>
       <c r="V14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X14">
         <v>0.11552511415525114</v>
@@ -24327,7 +24345,7 @@
         <v>0.16263862301005233</v>
       </c>
       <c r="Z14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s">
         <v>26</v>
@@ -24336,7 +24354,7 @@
         <v>23</v>
       </c>
       <c r="AD14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE14">
         <v>0.12251447003662695</v>
@@ -24345,57 +24363,57 @@
         <v>99</v>
       </c>
       <c r="AH14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AI14">
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL14">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292913</v>
       </c>
       <c r="AM14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K15">
         <v>3.3105948694450689E-3</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P15">
         <v>0.1425689183623626</v>
       </c>
       <c r="Q15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U15">
         <v>0.14899437241819788</v>
       </c>
       <c r="V15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X15">
         <v>0.11552511415525114</v>
@@ -24404,7 +24422,7 @@
         <v>5.3125160563193538E-2</v>
       </c>
       <c r="Z15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s">
         <v>26</v>
@@ -24413,7 +24431,7 @@
         <v>23</v>
       </c>
       <c r="AD15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AE15">
         <v>9.9430561690573876E-2</v>
@@ -24422,7 +24440,7 @@
         <v>99</v>
       </c>
       <c r="AH15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI15">
         <v>0.37712195612715815</v>
@@ -24430,40 +24448,40 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K16">
         <v>3.0691267184700395E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P16">
         <v>2.8818897827592432E-2</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U16">
         <v>2.7122130054051344E-2</v>
       </c>
       <c r="V16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X16">
         <v>2.1004566210045664E-2</v>
@@ -24472,7 +24490,7 @@
         <v>3.6291010947302131E-2</v>
       </c>
       <c r="Z16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA16" t="s">
         <v>26</v>
@@ -24481,7 +24499,7 @@
         <v>23</v>
       </c>
       <c r="AD16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AE16">
         <v>2.2965271391870858E-2</v>
@@ -24490,7 +24508,7 @@
         <v>99</v>
       </c>
       <c r="AH16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AI16">
         <v>0.1680616153557668</v>
@@ -24498,40 +24516,40 @@
     </row>
     <row r="17" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K17">
         <v>0.29948444185308731</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P17">
         <v>7.5144634691264436E-2</v>
       </c>
       <c r="Q17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U17">
         <v>6.8511894999283909E-2</v>
       </c>
       <c r="V17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X17">
         <v>0.11552511415525114</v>
@@ -24540,7 +24558,7 @@
         <v>0.16263862301005233</v>
       </c>
       <c r="Z17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA17" t="s">
         <v>26</v>
@@ -24549,7 +24567,7 @@
         <v>23</v>
       </c>
       <c r="AD17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AE17">
         <v>0.12264326156561349</v>
@@ -24558,7 +24576,7 @@
         <v>99</v>
       </c>
       <c r="AH17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AI17">
         <v>0.14769495408386679</v>
@@ -24566,40 +24584,40 @@
     </row>
     <row r="18" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K18">
         <v>9.4162079174879981E-3</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P18">
         <v>6.846541783195341E-2</v>
       </c>
       <c r="Q18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U18">
         <v>7.3165268177176404E-2</v>
       </c>
       <c r="V18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X18">
         <v>0.11552511415525114</v>
@@ -24608,7 +24626,7 @@
         <v>5.3125160563193538E-2</v>
       </c>
       <c r="Z18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AA18" t="s">
         <v>26</v>
@@ -24617,7 +24635,7 @@
         <v>23</v>
       </c>
       <c r="AD18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AE18">
         <v>0.10045386194730507</v>
@@ -24626,7 +24644,7 @@
         <v>99</v>
       </c>
       <c r="AH18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI18">
         <v>0.31451538907064003</v>
@@ -24634,40 +24652,40 @@
     </row>
     <row r="19" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K19">
         <v>3.8021106530569837E-2</v>
       </c>
       <c r="L19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P19">
         <v>1.5303222790190243E-2</v>
       </c>
       <c r="Q19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U19">
         <v>1.532870077005929E-2</v>
       </c>
       <c r="V19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X19">
         <v>2.1004566210045664E-2</v>
@@ -24676,7 +24694,7 @@
         <v>3.6291010947302131E-2</v>
       </c>
       <c r="Z19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA19" t="s">
         <v>26</v>
@@ -24685,7 +24703,7 @@
         <v>23</v>
       </c>
       <c r="AD19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AE19">
         <v>2.2611873364752143E-2</v>
@@ -24694,7 +24712,7 @@
         <v>99</v>
       </c>
       <c r="AH19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AI19">
         <v>0.1070148299237299</v>
@@ -24702,40 +24720,40 @@
     </row>
     <row r="20" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K20">
         <v>0.14688613298083877</v>
       </c>
       <c r="L20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P20">
         <v>0.1353111009554451</v>
       </c>
       <c r="Q20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U20">
         <v>0.14132794813818267</v>
       </c>
       <c r="V20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X20">
         <v>0.11301369863013698</v>
@@ -24744,7 +24762,7 @@
         <v>0.15910300077070333</v>
       </c>
       <c r="Z20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA20" t="s">
         <v>26</v>
@@ -24753,7 +24771,7 @@
         <v>23</v>
       </c>
       <c r="AD20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AE20">
         <v>0.13762287724714475</v>
@@ -24762,7 +24780,7 @@
         <v>99</v>
       </c>
       <c r="AH20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AI20">
         <v>0.10814855721490635</v>
@@ -24770,40 +24788,40 @@
     </row>
     <row r="21" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P21">
         <v>0.13382477085889041</v>
       </c>
       <c r="Q21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U21">
         <v>0.13886151961176466</v>
       </c>
       <c r="V21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X21">
         <v>0.11301369863013698</v>
@@ -24812,7 +24830,7 @@
         <v>5.197026576834151E-2</v>
       </c>
       <c r="Z21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA21" t="s">
         <v>26</v>
@@ -24821,7 +24839,7 @@
         <v>23</v>
       </c>
       <c r="AD21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AE21">
         <v>0.10709107236508457</v>
@@ -24830,7 +24848,7 @@
         <v>99</v>
       </c>
       <c r="AH21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AI21">
         <v>0.30643668094329723</v>
@@ -24838,40 +24856,40 @@
     </row>
     <row r="22" spans="9:35" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K22">
         <v>6.6926713348765317E-3</v>
       </c>
       <c r="L22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P22">
         <v>2.4841757964468962E-2</v>
       </c>
       <c r="Q22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U22">
         <v>2.5667623562496359E-2</v>
       </c>
       <c r="V22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X22">
         <v>2.0547945205479451E-2</v>
@@ -24880,7 +24898,7 @@
         <v>3.5502075926708607E-2</v>
       </c>
       <c r="Z22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA22" t="s">
         <v>26</v>
@@ -24889,7 +24907,7 @@
         <v>23</v>
       </c>
       <c r="AD22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE22">
         <v>2.6613888899099897E-2</v>
@@ -24898,7 +24916,7 @@
         <v>99</v>
       </c>
       <c r="AH22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AI22">
         <v>5.2768244206291559E-2</v>
@@ -24909,7 +24927,7 @@
         <v>20</v>
       </c>
       <c r="AD23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE23">
         <v>0.11495523261944324</v>
@@ -24920,7 +24938,7 @@
         <v>20</v>
       </c>
       <c r="AD24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE24">
         <v>0.11331233725982839</v>
@@ -24931,7 +24949,7 @@
         <v>20</v>
       </c>
       <c r="AD25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AE25">
         <v>2.0959220056360785E-2</v>
@@ -24942,7 +24960,7 @@
         <v>20</v>
       </c>
       <c r="AD26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE26">
         <v>0.11632010738895902</v>
@@ -24953,7 +24971,7 @@
         <v>20</v>
       </c>
       <c r="AD27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AE27">
         <v>0.11447441211196349</v>
@@ -24964,7 +24982,7 @@
         <v>20</v>
       </c>
       <c r="AD28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AE28">
         <v>2.1204273083676676E-2</v>
@@ -24975,7 +24993,7 @@
         <v>20</v>
       </c>
       <c r="AD29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AE29">
         <v>0.11630400514669803</v>
@@ -24986,7 +25004,7 @@
         <v>20</v>
       </c>
       <c r="AD30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AE30">
         <v>0.11452983114371207</v>
@@ -24997,7 +25015,7 @@
         <v>20</v>
       </c>
       <c r="AD31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AE31">
         <v>2.1171216837340218E-2</v>
@@ -25008,7 +25026,7 @@
         <v>20</v>
       </c>
       <c r="AD32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AE32">
         <v>0.11416318349107028</v>
@@ -25019,7 +25037,7 @@
         <v>20</v>
       </c>
       <c r="AD33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AE33">
         <v>0.11172198474672497</v>
@@ -25030,7 +25048,7 @@
         <v>20</v>
       </c>
       <c r="AD34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE34">
         <v>2.0884196114222889E-2</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1739EFA0-7A2B-4DE3-90F0-FFC9FD590409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3189833-193F-4832-BAEB-4FAFAB60B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="178">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -486,13 +486,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S1aH2,S2aH3,S2aH2</t>
+    <t>S2aH2,S1aH3,S1aH2,S2aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH1,S2aH4,S1aH1,S1aH4</t>
+    <t>S2aH4,S2aH1,S1aH4,S1aH1</t>
   </si>
   <si>
     <t>com_pkflx</t>
@@ -570,10 +570,10 @@
     <t>WaP</t>
   </si>
   <si>
-    <t>SaD,FaP,SaP,WaD,RaD,FaD,RaP,WaP</t>
+    <t>WaP,RaD,SaD,FaP,SaP,WaD,FaD,RaP</t>
   </si>
   <si>
-    <t>FaP,SaP,SaN,WaN,FaN,RaP,RaN,WaP</t>
+    <t>SaN,WaN,RaN,FaP,SaP,FaN,RaP,WaP</t>
   </si>
 </sst>
 </file>
@@ -22628,13 +22628,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
-  <dimension ref="B10:M24"/>
+  <dimension ref="A10:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
         <v>146</v>
@@ -22655,7 +22660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
         <v>147</v>
@@ -22676,7 +22681,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
         <v>149</v>
@@ -22713,7 +22718,7 @@
     <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H21" s="13" t="str">
-        <f>IF(C11=C12,"Not Required!","~UC_T: LO")</f>
+        <f>IF(H23=H24,"Not Required!","~UC_T: LO")</f>
         <v>~UC_T: LO</v>
       </c>
     </row>
@@ -22764,8 +22769,8 @@
         <v>101</v>
       </c>
       <c r="H23" t="str">
-        <f>C12</f>
-        <v>N</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
+        <v>SaN,WaN,RaN,FaP,SaP,FaN,RaP,WaP</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -22796,8 +22801,8 @@
         <v>101</v>
       </c>
       <c r="H24" t="str">
-        <f>C11</f>
-        <v>D</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
+        <v>WaP,RaD,SaD,FaP,SaP,WaD,FaD,RaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -22813,7 +22818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B62CA4-2A46-4C01-897C-38824CB8E3E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9315C21-F3B1-43E2-AFCD-D88ADE499CCA}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22951,7 +22956,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
-        <f>IFERROR(IF(Veda!B5=ts12_clu!A10,"ok","x"),"")</f>
+        <f>IFERROR(IF(Veda!B5=A10,"ok","x"),"")</f>
         <v>x</v>
       </c>
       <c r="C11" t="s">
@@ -23645,7 +23650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99FEB8-76EC-4337-BDB5-F20EAAA499A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763FFFC8-6D60-4975-8B30-925646A8323C}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23783,7 +23788,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
-        <f>IFERROR(IF(Veda!B5=ts12_clu!A10,"ok","x"),"")</f>
+        <f>IFERROR(IF(Veda!B5=A10,"ok","x"),"")</f>
         <v>x</v>
       </c>
       <c r="C11" t="s">
@@ -23871,7 +23876,7 @@
         <v>155</v>
       </c>
       <c r="AL11">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="AM11" t="s">
         <v>154</v>
@@ -23894,7 +23899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF841B-EC1D-46A1-9495-507A297283F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D432C-539D-4B67-B559-A762B83AC117}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24032,7 +24037,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
-        <f>IFERROR(IF(Veda!B5=ts12_clu!A10,"ok","x"),"")</f>
+        <f>IFERROR(IF(Veda!B5=A10,"ok","x"),"")</f>
         <v>x</v>
       </c>
       <c r="C11" t="s">
@@ -24117,10 +24122,10 @@
         <v>0.18444393583567309</v>
       </c>
       <c r="AK11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL11">
-        <v>0.40439611291068944</v>
+        <v>0.30301943544655247</v>
       </c>
       <c r="AM11" t="s">
         <v>154</v>
@@ -24203,10 +24208,10 @@
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AL12">
-        <v>0.30301943544655247</v>
+        <v>0.22555529847292913</v>
       </c>
       <c r="AM12" t="s">
         <v>154</v>
@@ -24289,10 +24294,10 @@
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AL13">
-        <v>0.26702915316982873</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="AM13" t="s">
         <v>154</v>
@@ -24369,10 +24374,10 @@
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AL14">
-        <v>0.22555529847292913</v>
+        <v>0.26702915316982873</v>
       </c>
       <c r="AM14" t="s">
         <v>154</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3189833-193F-4832-BAEB-4FAFAB60B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE2E2AB-509B-404C-BB43-B6895824368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="178">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -492,7 +492,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>S2aH4,S2aH1,S1aH4,S1aH1</t>
+    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
   </si>
   <si>
     <t>com_pkflx</t>
@@ -570,10 +570,10 @@
     <t>WaP</t>
   </si>
   <si>
-    <t>WaP,RaD,SaD,FaP,SaP,WaD,FaD,RaP</t>
+    <t>WaD,RaD,RaP,SaD,WaP,FaP,SaP,FaD</t>
   </si>
   <si>
-    <t>SaN,WaN,RaN,FaP,SaP,FaN,RaP,WaP</t>
+    <t>SaN,WaN,FaN,WaP,FaP,SaP,RaN,RaP</t>
   </si>
 </sst>
 </file>
@@ -22637,8 +22637,9 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>114</v>
+      <c r="A10" t="str">
+        <f>IFERROR(Veda!B5,"ts_12")</f>
+        <v>s2_w</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
@@ -22717,9 +22718,9 @@
     </row>
     <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="13" t="e">
         <f>IF(H23=H24,"Not Required!","~UC_T: LO")</f>
-        <v>~UC_T: LO</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -22768,9 +22769,9 @@
       <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>SaN,WaN,RaN,FaP,SaP,FaN,RaP,WaP</v>
+        <v>#N/A</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -22800,9 +22801,9 @@
       <c r="G24" t="s">
         <v>101</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>WaP,RaD,SaD,FaP,SaP,WaD,FaD,RaP</v>
+        <v>#N/A</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -22818,7 +22819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9315C21-F3B1-43E2-AFCD-D88ADE499CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31AC8EF-7473-4BFA-9F26-3C8F0BA072C4}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23041,10 +23042,10 @@
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM11" t="s">
         <v>154</v>
@@ -23127,10 +23128,10 @@
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AL12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM12" t="s">
         <v>154</v>
@@ -23650,7 +23651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763FFFC8-6D60-4975-8B30-925646A8323C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E349D-6BCD-48A3-970E-559EDE80C677}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23899,7 +23900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D432C-539D-4B67-B559-A762B83AC117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A25ADD-72E6-4FAE-831B-9DCDE2FFD48B}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24122,10 +24123,10 @@
         <v>0.18444393583567309</v>
       </c>
       <c r="AK11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AL11">
-        <v>0.30301943544655247</v>
+        <v>0.22555529847292924</v>
       </c>
       <c r="AM11" t="s">
         <v>154</v>
@@ -24208,10 +24209,10 @@
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AL12">
-        <v>0.22555529847292913</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="AM12" t="s">
         <v>154</v>
@@ -24294,10 +24295,10 @@
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AL13">
-        <v>0.40439611291068944</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="AM13" t="s">
         <v>154</v>
@@ -24374,10 +24375,10 @@
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AL14">
-        <v>0.26702915316982873</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="AM14" t="s">
         <v>154</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE2E2AB-509B-404C-BB43-B6895824368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82B7A5-5098-4839-818D-D25B2A0B51BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="iea_data" sheetId="2" r:id="rId3"/>
     <sheet name="ar6_r10" sheetId="3" r:id="rId4"/>
     <sheet name="ev_charging_uc" sheetId="6" r:id="rId5"/>
-    <sheet name="ts12_clu" sheetId="7" r:id="rId6"/>
-    <sheet name="ts_annual" sheetId="8" r:id="rId7"/>
-    <sheet name="ts_12" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -394,186 +391,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Pipeline gas, Mediterranean pellet imports </t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>wparent</t>
-  </si>
-  <si>
-    <t>dparent</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>S1,S2</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>timeslice</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
-    <t>S1aH1</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>S1aH2</t>
-  </si>
-  <si>
-    <t>S1aH3</t>
-  </si>
-  <si>
-    <t>S1aH4</t>
-  </si>
-  <si>
-    <t>S2aH1</t>
-  </si>
-  <si>
-    <t>S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH3</t>
-  </si>
-  <si>
-    <t>S2aH4</t>
-  </si>
-  <si>
-    <t>elc_won-ITA</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>S2aH2,S1aH3,S1aH2,S2aH3</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>AllS</t>
-  </si>
-  <si>
-    <t>AllH</t>
-  </si>
-  <si>
-    <t>AllSaAllH</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>W,R,S,F</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>FaD</t>
-  </si>
-  <si>
-    <t>FaN</t>
-  </si>
-  <si>
-    <t>FaP</t>
-  </si>
-  <si>
-    <t>RaD</t>
-  </si>
-  <si>
-    <t>RaN</t>
-  </si>
-  <si>
-    <t>RaP</t>
-  </si>
-  <si>
-    <t>SaD</t>
-  </si>
-  <si>
-    <t>SaN</t>
-  </si>
-  <si>
-    <t>SaP</t>
-  </si>
-  <si>
-    <t>WaD</t>
-  </si>
-  <si>
-    <t>WaN</t>
-  </si>
-  <si>
-    <t>WaP</t>
-  </si>
-  <si>
-    <t>WaD,RaD,RaP,SaD,WaP,FaP,SaP,FaD</t>
-  </si>
-  <si>
-    <t>SaN,WaN,FaN,WaP,FaP,SaP,RaN,RaP</t>
   </si>
 </sst>
 </file>
@@ -22628,80 +22445,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
-  <dimension ref="A10:M24"/>
+  <dimension ref="B10:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="str">
-        <f>IFERROR(Veda!B5,"ts_12")</f>
-        <v>s2_w</v>
-      </c>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" t="s">
-        <v>177</v>
-      </c>
+      <c r="C12" s="15"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.45">
       <c r="I17" s="12">
@@ -22816,2251 +22578,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31AC8EF-7473-4BFA-9F26-3C8F0BA072C4}">
-  <dimension ref="A9:AM26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C9" t="str">
-        <f>IF(A11="x","DeActivated","~TimeSlices")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="I9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="N9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="S9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="X9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AC9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AG9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AK9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_INS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
-        <v>131</v>
-      </c>
-      <c r="P10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" t="s">
-        <v>131</v>
-      </c>
-      <c r="U10" t="s">
-        <v>132</v>
-      </c>
-      <c r="V10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A11" t="str">
-        <f>IFERROR(IF(Veda!B5=A10,"ok","x"),"")</f>
-        <v>x</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11">
-        <v>5.494129233392326E-2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="N11" t="s">
-        <v>143</v>
-      </c>
-      <c r="O11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11">
-        <v>0.26073447921315601</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" t="s">
-        <v>134</v>
-      </c>
-      <c r="U11">
-        <v>0.27463091742222551</v>
-      </c>
-      <c r="V11" t="s">
-        <v>135</v>
-      </c>
-      <c r="X11">
-        <v>0.27762557077625571</v>
-      </c>
-      <c r="Y11">
-        <v>0.15387812942843648</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE11">
-        <v>0.2313419026170857</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI11">
-        <v>0.39943788609404285</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL11">
-        <v>1.0373322535863025</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12">
-        <v>6.1887757755837457E-2</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" t="s">
-        <v>136</v>
-      </c>
-      <c r="P12">
-        <v>3.1242262740711402E-2</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>135</v>
-      </c>
-      <c r="S12" t="s">
-        <v>144</v>
-      </c>
-      <c r="T12" t="s">
-        <v>136</v>
-      </c>
-      <c r="U12">
-        <v>3.2992217990046896E-2</v>
-      </c>
-      <c r="V12" t="s">
-        <v>135</v>
-      </c>
-      <c r="X12">
-        <v>3.4703196347031964E-2</v>
-      </c>
-      <c r="Y12">
-        <v>4.4339474098567179E-2</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE12">
-        <v>3.7992871294534346E-2</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI12">
-        <v>0.16360291619848955</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL12">
-        <v>0.16266774641369736</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13">
-        <v>0.69268101163307605</v>
-      </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13">
-        <v>0.29027872858556963</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>135</v>
-      </c>
-      <c r="S13" t="s">
-        <v>144</v>
-      </c>
-      <c r="T13" t="s">
-        <v>137</v>
-      </c>
-      <c r="U13">
-        <v>0.27254417104690487</v>
-      </c>
-      <c r="V13" t="s">
-        <v>135</v>
-      </c>
-      <c r="X13">
-        <v>0.27762557077625571</v>
-      </c>
-      <c r="Y13">
-        <v>0.3837379940166904</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE13">
-        <v>0.30694765460925511</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI13">
-        <v>0.19801264323379142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="E14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14">
-        <v>9.7787453472504768E-2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" t="s">
-        <v>143</v>
-      </c>
-      <c r="O14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P14">
-        <v>0.24342285181757803</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>135</v>
-      </c>
-      <c r="S14" t="s">
-        <v>144</v>
-      </c>
-      <c r="T14" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14">
-        <v>0.25011876183276338</v>
-      </c>
-      <c r="V14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14">
-        <v>0.24292237442922374</v>
-      </c>
-      <c r="Y14">
-        <v>0.25092111478507323</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE14">
-        <v>0.2497015680449729</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI14">
-        <v>0.27107344605999706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="I15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15">
-        <v>4.896936097582037E-4</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
-      <c r="N15" t="s">
-        <v>143</v>
-      </c>
-      <c r="O15" t="s">
-        <v>139</v>
-      </c>
-      <c r="P15">
-        <v>5.8072729744006978E-2</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>135</v>
-      </c>
-      <c r="S15" t="s">
-        <v>144</v>
-      </c>
-      <c r="T15" t="s">
-        <v>139</v>
-      </c>
-      <c r="U15">
-        <v>5.8167440438757136E-2</v>
-      </c>
-      <c r="V15" t="s">
-        <v>135</v>
-      </c>
-      <c r="X15">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="Y15">
-        <v>3.0876861497153366E-2</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE15">
-        <v>4.8303646907925109E-2</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI15">
-        <v>0.33115646790490216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="I16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16">
-        <v>4.8235789482883535E-3</v>
-      </c>
-      <c r="L16" t="s">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O16" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16">
-        <v>7.120478132112207E-3</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>135</v>
-      </c>
-      <c r="S16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T16" t="s">
-        <v>140</v>
-      </c>
-      <c r="U16">
-        <v>6.7986277207287031E-3</v>
-      </c>
-      <c r="V16" t="s">
-        <v>135</v>
-      </c>
-      <c r="X16">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="Y16">
-        <v>8.8970655263572278E-3</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE16">
-        <v>7.9985661615229135E-3</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI16">
-        <v>0.10528395697637927</v>
-      </c>
-    </row>
-    <row r="17" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17">
-        <v>8.5702982161334179E-2</v>
-      </c>
-      <c r="L17" t="s">
-        <v>135</v>
-      </c>
-      <c r="N17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" t="s">
-        <v>141</v>
-      </c>
-      <c r="P17">
-        <v>5.8809210602448606E-2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>135</v>
-      </c>
-      <c r="S17" t="s">
-        <v>144</v>
-      </c>
-      <c r="T17" t="s">
-        <v>141</v>
-      </c>
-      <c r="U17">
-        <v>5.3564233598422953E-2</v>
-      </c>
-      <c r="V17" t="s">
-        <v>135</v>
-      </c>
-      <c r="X17">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="Y17">
-        <v>7.7000058009927999E-2</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE17">
-        <v>6.4256093433203029E-2</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI17">
-        <v>0.1139698900628332</v>
-      </c>
-    </row>
-    <row r="18" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18">
-        <v>1.6862300850866115E-3</v>
-      </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" t="s">
-        <v>143</v>
-      </c>
-      <c r="O18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18">
-        <v>5.0319259164211566E-2</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>135</v>
-      </c>
-      <c r="S18" t="s">
-        <v>144</v>
-      </c>
-      <c r="T18" t="s">
-        <v>142</v>
-      </c>
-      <c r="U18">
-        <v>5.1183629949946789E-2</v>
-      </c>
-      <c r="V18" t="s">
-        <v>135</v>
-      </c>
-      <c r="X18">
-        <v>4.8744292237442921E-2</v>
-      </c>
-      <c r="Y18">
-        <v>5.0349302637794295E-2</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE18">
-        <v>5.3457696931500959E-2</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI18">
-        <v>0.18212079901465139</v>
-      </c>
-    </row>
-    <row r="19" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE19">
-        <v>0.27409061223624648</v>
-      </c>
-    </row>
-    <row r="20" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE20">
-        <v>3.4986937233220237E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE21">
-        <v>0.28013574017878146</v>
-      </c>
-    </row>
-    <row r="22" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC22" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE22">
-        <v>0.24360939428227799</v>
-      </c>
-    </row>
-    <row r="23" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE23">
-        <v>5.4950064605738376E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE24">
-        <v>7.0255204884274343E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE25">
-        <v>5.6225557246189072E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE26">
-        <v>4.8976173729118958E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E349D-6BCD-48A3-970E-559EDE80C677}">
-  <dimension ref="A9:AM12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C9" t="str">
-        <f>IF(A11="x","DeActivated","~TimeSlices")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="I9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="N9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="S9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="X9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AC9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AG9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AK9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_INS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
-        <v>131</v>
-      </c>
-      <c r="P10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" t="s">
-        <v>131</v>
-      </c>
-      <c r="U10" t="s">
-        <v>132</v>
-      </c>
-      <c r="V10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A11" t="str">
-        <f>IFERROR(IF(Veda!B5=A10,"ok","x"),"")</f>
-        <v>x</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11">
-        <v>0.99999999999980893</v>
-      </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="N11" t="s">
-        <v>143</v>
-      </c>
-      <c r="O11" t="s">
-        <v>157</v>
-      </c>
-      <c r="P11">
-        <v>0.99999999999979439</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" t="s">
-        <v>157</v>
-      </c>
-      <c r="U11">
-        <v>0.99999999999979616</v>
-      </c>
-      <c r="V11" t="s">
-        <v>135</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI11">
-        <v>0.29960038929139898</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL11">
-        <v>1.2</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="AC12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A25ADD-72E6-4FAE-831B-9DCDE2FFD48B}">
-  <dimension ref="A9:AM34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C9" t="str">
-        <f>IF(A11="x","DeActivated","~TimeSlices")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="I9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="N9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="S9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="X9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AC9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AG9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_DINS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-      <c r="AK9" t="str">
-        <f>IF(A11="x","DeActivated","~TFM_INS-AT")</f>
-        <v>DeActivated</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
-        <v>131</v>
-      </c>
-      <c r="P10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" t="s">
-        <v>131</v>
-      </c>
-      <c r="U10" t="s">
-        <v>132</v>
-      </c>
-      <c r="V10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A11" t="str">
-        <f>IFERROR(IF(Veda!B5=A10,"ok","x"),"")</f>
-        <v>x</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11">
-        <v>0.19429881101052746</v>
-      </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="N11" t="s">
-        <v>143</v>
-      </c>
-      <c r="O11" t="s">
-        <v>164</v>
-      </c>
-      <c r="P11">
-        <v>0.10520441806812357</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" t="s">
-        <v>164</v>
-      </c>
-      <c r="U11">
-        <v>9.7172680668432682E-2</v>
-      </c>
-      <c r="V11" t="s">
-        <v>135</v>
-      </c>
-      <c r="X11">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="Y11">
-        <v>0.16087081189037786</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE11">
-        <v>0.11819115625337555</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI11">
-        <v>0.18444393583567309</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL11">
-        <v>0.22555529847292924</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12">
-        <v>6.9026431976756313E-5</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12">
-        <v>0.10140725246095379</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>135</v>
-      </c>
-      <c r="S12" t="s">
-        <v>144</v>
-      </c>
-      <c r="T12" t="s">
-        <v>165</v>
-      </c>
-      <c r="U12">
-        <v>0.10539924156265808</v>
-      </c>
-      <c r="V12" t="s">
-        <v>135</v>
-      </c>
-      <c r="X12">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="Y12">
-        <v>5.2547713165767528E-2</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE12">
-        <v>9.764364422569162E-2</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI12">
-        <v>0.33632064062675737</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL12">
-        <v>0.30301943544655252</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13">
-        <v>1.2744997819071709E-2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" t="s">
-        <v>166</v>
-      </c>
-      <c r="P13">
-        <v>2.0061122687877575E-2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>135</v>
-      </c>
-      <c r="S13" t="s">
-        <v>144</v>
-      </c>
-      <c r="T13" t="s">
-        <v>166</v>
-      </c>
-      <c r="U13">
-        <v>1.8540853079282008E-2</v>
-      </c>
-      <c r="V13" t="s">
-        <v>135</v>
-      </c>
-      <c r="X13">
-        <v>2.0776255707762557E-2</v>
-      </c>
-      <c r="Y13">
-        <v>3.5896543437005365E-2</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE13">
-        <v>2.2218061012861254E-2</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI13">
-        <v>0.16828062521923326</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL13">
-        <v>0.26702915316982878</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14">
-        <v>0.25838474206722706</v>
-      </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" t="s">
-        <v>143</v>
-      </c>
-      <c r="O14" t="s">
-        <v>167</v>
-      </c>
-      <c r="P14">
-        <v>0.14904848550067187</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>135</v>
-      </c>
-      <c r="S14" t="s">
-        <v>144</v>
-      </c>
-      <c r="T14" t="s">
-        <v>167</v>
-      </c>
-      <c r="U14">
-        <v>0.13990776695821097</v>
-      </c>
-      <c r="V14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="Y14">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE14">
-        <v>0.12251447003662695</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI14">
-        <v>0.19174320375688136</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL14">
-        <v>0.4043961129106895</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="I15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s">
-        <v>168</v>
-      </c>
-      <c r="K15">
-        <v>3.3105948694450689E-3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
-      <c r="N15" t="s">
-        <v>143</v>
-      </c>
-      <c r="O15" t="s">
-        <v>168</v>
-      </c>
-      <c r="P15">
-        <v>0.1425689183623626</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>135</v>
-      </c>
-      <c r="S15" t="s">
-        <v>144</v>
-      </c>
-      <c r="T15" t="s">
-        <v>168</v>
-      </c>
-      <c r="U15">
-        <v>0.14899437241819788</v>
-      </c>
-      <c r="V15" t="s">
-        <v>135</v>
-      </c>
-      <c r="X15">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="Y15">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE15">
-        <v>9.9430561690573876E-2</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI15">
-        <v>0.37712195612715815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="I16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16">
-        <v>3.0691267184700395E-2</v>
-      </c>
-      <c r="L16" t="s">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O16" t="s">
-        <v>169</v>
-      </c>
-      <c r="P16">
-        <v>2.8818897827592432E-2</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>135</v>
-      </c>
-      <c r="S16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T16" t="s">
-        <v>169</v>
-      </c>
-      <c r="U16">
-        <v>2.7122130054051344E-2</v>
-      </c>
-      <c r="V16" t="s">
-        <v>135</v>
-      </c>
-      <c r="X16">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="Y16">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE16">
-        <v>2.2965271391870858E-2</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI16">
-        <v>0.1680616153557668</v>
-      </c>
-    </row>
-    <row r="17" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17">
-        <v>0.29948444185308731</v>
-      </c>
-      <c r="L17" t="s">
-        <v>135</v>
-      </c>
-      <c r="N17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" t="s">
-        <v>170</v>
-      </c>
-      <c r="P17">
-        <v>7.5144634691264436E-2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>135</v>
-      </c>
-      <c r="S17" t="s">
-        <v>144</v>
-      </c>
-      <c r="T17" t="s">
-        <v>170</v>
-      </c>
-      <c r="U17">
-        <v>6.8511894999283909E-2</v>
-      </c>
-      <c r="V17" t="s">
-        <v>135</v>
-      </c>
-      <c r="X17">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="Y17">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE17">
-        <v>0.12264326156561349</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI17">
-        <v>0.14769495408386679</v>
-      </c>
-    </row>
-    <row r="18" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18">
-        <v>9.4162079174879981E-3</v>
-      </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" t="s">
-        <v>143</v>
-      </c>
-      <c r="O18" t="s">
-        <v>171</v>
-      </c>
-      <c r="P18">
-        <v>6.846541783195341E-2</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>135</v>
-      </c>
-      <c r="S18" t="s">
-        <v>144</v>
-      </c>
-      <c r="T18" t="s">
-        <v>171</v>
-      </c>
-      <c r="U18">
-        <v>7.3165268177176404E-2</v>
-      </c>
-      <c r="V18" t="s">
-        <v>135</v>
-      </c>
-      <c r="X18">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="Y18">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE18">
-        <v>0.10045386194730507</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI18">
-        <v>0.31451538907064003</v>
-      </c>
-    </row>
-    <row r="19" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19">
-        <v>3.8021106530569837E-2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>135</v>
-      </c>
-      <c r="N19" t="s">
-        <v>143</v>
-      </c>
-      <c r="O19" t="s">
-        <v>172</v>
-      </c>
-      <c r="P19">
-        <v>1.5303222790190243E-2</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>135</v>
-      </c>
-      <c r="S19" t="s">
-        <v>144</v>
-      </c>
-      <c r="T19" t="s">
-        <v>172</v>
-      </c>
-      <c r="U19">
-        <v>1.532870077005929E-2</v>
-      </c>
-      <c r="V19" t="s">
-        <v>135</v>
-      </c>
-      <c r="X19">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="Y19">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE19">
-        <v>2.2611873364752143E-2</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI19">
-        <v>0.1070148299237299</v>
-      </c>
-    </row>
-    <row r="20" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I20" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K20">
-        <v>0.14688613298083877</v>
-      </c>
-      <c r="L20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" t="s">
-        <v>143</v>
-      </c>
-      <c r="O20" t="s">
-        <v>173</v>
-      </c>
-      <c r="P20">
-        <v>0.1353111009554451</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S20" t="s">
-        <v>144</v>
-      </c>
-      <c r="T20" t="s">
-        <v>173</v>
-      </c>
-      <c r="U20">
-        <v>0.14132794813818267</v>
-      </c>
-      <c r="V20" t="s">
-        <v>135</v>
-      </c>
-      <c r="X20">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="Y20">
-        <v>0.15910300077070333</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE20">
-        <v>0.13762287724714475</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI20">
-        <v>0.10814855721490635</v>
-      </c>
-    </row>
-    <row r="21" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I21" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>135</v>
-      </c>
-      <c r="N21" t="s">
-        <v>143</v>
-      </c>
-      <c r="O21" t="s">
-        <v>174</v>
-      </c>
-      <c r="P21">
-        <v>0.13382477085889041</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>135</v>
-      </c>
-      <c r="S21" t="s">
-        <v>144</v>
-      </c>
-      <c r="T21" t="s">
-        <v>174</v>
-      </c>
-      <c r="U21">
-        <v>0.13886151961176466</v>
-      </c>
-      <c r="V21" t="s">
-        <v>135</v>
-      </c>
-      <c r="X21">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="Y21">
-        <v>5.197026576834151E-2</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE21">
-        <v>0.10709107236508457</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI21">
-        <v>0.30643668094329723</v>
-      </c>
-    </row>
-    <row r="22" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="I22" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22">
-        <v>6.6926713348765317E-3</v>
-      </c>
-      <c r="L22" t="s">
-        <v>135</v>
-      </c>
-      <c r="N22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O22" t="s">
-        <v>175</v>
-      </c>
-      <c r="P22">
-        <v>2.4841757964468962E-2</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>135</v>
-      </c>
-      <c r="S22" t="s">
-        <v>144</v>
-      </c>
-      <c r="T22" t="s">
-        <v>175</v>
-      </c>
-      <c r="U22">
-        <v>2.5667623562496359E-2</v>
-      </c>
-      <c r="V22" t="s">
-        <v>135</v>
-      </c>
-      <c r="X22">
-        <v>2.0547945205479451E-2</v>
-      </c>
-      <c r="Y22">
-        <v>3.5502075926708607E-2</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE22">
-        <v>2.6613888899099897E-2</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI22">
-        <v>5.2768244206291559E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE23">
-        <v>0.11495523261944324</v>
-      </c>
-    </row>
-    <row r="24" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE24">
-        <v>0.11331233725982839</v>
-      </c>
-    </row>
-    <row r="25" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE25">
-        <v>2.0959220056360785E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE26">
-        <v>0.11632010738895902</v>
-      </c>
-    </row>
-    <row r="27" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE27">
-        <v>0.11447441211196349</v>
-      </c>
-    </row>
-    <row r="28" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE28">
-        <v>2.1204273083676676E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE29">
-        <v>0.11630400514669803</v>
-      </c>
-    </row>
-    <row r="30" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC30" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE30">
-        <v>0.11452983114371207</v>
-      </c>
-    </row>
-    <row r="31" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE31">
-        <v>2.1171216837340218E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="9:35" x14ac:dyDescent="0.45">
-      <c r="AC32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE32">
-        <v>0.11416318349107028</v>
-      </c>
-    </row>
-    <row r="33" spans="29:31" x14ac:dyDescent="0.45">
-      <c r="AC33" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE33">
-        <v>0.11172198474672497</v>
-      </c>
-    </row>
-    <row r="34" spans="29:31" x14ac:dyDescent="0.45">
-      <c r="AC34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE34">
-        <v>2.0884196114222889E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82B7A5-5098-4839-818D-D25B2A0B51BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D442727-5353-4560-840D-CD3E4A3C9F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D442727-5353-4560-840D-CD3E4A3C9F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6332C27-ED17-4509-A3AE-EEEC96B19B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>334.7912</c:v>
+                  <c:v>341.29200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>386.79759999999999</c:v>
+                  <c:v>380.29680000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>464.80720000000002</c:v>
+                  <c:v>429.05280000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.31600000000003</c:v>
+                  <c:v>487.56000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>546.06720000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>627.32720000000006</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.69</c:v>
+                  <c:v>71.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339.03</c:v>
+                  <c:v>104.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410.28</c:v>
+                  <c:v>134.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>494.2</c:v>
+                  <c:v>178.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>635.42999999999995</c:v>
+                  <c:v>209.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,7 +5642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5675,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5699,9 +5701,8 @@
       <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" t="str">
-        <f>C7</f>
-        <v>C1</v>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5717,9 +5718,8 @@
       <c r="B9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C61" si="0">C8</f>
-        <v>C1</v>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5735,9 +5735,8 @@
       <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5757,9 +5756,8 @@
       <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5773,8 +5771,8 @@
         <v>109</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <v>C7</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5782,27 +5780,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>334.7912</v>
+        <v>341.29200000000003</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>386.79759999999999</v>
+        <v>380.29680000000002</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>464.80720000000002</v>
+        <v>429.05280000000005</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>536.31600000000003</v>
+        <v>487.56000000000006</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>546.06720000000007</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>627.32720000000006</v>
+        <v>588.32240000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5814,7 +5812,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5825,27 +5823,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5857,7 +5855,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5872,7 +5870,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5938,18 +5936,18 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5957,50 +5955,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>3.2504000000000004</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>3.347912</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8679760000000001</v>
+        <v>3.8029680000000003</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>13.944216000000001</v>
+        <v>4.290528000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>16.089480000000002</v>
+        <v>4.8756000000000004</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>23.532896000000001</v>
+        <v>10.921344000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>31.366360000000004</v>
+        <v>17.649671999999999</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6016,14 +6014,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6031,7 +6029,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6043,42 +6041,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>113.764</v>
+        <v>117.01440000000001</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>107.133184</v>
+        <v>109.21344000000001</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>116.03927999999999</v>
+        <v>117.892008</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>134.79408799999999</v>
+        <v>124.42531200000001</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>155.53164000000001</v>
+        <v>141.39240000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>158.359488</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>194.47143200000002</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6100,19 +6098,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6120,7 +6118,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6131,31 +6129,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>198.27440000000001</v>
+        <v>195.024</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>207.57054400000001</v>
+        <v>204.77520000000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.21058399999998</v>
+        <v>228.17807999999999</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>260.29203200000006</v>
+        <v>244.56009600000002</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>289.61064000000005</v>
+        <v>263.28240000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>283.95494400000007</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>332.48341600000003</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6186,23 +6184,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6263,27 +6261,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>10.336272000000008</v>
+        <v>17.552160000000015</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>32.796536000000003</v>
+        <v>24.475512000000037</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>59.969879999999989</v>
+        <v>50.316192000000058</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>81.42252000000002</v>
+        <v>73.134000000000015</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>94.00156800000002</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.621151999999938</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6328,23 +6326,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>241.69</v>
+        <v>71.48</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>339.03</v>
+        <v>104.42</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>410.28</v>
+        <v>134.85</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>494.2</v>
+        <v>178.1</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>635.42999999999995</v>
+        <v>209.45</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6354,23 +6352,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>0.24168999999999999</v>
+        <v>7.1480000000000002E-2</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.33903</v>
+        <v>0.10442</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.41027999999999998</v>
+        <v>0.13485</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.49419999999999997</v>
+        <v>0.17809999999999998</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.63542999999999994</v>
+        <v>0.20945</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -22447,7 +22445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
   <dimension ref="B10:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6332C27-ED17-4509-A3AE-EEEC96B19B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF2C7B-1E2C-496D-9487-A07FD02D9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Bioenergy</t>
   </si>
   <si>
-    <t>fuel_supply</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>ts_12</t>
+  </si>
+  <si>
+    <t>pset_co</t>
   </si>
   <si>
     <t>ITA</t>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341.29200000000003</c:v>
+                  <c:v>334.7912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.29680000000002</c:v>
+                  <c:v>386.79759999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.05280000000005</c:v>
+                  <c:v>464.80720000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>487.56000000000006</c:v>
+                  <c:v>536.31600000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>546.06720000000007</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>627.32720000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.48</c:v>
+                  <c:v>241.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.42</c:v>
+                  <c:v>339.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.85</c:v>
+                  <c:v>410.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178.1</c:v>
+                  <c:v>494.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.45</c:v>
+                  <c:v>635.42999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -5699,10 +5699,11 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="C8" t="str">
+        <f>C7</f>
+        <v>C1</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5716,10 +5717,11 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>105</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C61" si="0">C8</f>
+        <v>C1</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5733,10 +5735,11 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5754,10 +5757,11 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5768,11 +5772,11 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C9:C61" si="0">C11</f>
-        <v>C7</v>
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5780,27 +5784,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>341.29200000000003</v>
+        <v>334.7912</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>380.29680000000002</v>
+        <v>386.79759999999999</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>429.05280000000005</v>
+        <v>464.80720000000002</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>487.56000000000006</v>
+        <v>536.31600000000003</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>546.06720000000007</v>
+        <v>588.32240000000002</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>627.32720000000006</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5808,11 +5812,11 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5823,27 +5827,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5851,11 +5855,11 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5866,11 +5870,11 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5932,22 +5936,22 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5955,50 +5959,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>0</v>
+        <v>3.2504000000000004</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.347912</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8029680000000003</v>
+        <v>3.8679760000000001</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>4.290528000000001</v>
+        <v>13.944216000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>4.8756000000000004</v>
+        <v>16.089480000000002</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>10.921344000000001</v>
+        <v>23.532896000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>17.649671999999999</v>
+        <v>31.366360000000004</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6010,18 +6014,18 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6029,7 +6033,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6041,42 +6045,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>117.01440000000001</v>
+        <v>113.764</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>109.21344000000001</v>
+        <v>107.133184</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>117.892008</v>
+        <v>116.03927999999999</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>124.42531200000001</v>
+        <v>134.79408799999999</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>141.39240000000001</v>
+        <v>155.53164000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>158.359488</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>194.47143200000002</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6098,19 +6102,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6118,7 +6122,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6129,31 +6133,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>195.024</v>
+        <v>198.27440000000001</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>204.77520000000001</v>
+        <v>207.57054400000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.17807999999999</v>
+        <v>228.21058399999998</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>244.56009600000002</v>
+        <v>260.29203200000006</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>263.28240000000005</v>
+        <v>289.61064000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>283.95494400000007</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>332.48341600000003</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6184,23 +6188,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6261,27 +6265,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>17.552160000000015</v>
+        <v>10.336272000000008</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>24.475512000000037</v>
+        <v>32.796536000000003</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>50.316192000000058</v>
+        <v>59.969879999999989</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>73.134000000000015</v>
+        <v>81.42252000000002</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>94.00156800000002</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>90.621151999999938</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6326,23 +6330,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>71.48</v>
+        <v>241.69</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>104.42</v>
+        <v>339.03</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>134.85</v>
+        <v>410.28</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>178.1</v>
+        <v>494.2</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>209.45</v>
+        <v>635.42999999999995</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6352,23 +6356,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>7.1480000000000002E-2</v>
+        <v>0.24168999999999999</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.10442</v>
+        <v>0.33903</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.13485</v>
+        <v>0.41027999999999998</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.17809999999999998</v>
+        <v>0.49419999999999997</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.20945</v>
+        <v>0.63542999999999994</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -6830,7 +6834,7 @@
         <v>C4</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
@@ -6849,7 +6853,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="G42">
         <v>2022</v>
@@ -6879,10 +6883,10 @@
         <v>2050</v>
       </c>
       <c r="P42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q42" t="s">
         <v>84</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
@@ -6900,8 +6904,9 @@
       <c r="E43" t="s">
         <v>79</v>
       </c>
-      <c r="F43" t="s">
-        <v>83</v>
+      <c r="F43" t="str">
+        <f>E43</f>
+        <v>Gas</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43:M46" si="9">AVERAGE($P43:$Q43)*G35</f>
@@ -6955,8 +6960,9 @@
       <c r="E44" t="s">
         <v>80</v>
       </c>
-      <c r="F44" t="s">
-        <v>83</v>
+      <c r="F44" t="str">
+        <f t="shared" ref="F44:F46" si="10">E44</f>
+        <v>Coal</v>
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
@@ -7010,8 +7016,9 @@
       <c r="E45" t="s">
         <v>81</v>
       </c>
-      <c r="F45" t="s">
-        <v>83</v>
+      <c r="F45" t="str">
+        <f t="shared" si="10"/>
+        <v>Oil</v>
       </c>
       <c r="G45">
         <f t="shared" si="9"/>
@@ -7065,8 +7072,9 @@
       <c r="E46" t="s">
         <v>82</v>
       </c>
-      <c r="F46" t="s">
-        <v>83</v>
+      <c r="F46" t="str">
+        <f t="shared" si="10"/>
+        <v>Bioenergy</v>
       </c>
       <c r="G46">
         <f t="shared" si="9"/>
@@ -22468,12 +22476,12 @@
         <v>0.75</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C18" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -22485,49 +22493,49 @@
     </row>
     <row r="22" spans="3:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="K22" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
       </c>
       <c r="E23" t="str">
         <f>G23</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
         <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
       </c>
       <c r="H23" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
@@ -22544,22 +22552,22 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" t="str">
         <f>G24</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
         <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
       </c>
       <c r="H24" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
@@ -22570,7 +22578,7 @@
         <v>-0.75</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF2C7B-1E2C-496D-9487-A07FD02D9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8C7C9-B668-4FE0-ADC0-825D37334C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>334.7912</c:v>
+                  <c:v>341.29200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>386.79759999999999</c:v>
+                  <c:v>380.29680000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>464.80720000000002</c:v>
+                  <c:v>429.05280000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.31600000000003</c:v>
+                  <c:v>487.56000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>546.06720000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>627.32720000000006</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.69</c:v>
+                  <c:v>71.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339.03</c:v>
+                  <c:v>104.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410.28</c:v>
+                  <c:v>134.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>494.2</c:v>
+                  <c:v>178.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>635.42999999999995</c:v>
+                  <c:v>209.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5701,9 +5701,8 @@
       <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="C8" t="str">
-        <f>C7</f>
-        <v>C1</v>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5719,9 +5718,8 @@
       <c r="B9" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C61" si="0">C8</f>
-        <v>C1</v>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5737,9 +5735,8 @@
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5759,9 +5756,8 @@
       <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5775,8 +5771,8 @@
         <v>108</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <v>C7</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5784,27 +5780,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>334.7912</v>
+        <v>341.29200000000003</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>386.79759999999999</v>
+        <v>380.29680000000002</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>464.80720000000002</v>
+        <v>429.05280000000005</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>536.31600000000003</v>
+        <v>487.56000000000006</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>546.06720000000007</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>627.32720000000006</v>
+        <v>588.32240000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5816,7 +5812,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5827,27 +5823,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5859,7 +5855,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5874,7 +5870,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5940,18 +5936,18 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5959,50 +5955,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>3.2504000000000004</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>3.347912</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8679760000000001</v>
+        <v>3.8029680000000003</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>13.944216000000001</v>
+        <v>4.290528000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>16.089480000000002</v>
+        <v>4.8756000000000004</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>23.532896000000001</v>
+        <v>10.921344000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>31.366360000000004</v>
+        <v>17.649671999999999</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6018,14 +6014,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6033,7 +6029,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6045,42 +6041,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>113.764</v>
+        <v>117.01440000000001</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>107.133184</v>
+        <v>109.21344000000001</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>116.03927999999999</v>
+        <v>117.892008</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>134.79408799999999</v>
+        <v>124.42531200000001</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>155.53164000000001</v>
+        <v>141.39240000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>158.359488</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>194.47143200000002</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6102,19 +6098,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6122,7 +6118,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6133,31 +6129,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>198.27440000000001</v>
+        <v>195.024</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>207.57054400000001</v>
+        <v>204.77520000000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.21058399999998</v>
+        <v>228.17807999999999</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>260.29203200000006</v>
+        <v>244.56009600000002</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>289.61064000000005</v>
+        <v>263.28240000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>283.95494400000007</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>332.48341600000003</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6188,23 +6184,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6265,27 +6261,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>10.336272000000008</v>
+        <v>17.552160000000015</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>32.796536000000003</v>
+        <v>24.475512000000037</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>59.969879999999989</v>
+        <v>50.316192000000058</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>81.42252000000002</v>
+        <v>73.134000000000015</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>94.00156800000002</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.621151999999938</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6330,23 +6326,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>241.69</v>
+        <v>71.48</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>339.03</v>
+        <v>104.42</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>410.28</v>
+        <v>134.85</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>494.2</v>
+        <v>178.1</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>635.42999999999995</v>
+        <v>209.45</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6356,23 +6352,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>0.24168999999999999</v>
+        <v>7.1480000000000002E-2</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.33903</v>
+        <v>0.10442</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.41027999999999998</v>
+        <v>0.13485</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.49419999999999997</v>
+        <v>0.17809999999999998</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.63542999999999994</v>
+        <v>0.20945</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8C7C9-B668-4FE0-ADC0-825D37334C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA3453-6204-4CD1-B6FE-5105166D0817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -333,9 +333,6 @@
     <t>UC_bev night chg limit</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
     <t>*EV*</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>pset_co</t>
+  </si>
+  <si>
+    <t>Elec</t>
   </si>
   <si>
     <t>ITA</t>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341.29200000000003</c:v>
+                  <c:v>334.7912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.29680000000002</c:v>
+                  <c:v>386.79759999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.05280000000005</c:v>
+                  <c:v>464.80720000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>487.56000000000006</c:v>
+                  <c:v>536.31600000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>546.06720000000007</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>627.32720000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.48</c:v>
+                  <c:v>241.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.42</c:v>
+                  <c:v>339.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.85</c:v>
+                  <c:v>410.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178.1</c:v>
+                  <c:v>494.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.45</c:v>
+                  <c:v>635.42999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -5699,10 +5699,11 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
+        <v>103</v>
+      </c>
+      <c r="C8" t="str">
+        <f>C7</f>
+        <v>C1</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5716,10 +5717,11 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C61" si="0">C8</f>
+        <v>C1</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5733,10 +5735,11 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>105</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5754,10 +5757,11 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5768,11 +5772,11 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C9:C61" si="0">C11</f>
-        <v>C7</v>
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5780,27 +5784,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>341.29200000000003</v>
+        <v>334.7912</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>380.29680000000002</v>
+        <v>386.79759999999999</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>429.05280000000005</v>
+        <v>464.80720000000002</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>487.56000000000006</v>
+        <v>536.31600000000003</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>546.06720000000007</v>
+        <v>588.32240000000002</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>627.32720000000006</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5808,11 +5812,11 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5823,27 +5827,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5851,11 +5855,11 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5866,11 +5870,11 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5932,22 +5936,22 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5955,50 +5959,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>0</v>
+        <v>3.2504000000000004</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.347912</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8029680000000003</v>
+        <v>3.8679760000000001</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>4.290528000000001</v>
+        <v>13.944216000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>4.8756000000000004</v>
+        <v>16.089480000000002</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>10.921344000000001</v>
+        <v>23.532896000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>17.649671999999999</v>
+        <v>31.366360000000004</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6010,18 +6014,18 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6029,7 +6033,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6041,42 +6045,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>117.01440000000001</v>
+        <v>113.764</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>109.21344000000001</v>
+        <v>107.133184</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>117.892008</v>
+        <v>116.03927999999999</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>124.42531200000001</v>
+        <v>134.79408799999999</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>141.39240000000001</v>
+        <v>155.53164000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>158.359488</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>194.47143200000002</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6098,19 +6102,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6118,7 +6122,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6129,31 +6133,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>195.024</v>
+        <v>198.27440000000001</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>204.77520000000001</v>
+        <v>207.57054400000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.17807999999999</v>
+        <v>228.21058399999998</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>244.56009600000002</v>
+        <v>260.29203200000006</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>263.28240000000005</v>
+        <v>289.61064000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>283.95494400000007</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>332.48341600000003</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6184,23 +6188,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6261,27 +6265,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>17.552160000000015</v>
+        <v>10.336272000000008</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>24.475512000000037</v>
+        <v>32.796536000000003</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>50.316192000000058</v>
+        <v>59.969879999999989</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>73.134000000000015</v>
+        <v>81.42252000000002</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>94.00156800000002</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>90.621151999999938</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6326,23 +6330,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>71.48</v>
+        <v>241.69</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>104.42</v>
+        <v>339.03</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>134.85</v>
+        <v>410.28</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>178.1</v>
+        <v>494.2</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>209.45</v>
+        <v>635.42999999999995</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6352,23 +6356,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>7.1480000000000002E-2</v>
+        <v>0.24168999999999999</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.10442</v>
+        <v>0.33903</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.13485</v>
+        <v>0.41027999999999998</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.17809999999999998</v>
+        <v>0.49419999999999997</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.20945</v>
+        <v>0.63542999999999994</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -6849,7 +6853,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42">
         <v>2022</v>
@@ -22449,8 +22453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
   <dimension ref="B10:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22521,17 +22525,17 @@
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E23" t="str">
         <f>G23</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
         <v>99</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
       </c>
       <c r="H23" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
@@ -22548,22 +22552,22 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E24" t="str">
         <f>G24</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
         <v>99</v>
-      </c>
-      <c r="G24" t="s">
-        <v>100</v>
       </c>
       <c r="H24" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
@@ -22574,7 +22578,7 @@
         <v>-0.75</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA3453-6204-4CD1-B6FE-5105166D0817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F589EDC-AAC6-4092-A8B9-B3211A9550E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>334.7912</c:v>
+                  <c:v>341.29200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>386.79759999999999</c:v>
+                  <c:v>380.29680000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>464.80720000000002</c:v>
+                  <c:v>429.05280000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.31600000000003</c:v>
+                  <c:v>487.56000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>546.06720000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>627.32720000000006</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.69</c:v>
+                  <c:v>71.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339.03</c:v>
+                  <c:v>104.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410.28</c:v>
+                  <c:v>134.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>494.2</c:v>
+                  <c:v>178.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>635.42999999999995</c:v>
+                  <c:v>209.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5701,9 +5701,8 @@
       <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="str">
-        <f>C7</f>
-        <v>C1</v>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5719,9 +5718,8 @@
       <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C61" si="0">C8</f>
-        <v>C1</v>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5737,9 +5735,8 @@
       <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5759,9 +5756,8 @@
       <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5775,8 +5771,8 @@
         <v>107</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <v>C7</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5784,27 +5780,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>334.7912</v>
+        <v>341.29200000000003</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>386.79759999999999</v>
+        <v>380.29680000000002</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>464.80720000000002</v>
+        <v>429.05280000000005</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>536.31600000000003</v>
+        <v>487.56000000000006</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>546.06720000000007</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>627.32720000000006</v>
+        <v>588.32240000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5816,7 +5812,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5827,27 +5823,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5859,7 +5855,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5874,7 +5870,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5940,18 +5936,18 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5959,50 +5955,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>3.2504000000000004</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>3.347912</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8679760000000001</v>
+        <v>3.8029680000000003</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>13.944216000000001</v>
+        <v>4.290528000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>16.089480000000002</v>
+        <v>4.8756000000000004</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>23.532896000000001</v>
+        <v>10.921344000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>31.366360000000004</v>
+        <v>17.649671999999999</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6018,14 +6014,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6033,7 +6029,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6045,42 +6041,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>113.764</v>
+        <v>117.01440000000001</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>107.133184</v>
+        <v>109.21344000000001</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>116.03927999999999</v>
+        <v>117.892008</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>134.79408799999999</v>
+        <v>124.42531200000001</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>155.53164000000001</v>
+        <v>141.39240000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>158.359488</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>194.47143200000002</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6102,19 +6098,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6122,7 +6118,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6133,31 +6129,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>198.27440000000001</v>
+        <v>195.024</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>207.57054400000001</v>
+        <v>204.77520000000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.21058399999998</v>
+        <v>228.17807999999999</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>260.29203200000006</v>
+        <v>244.56009600000002</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>289.61064000000005</v>
+        <v>263.28240000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>283.95494400000007</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>332.48341600000003</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6188,23 +6184,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6265,27 +6261,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>10.336272000000008</v>
+        <v>17.552160000000015</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>32.796536000000003</v>
+        <v>24.475512000000037</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>59.969879999999989</v>
+        <v>50.316192000000058</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>81.42252000000002</v>
+        <v>73.134000000000015</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>94.00156800000002</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.621151999999938</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6330,23 +6326,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>241.69</v>
+        <v>71.48</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>339.03</v>
+        <v>104.42</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>410.28</v>
+        <v>134.85</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>494.2</v>
+        <v>178.1</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>635.42999999999995</v>
+        <v>209.45</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6356,23 +6352,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>0.24168999999999999</v>
+        <v>7.1480000000000002E-2</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.33903</v>
+        <v>0.10442</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.41027999999999998</v>
+        <v>0.13485</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.49419999999999997</v>
+        <v>0.17809999999999998</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.63542999999999994</v>
+        <v>0.20945</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -7318,9 +7314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3AADB-9A32-40E9-8F4D-C4BF39898AB4}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7410,9 +7404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8138,9 +8130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M360"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22453,7 +22443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
   <dimension ref="B10:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F589EDC-AAC6-4092-A8B9-B3211A9550E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA966268-2DCD-424F-89D2-9D76134F8A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341.29200000000003</c:v>
+                  <c:v>334.7912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.29680000000002</c:v>
+                  <c:v>386.79759999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.05280000000005</c:v>
+                  <c:v>464.80720000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>487.56000000000006</c:v>
+                  <c:v>536.31600000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>546.06720000000007</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>627.32720000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.48</c:v>
+                  <c:v>241.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.42</c:v>
+                  <c:v>339.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.85</c:v>
+                  <c:v>410.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178.1</c:v>
+                  <c:v>494.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.45</c:v>
+                  <c:v>635.42999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5701,8 +5701,9 @@
       <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
+      <c r="C8" t="str">
+        <f>C7</f>
+        <v>C1</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5718,8 +5719,9 @@
       <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C61" si="0">C8</f>
+        <v>C1</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5735,8 +5737,9 @@
       <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5756,8 +5759,9 @@
       <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5771,8 +5775,8 @@
         <v>107</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C9:C61" si="0">C11</f>
-        <v>C7</v>
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5780,27 +5784,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>341.29200000000003</v>
+        <v>334.7912</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>380.29680000000002</v>
+        <v>386.79759999999999</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>429.05280000000005</v>
+        <v>464.80720000000002</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>487.56000000000006</v>
+        <v>536.31600000000003</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>546.06720000000007</v>
+        <v>588.32240000000002</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>627.32720000000006</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5812,7 +5816,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5823,27 +5827,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5855,7 +5859,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5870,7 +5874,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5936,18 +5940,18 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5955,50 +5959,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>0</v>
+        <v>3.2504000000000004</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.347912</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8029680000000003</v>
+        <v>3.8679760000000001</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>4.290528000000001</v>
+        <v>13.944216000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>4.8756000000000004</v>
+        <v>16.089480000000002</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>10.921344000000001</v>
+        <v>23.532896000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>17.649671999999999</v>
+        <v>31.366360000000004</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6014,14 +6018,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6029,7 +6033,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6041,42 +6045,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>117.01440000000001</v>
+        <v>113.764</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>109.21344000000001</v>
+        <v>107.133184</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>117.892008</v>
+        <v>116.03927999999999</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>124.42531200000001</v>
+        <v>134.79408799999999</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>141.39240000000001</v>
+        <v>155.53164000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>158.359488</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>194.47143200000002</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6098,19 +6102,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6118,7 +6122,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6129,31 +6133,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>195.024</v>
+        <v>198.27440000000001</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>204.77520000000001</v>
+        <v>207.57054400000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.17807999999999</v>
+        <v>228.21058399999998</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>244.56009600000002</v>
+        <v>260.29203200000006</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>263.28240000000005</v>
+        <v>289.61064000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>283.95494400000007</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>332.48341600000003</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6184,23 +6188,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6261,27 +6265,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>17.552160000000015</v>
+        <v>10.336272000000008</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>24.475512000000037</v>
+        <v>32.796536000000003</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>50.316192000000058</v>
+        <v>59.969879999999989</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>73.134000000000015</v>
+        <v>81.42252000000002</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>94.00156800000002</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>90.621151999999938</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6326,23 +6330,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>71.48</v>
+        <v>241.69</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>104.42</v>
+        <v>339.03</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>134.85</v>
+        <v>410.28</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>178.1</v>
+        <v>494.2</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>209.45</v>
+        <v>635.42999999999995</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6352,23 +6356,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>7.1480000000000002E-2</v>
+        <v>0.24168999999999999</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.10442</v>
+        <v>0.33903</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.13485</v>
+        <v>0.41027999999999998</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.17809999999999998</v>
+        <v>0.49419999999999997</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.20945</v>
+        <v>0.63542999999999994</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -7314,7 +7318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3AADB-9A32-40E9-8F4D-C4BF39898AB4}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7404,7 +7410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8130,7 +8138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M360"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22443,7 +22453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
   <dimension ref="B10:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA966268-2DCD-424F-89D2-9D76134F8A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9667F-16D3-4B2E-9715-E9596B3358B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>334.7912</c:v>
+                  <c:v>341.29200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>386.79759999999999</c:v>
+                  <c:v>380.29680000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>464.80720000000002</c:v>
+                  <c:v>429.05280000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.31600000000003</c:v>
+                  <c:v>487.56000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>546.06720000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>627.32720000000006</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.69</c:v>
+                  <c:v>71.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339.03</c:v>
+                  <c:v>104.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410.28</c:v>
+                  <c:v>134.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>494.2</c:v>
+                  <c:v>178.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>635.42999999999995</c:v>
+                  <c:v>209.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5701,9 +5701,8 @@
       <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="str">
-        <f>C7</f>
-        <v>C1</v>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5719,9 +5718,8 @@
       <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C61" si="0">C8</f>
-        <v>C1</v>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5737,9 +5735,8 @@
       <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5759,9 +5756,8 @@
       <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5775,8 +5771,8 @@
         <v>107</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <v>C7</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5784,27 +5780,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>334.7912</v>
+        <v>341.29200000000003</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>386.79759999999999</v>
+        <v>380.29680000000002</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>464.80720000000002</v>
+        <v>429.05280000000005</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>536.31600000000003</v>
+        <v>487.56000000000006</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>546.06720000000007</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>627.32720000000006</v>
+        <v>588.32240000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5816,7 +5812,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5827,27 +5823,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5859,7 +5855,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5874,7 +5870,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5940,18 +5936,18 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5959,50 +5955,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>3.2504000000000004</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>3.347912</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8679760000000001</v>
+        <v>3.8029680000000003</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>13.944216000000001</v>
+        <v>4.290528000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>16.089480000000002</v>
+        <v>4.8756000000000004</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>23.532896000000001</v>
+        <v>10.921344000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>31.366360000000004</v>
+        <v>17.649671999999999</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6018,14 +6014,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6033,7 +6029,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6045,42 +6041,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>113.764</v>
+        <v>117.01440000000001</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>107.133184</v>
+        <v>109.21344000000001</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>116.03927999999999</v>
+        <v>117.892008</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>134.79408799999999</v>
+        <v>124.42531200000001</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>155.53164000000001</v>
+        <v>141.39240000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>158.359488</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>194.47143200000002</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6102,19 +6098,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6122,7 +6118,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6133,31 +6129,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>198.27440000000001</v>
+        <v>195.024</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>207.57054400000001</v>
+        <v>204.77520000000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.21058399999998</v>
+        <v>228.17807999999999</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>260.29203200000006</v>
+        <v>244.56009600000002</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>289.61064000000005</v>
+        <v>263.28240000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>283.95494400000007</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>332.48341600000003</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6188,23 +6184,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6265,27 +6261,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>10.336272000000008</v>
+        <v>17.552160000000015</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>32.796536000000003</v>
+        <v>24.475512000000037</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>59.969879999999989</v>
+        <v>50.316192000000058</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>81.42252000000002</v>
+        <v>73.134000000000015</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>94.00156800000002</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.621151999999938</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6330,23 +6326,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>241.69</v>
+        <v>71.48</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>339.03</v>
+        <v>104.42</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>410.28</v>
+        <v>134.85</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>494.2</v>
+        <v>178.1</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>635.42999999999995</v>
+        <v>209.45</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6356,23 +6352,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>0.24168999999999999</v>
+        <v>7.1480000000000002E-2</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.33903</v>
+        <v>0.10442</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.41027999999999998</v>
+        <v>0.13485</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.49419999999999997</v>
+        <v>0.17809999999999998</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.63542999999999994</v>
+        <v>0.20945</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -22453,7 +22449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
   <dimension ref="B10:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9667F-16D3-4B2E-9715-E9596B3358B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828BAF9-F0DC-46DE-844A-A38F3DE8C8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -333,6 +333,9 @@
     <t>UC_bev night chg limit</t>
   </si>
   <si>
+    <t>ELC</t>
+  </si>
+  <si>
     <t>*EV*</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
   </si>
   <si>
     <t>pset_co</t>
-  </si>
-  <si>
-    <t>Elec</t>
   </si>
   <si>
     <t>ITA</t>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341.29200000000003</c:v>
+                  <c:v>334.7912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.29680000000002</c:v>
+                  <c:v>386.79759999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.05280000000005</c:v>
+                  <c:v>464.80720000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>487.56000000000006</c:v>
+                  <c:v>536.31600000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>546.06720000000007</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>627.32720000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.48</c:v>
+                  <c:v>241.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.42</c:v>
+                  <c:v>339.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.85</c:v>
+                  <c:v>410.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178.1</c:v>
+                  <c:v>494.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.45</c:v>
+                  <c:v>635.42999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -5699,10 +5699,11 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="C8" t="str">
+        <f>C7</f>
+        <v>C1</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5716,10 +5717,11 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>105</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C61" si="0">C8</f>
+        <v>C1</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5733,10 +5735,11 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5754,10 +5757,11 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5768,11 +5772,11 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C9:C61" si="0">C11</f>
-        <v>C7</v>
+        <f t="shared" si="0"/>
+        <v>C1</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5780,27 +5784,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>341.29200000000003</v>
+        <v>334.7912</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>380.29680000000002</v>
+        <v>386.79759999999999</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>429.05280000000005</v>
+        <v>464.80720000000002</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>487.56000000000006</v>
+        <v>536.31600000000003</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>546.06720000000007</v>
+        <v>588.32240000000002</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>627.32720000000006</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5808,11 +5812,11 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5823,27 +5827,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5851,11 +5855,11 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5866,11 +5870,11 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5932,22 +5936,22 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5955,50 +5959,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>0</v>
+        <v>3.2504000000000004</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.347912</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8029680000000003</v>
+        <v>3.8679760000000001</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>4.290528000000001</v>
+        <v>13.944216000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>4.8756000000000004</v>
+        <v>16.089480000000002</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>10.921344000000001</v>
+        <v>23.532896000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>17.649671999999999</v>
+        <v>31.366360000000004</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6010,18 +6014,18 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C7</v>
+        <v>C1</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6029,7 +6033,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6041,42 +6045,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>117.01440000000001</v>
+        <v>113.764</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>109.21344000000001</v>
+        <v>107.133184</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>117.892008</v>
+        <v>116.03927999999999</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>124.42531200000001</v>
+        <v>134.79408799999999</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>141.39240000000001</v>
+        <v>155.53164000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>158.359488</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>194.47143200000002</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6098,19 +6102,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6118,7 +6122,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6129,31 +6133,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>195.024</v>
+        <v>198.27440000000001</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>204.77520000000001</v>
+        <v>207.57054400000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.17807999999999</v>
+        <v>228.21058399999998</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>244.56009600000002</v>
+        <v>260.29203200000006</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>263.28240000000005</v>
+        <v>289.61064000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>283.95494400000007</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>332.48341600000003</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6184,23 +6188,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6261,27 +6265,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>17.552160000000015</v>
+        <v>10.336272000000008</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>24.475512000000037</v>
+        <v>32.796536000000003</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>50.316192000000058</v>
+        <v>59.969879999999989</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>73.134000000000015</v>
+        <v>81.42252000000002</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>94.00156800000002</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>90.621151999999938</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6326,23 +6330,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>71.48</v>
+        <v>241.69</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>104.42</v>
+        <v>339.03</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>134.85</v>
+        <v>410.28</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>178.1</v>
+        <v>494.2</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>209.45</v>
+        <v>635.42999999999995</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6352,23 +6356,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>7.1480000000000002E-2</v>
+        <v>0.24168999999999999</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.10442</v>
+        <v>0.33903</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.13485</v>
+        <v>0.41027999999999998</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.17809999999999998</v>
+        <v>0.49419999999999997</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.20945</v>
+        <v>0.63542999999999994</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -6849,7 +6853,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G42">
         <v>2022</v>
@@ -22450,7 +22454,7 @@
   <dimension ref="B10:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22521,17 +22525,17 @@
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E23" t="str">
         <f>G23</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
@@ -22548,22 +22552,22 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E24" t="str">
         <f>G24</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H24" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
@@ -22574,7 +22578,7 @@
         <v>-0.75</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828BAF9-F0DC-46DE-844A-A38F3DE8C8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0F83AA-B4DD-4514-ABC8-1120FE81FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -748,22 +748,22 @@
                   <c:v>325.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>334.7912</c:v>
+                  <c:v>341.29200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>386.79759999999999</c:v>
+                  <c:v>380.29680000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>464.80720000000002</c:v>
+                  <c:v>429.05280000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.31600000000003</c:v>
+                  <c:v>487.56000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.32240000000002</c:v>
+                  <c:v>546.06720000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>627.32720000000006</c:v>
+                  <c:v>588.32240000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.69</c:v>
+                  <c:v>71.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339.03</c:v>
+                  <c:v>104.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410.28</c:v>
+                  <c:v>134.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>494.2</c:v>
+                  <c:v>178.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>635.42999999999995</c:v>
+                  <c:v>209.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5701,9 +5701,8 @@
       <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="C8" t="str">
-        <f>C7</f>
-        <v>C1</v>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5719,9 +5718,8 @@
       <c r="B9" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C61" si="0">C8</f>
-        <v>C1</v>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5737,9 +5735,8 @@
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5759,9 +5756,8 @@
       <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5775,8 +5771,8 @@
         <v>108</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <v>C7</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5784,27 +5780,27 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
-        <v>334.7912</v>
+        <v>341.29200000000003</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>386.79759999999999</v>
+        <v>380.29680000000002</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>464.80720000000002</v>
+        <v>429.05280000000005</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>536.31600000000003</v>
+        <v>487.56000000000006</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>588.32240000000002</v>
+        <v>546.06720000000007</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>627.32720000000006</v>
+        <v>588.32240000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5816,7 +5812,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5827,27 +5823,27 @@
       </c>
       <c r="H13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5859,7 +5855,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5874,7 +5870,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5940,18 +5936,18 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
@@ -5959,50 +5955,50 @@
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
-        <v>3.2504000000000004</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>3.347912</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>3.8679760000000001</v>
+        <v>3.8029680000000003</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>13.944216000000001</v>
+        <v>4.290528000000001</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>16.089480000000002</v>
+        <v>4.8756000000000004</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>23.532896000000001</v>
+        <v>10.921344000000001</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>31.366360000000004</v>
+        <v>17.649671999999999</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6018,14 +6014,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6033,7 +6029,7 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
@@ -6045,42 +6041,42 @@
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="3"/>
-        <v>113.764</v>
+        <v>117.01440000000001</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
-        <v>107.133184</v>
+        <v>109.21344000000001</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>116.03927999999999</v>
+        <v>117.892008</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>134.79408799999999</v>
+        <v>124.42531200000001</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>155.53164000000001</v>
+        <v>141.39240000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>176.49672000000001</v>
+        <v>158.359488</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>194.47143200000002</v>
+        <v>176.49672000000001</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6102,19 +6098,19 @@
       </c>
       <c r="G18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6122,7 +6118,7 @@
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
@@ -6133,31 +6129,31 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>198.27440000000001</v>
+        <v>195.024</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>207.57054400000001</v>
+        <v>204.77520000000001</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>228.21058399999998</v>
+        <v>228.17807999999999</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>260.29203200000006</v>
+        <v>244.56009600000002</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>289.61064000000005</v>
+        <v>263.28240000000005</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>311.81087200000002</v>
+        <v>283.95494400000007</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>332.48341600000003</v>
+        <v>311.81087200000002</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6188,23 +6184,23 @@
       </c>
       <c r="I19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6265,27 +6261,27 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="6"/>
-        <v>10.336272000000008</v>
+        <v>17.552160000000015</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>32.796536000000003</v>
+        <v>24.475512000000037</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>59.969879999999989</v>
+        <v>50.316192000000058</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>81.42252000000002</v>
+        <v>73.134000000000015</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>90.263608000000033</v>
+        <v>94.00156800000002</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>90.621151999999938</v>
+        <v>90.263608000000033</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6330,23 +6326,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>241.69</v>
+        <v>71.48</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>339.03</v>
+        <v>104.42</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>410.28</v>
+        <v>134.85</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>494.2</v>
+        <v>178.1</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>635.42999999999995</v>
+        <v>209.45</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6356,23 +6352,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>0.24168999999999999</v>
+        <v>7.1480000000000002E-2</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.33903</v>
+        <v>0.10442</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.41027999999999998</v>
+        <v>0.13485</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.49419999999999997</v>
+        <v>0.17809999999999998</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.63542999999999994</v>
+        <v>0.20945</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0F83AA-B4DD-4514-ABC8-1120FE81FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEBA29-06F8-4B43-8BC0-48D65345BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5771,7 +5771,7 @@
         <v>108</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <f t="shared" ref="C12:C61" si="0">C11</f>
         <v>C7</v>
       </c>
       <c r="R12" s="8">

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEBA29-06F8-4B43-8BC0-48D65345BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075E2C0-D336-46DE-B93B-E8D62920D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
